--- a/doc/trim1/1_gestion_proyecto/2_levantamiento_informacion/1_recoleccion_informacion.xlsx
+++ b/doc/trim1/1_gestion_proyecto/2_levantamiento_informacion/1_recoleccion_informacion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C498912-4A15-467E-A25A-C954B0DEDA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5F0D1-CBC9-4F75-85AE-CF0CAB8200F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
   <si>
     <t>&lt;Nombre Proyecto&gt;</t>
   </si>
@@ -519,7 +519,16 @@
     <t>Exhibición</t>
   </si>
   <si>
-    <t>ANÁLISIS DE RECOLECCIÓN DE DATOS.
+    <t>0003</t>
+  </si>
+  <si>
+    <t>Se cambia el analisis de la entevista</t>
+  </si>
+  <si>
+    <t>10/03/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANÁLISIS DE RECOLECCIÓN DE DATOS.
 Con el objetivo de obtener información acerca de la empresa XXX ubicada en XXX la cual se dedica a la comercialización de productos varios, se plantearon diferentes métodos de recolección de datos los cuales irán siendo nombrados posteriormente.
 Para un sondeo previo acerca de la empresa anteriormente mencionada se utiliza el método de cuestionario vía electrónica, con ayuda de la herramienta Google forms, con el fin de obtener resultados óptimos se plantean objetivos para la investigación los cuales son:
 •	Conocer los procesos de la empresa.
@@ -528,7 +537,7 @@
 •	Identificar oportunidades de mejora en los procesos para desarrollar un software.
 •	Conocer procesos manuales que se puedan automatizar.
 Definiendo los objetivos del cuestionario se procede a realizar preguntas de tipo cerrado, las cuales tienen como objetivo que las mismas se enfoquen en respuestas concretas, y no da mucha importancia a las experiencias o sentimientos del propietario de la empresa; esto puesto que ello se realiza para dar una idea general de la empresa y los procesos que la misma tiene, como se puede observar en la siguiente imagen un ejemplo de las interrogantes.
-                                                                                                                                                                                                                                                                                                                                                                                 Ilustración 1.Preguntas cuestionario conocimiento general Google forms.
+Ilustración 1.Preguntas cuestionario conocimiento general Google forms.
 Fuente: Google forms
 Las preguntas realizadas en su totalidad con sus respectivas respuestas se podrán consultar en el Anexo A
 Como resultado del cuestionario se tuvieron en cuenta respuestas clave para obtener información que pueda alimentar los objetivos propuesto, identificando los siguientes procesos con los que cuenta la empresa:
@@ -557,6 +566,8 @@
 El dueño de la empresa menciona que el producto de control de ventas es algo que el definitivamente tiene que hacer, y lo genera a diario, este proceso lo realiza en un cuaderno, donde coloca la fecha, el valor del producto, la cantidad y de que producto se trata.
 Cuando un cliente requiere una factura el dueño utiliza un cuadro con unos productos, y este le pone la X al producto que se compró, posteriormente en la noche el mismo envía un correo para realizar así la factura electrónica.
 Cuando un producto se vence el dueño comenta la novedad a los proveedores y ellos realizan el cambio.
+Para realizar un pedido a los proveedores se realiza de 2 maneras, las cuales pueden ser directamente en la pagina web del proveedor, donde este escoge envía dinero y espera el producto; La otra manera es con el agente de campo designado por el proveedor, donde se escogen los productos y se paga y al día siguiente llegan estos, aproximadamente demorando entre 1 a dos días.
+El control monetario de la empresa es realizado por un contador contratado independiente, este requiere las ventas diarias de la empresa.
 La conclusión que obtengas de tu investigación marcará el rumbo de la toma de decisiones de la empresa, así que presenta tu reporte de manera clara, enumera los pasos que seguiste para la obtención de esos resultados. 
 Tras terminar con la entrevista se le solicita al dueño permiso para observar la tienda, y tomar fotos de los productos generados por los procesos, esto con el método de observación, tomando apuntes en la libreta de campo.
 Algunas de las fotografías obtenidas fueron:
@@ -565,7 +576,8 @@
 Ilustración 3. Exhibición
 Fuente propia
 Ilustración 4. Documentos acopiados
-Fuente propia</t>
+Fuente propia
+</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1638,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1781,24 +1793,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1817,18 +1821,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1856,7 +1868,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1893,6 +1904,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1986,6 +1998,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4157,15 +4172,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>88447</xdr:colOff>
+      <xdr:colOff>126547</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>204105</xdr:rowOff>
+      <xdr:rowOff>108855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1149803</xdr:colOff>
+      <xdr:colOff>1187903</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4187,8 +4202,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="88447" y="5728605"/>
-          <a:ext cx="3871231" cy="1939020"/>
+          <a:off x="126547" y="5766705"/>
+          <a:ext cx="3880756" cy="2005695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4531,8 +4546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:IV87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4557,55 +4572,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
     </row>
     <row r="10" spans="1:11" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -4616,56 +4631,56 @@
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="101"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="7" t="s">
         <v>10</v>
       </c>
@@ -4675,13 +4690,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="83"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="9" t="s">
         <v>13</v>
       </c>
@@ -4691,9 +4706,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="10" t="s">
         <v>14</v>
       </c>
@@ -4723,10 +4738,10 @@
       <c r="C26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="86"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="16" t="s">
         <v>20</v>
       </c>
@@ -4738,10 +4753,10 @@
       <c r="C27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="87"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="19" t="s">
         <v>50</v>
       </c>
@@ -4753,61 +4768,69 @@
       <c r="C28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="87"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="8"/>
+    <row r="29" spans="1:16" ht="27.75" customHeight="1">
+      <c r="B29" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="156"/>
+      <c r="F29" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="25.5" customHeight="1">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -4821,52 +4844,52 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
       <c r="J41" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
     </row>
     <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A45" s="25"/>
@@ -5182,18 +5205,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="D26:E26"/>
@@ -5208,11 +5224,18 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -5287,16 +5310,16 @@
       <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:253" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:253" ht="15" thickTop="1"/>
     <row r="8" spans="1:253" ht="15" thickBot="1">
@@ -5630,52 +5653,52 @@
     <row r="5" spans="1:12">
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="58"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
       <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="30">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="123"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:12" ht="30">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="123"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="122"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="60"/>
@@ -5691,742 +5714,742 @@
       <c r="K9" s="62"/>
     </row>
     <row r="10" spans="1:12" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="121"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="113"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="117"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="117"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="117"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="116"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="117"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="116"/>
       <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="117"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
       <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="117"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="116"/>
       <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="115"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="117"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="116"/>
       <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="115"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="117"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="116"/>
       <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="117"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="116"/>
       <c r="L20" s="34"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="117"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="116"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="115"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="117"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="117"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="116"/>
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="115"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="117"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="116"/>
       <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="115"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="117"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="116"/>
       <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="115"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="117"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="116"/>
       <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="115"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="117"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116"/>
       <c r="L27" s="34"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="115"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="117"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="116"/>
       <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="115"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="117"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="116"/>
       <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="115"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="117"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="116"/>
       <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A31" s="118"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="120"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="119"/>
       <c r="L31" s="34"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="113"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="115"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="117"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="116"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="117"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="116"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="117"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="116"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="115"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="117"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="116"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="115"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="117"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="116"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="115"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="117"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="116"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="115"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="117"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="116"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="115"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="117"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="116"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="115"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="117"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="116"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="115"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="117"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="116"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="115"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="117"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="116"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="115"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="117"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="116"/>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="118"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="120"/>
+      <c r="A45" s="117"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="119"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="113"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="115"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="117"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="116"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="115"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="117"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="116"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="115"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="117"/>
+      <c r="A49" s="114"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="116"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="115"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="117"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="116"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="115"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="117"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="116"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="115"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="117"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="116"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="115"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="117"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="116"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="115"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="117"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="116"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="115"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="117"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="116"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="115"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="117"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="115"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="116"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="115"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="117"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="115"/>
+      <c r="K57" s="116"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="115"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="117"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="116"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="115"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="117"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="115"/>
+      <c r="I59" s="115"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="116"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="115"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="117"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="115"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="116"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="115"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="117"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="116"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="115"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
-      <c r="K62" s="117"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="115"/>
+      <c r="I62" s="115"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="116"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="115"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="117"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="115"/>
+      <c r="I63" s="115"/>
+      <c r="J63" s="115"/>
+      <c r="K63" s="116"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1">
-      <c r="A64" s="118"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="119"/>
-      <c r="G64" s="119"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="119"/>
-      <c r="J64" s="119"/>
-      <c r="K64" s="120"/>
+      <c r="A64" s="117"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="118"/>
+      <c r="G64" s="118"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="118"/>
+      <c r="J64" s="118"/>
+      <c r="K64" s="119"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="39"/>
@@ -6505,12 +6528,12 @@
     <row r="5" spans="1:257">
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="57"/>
@@ -6518,42 +6541,42 @@
     </row>
     <row r="6" spans="1:257">
       <c r="A6" s="58"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
       <c r="K6" s="59"/>
       <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="123"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="122"/>
       <c r="L7" s="34"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="123"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="122"/>
       <c r="L8" s="34"/>
     </row>
     <row r="9" spans="1:257" ht="15" thickBot="1">
@@ -6571,17 +6594,17 @@
       <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="121"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
     </row>
     <row r="11" spans="1:257" ht="15.75" customHeight="1">
       <c r="A11" s="124" t="s">
@@ -7312,16 +7335,16 @@
     </row>
     <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A10" s="142"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
       <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
@@ -7489,54 +7512,54 @@
     </row>
     <row r="5" spans="1:257">
       <c r="A5" s="58"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
       <c r="L5" s="59"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:257">
       <c r="A6" s="58"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
       <c r="L6" s="59"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="59"/>
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="95"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
       <c r="L8" s="59"/>
       <c r="M8" s="34"/>
     </row>
@@ -7930,7 +7953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IV226"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:K226"/>
     </sheetView>
   </sheetViews>
@@ -7973,56 +7996,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="95"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -8033,17 +8056,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>
@@ -8052,7 +8075,7 @@
     </row>
     <row r="12" spans="1:256" ht="15.75" customHeight="1">
       <c r="A12" s="150" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B12" s="150"/>
       <c r="C12" s="150"/>

--- a/doc/trim1/1_gestion_proyecto/2_levantamiento_informacion/1_recoleccion_informacion.xlsx
+++ b/doc/trim1/1_gestion_proyecto/2_levantamiento_informacion/1_recoleccion_informacion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5F0D1-CBC9-4F75-85AE-CF0CAB8200F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8803C02-9D55-4843-A131-2F8118E5A11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Planeación" sheetId="6" r:id="rId2"/>
     <sheet name="Técnicas" sheetId="11" r:id="rId3"/>
     <sheet name="Instrumentos" sheetId="7" r:id="rId4"/>
-    <sheet name="Tabulación" sheetId="8" r:id="rId5"/>
+    <sheet name="Tabulación" sheetId="8" state="hidden" r:id="rId5"/>
     <sheet name="Reportes Gráficos" sheetId="9" r:id="rId6"/>
     <sheet name="Análisis" sheetId="10" r:id="rId7"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="137">
   <si>
     <t>&lt;Nombre Proyecto&gt;</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Autor</t>
-  </si>
-  <si>
-    <t>&lt;Nombre de la Empresa&gt;</t>
   </si>
   <si>
     <t>Versión / Edición</t>
@@ -571,20 +568,107 @@
 La conclusión que obtengas de tu investigación marcará el rumbo de la toma de decisiones de la empresa, así que presenta tu reporte de manera clara, enumera los pasos que seguiste para la obtención de esos resultados. 
 Tras terminar con la entrevista se le solicita al dueño permiso para observar la tienda, y tomar fotos de los productos generados por los procesos, esto con el método de observación, tomando apuntes en la libreta de campo.
 Algunas de las fotografías obtenidas fueron:
-Ilustración 2. Cuaderno de ventas diarias
-Fuente propia
-Ilustración 3. Exhibición
-Fuente propia
-Ilustración 4. Documentos acopiados
-Fuente propia
 </t>
+  </si>
+  <si>
+    <t>Las facturas mostradas anteriormente se utilizan para la verificación de los productos que llegan al negocio, es decir cuando estos llegan el encargado compara lo pedido contra lo entregado, en caso de que este no este completo se la empresa encargada deberá traer los productos faltantes al siguiente día.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Factura generada cuando el dueño realiza un pedido de forma presencial a un agente de la marca</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Factura al cliente, en este caso se pone una X al producto que el cliente llevo, si no se encuentra dentro de la lista el encargado la escribe en una aparte, y posteriormente termina la jornada laboral con la empresa en funcionamiento se envía un correo electrónico al cliente, para ello cuando le solicita la factura el encargado solicita el nombre completo y el correo electrónico. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Factura generada cuando el dueño realiza un pedido de forma virtual</t>
+    </r>
+  </si>
+  <si>
+    <t>Market System</t>
+  </si>
+  <si>
+    <t>Catalina Chavez - Harold Sanchez - Oscar Aguirre</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>Se adiciona el analisis de la tecnica de observacion</t>
+  </si>
+  <si>
+    <t>16/03/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +810,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -765,7 +869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1626,8 +1730,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="double">
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1638,7 +1753,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1793,16 +1908,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1821,26 +1947,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1981,26 +2093,50 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4172,15 +4308,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>126547</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>108855</xdr:rowOff>
+      <xdr:colOff>145597</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1187903</xdr:colOff>
+      <xdr:colOff>1206953</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4202,7 +4338,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="126547" y="5766705"/>
+          <a:off x="145597" y="5614305"/>
           <a:ext cx="3880756" cy="2005695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4216,6 +4352,156 @@
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>971551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>170106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7" descr="Un periódico con texto e imagen&#10;&#10;Descripción generada automáticamente con confianza media">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D57F20-B385-3658-27D8-6D8EF1A79246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="21126451"/>
+          <a:ext cx="3905250" cy="5046906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8" descr="Mano de una persona&#10;&#10;Descripción generada automáticamente con confianza media">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F31790-1C5E-74AC-9DA2-4996DD9B914E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304799" y="26631900"/>
+          <a:ext cx="4972051" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9" descr="Texto&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397AD085-EDE5-4277-DD63-F9F7BA898DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="33394650"/>
+          <a:ext cx="4857750" cy="6477512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4546,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:IV87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4572,55 +4858,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
+      <c r="C7" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
+      <c r="C8" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
     </row>
     <row r="10" spans="1:11" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -4631,100 +4917,100 @@
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
+      <c r="C17" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="C18" s="162" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
+      <c r="C19" s="163" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="D20" s="100"/>
+      <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
     <row r="24" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="B24" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2"/>
       <c r="F24" s="2"/>
       <c r="P24" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
@@ -4733,104 +5019,112 @@
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="B26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="E26" s="86"/>
+      <c r="F26" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="B27" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="87"/>
+      <c r="F27" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="25.5" customHeight="1" thickTop="1">
       <c r="B28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="D28" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="87"/>
+      <c r="F28" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D28" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="27.75" customHeight="1">
       <c r="B29" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="88"/>
+      <c r="F29" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="156" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="156"/>
-      <c r="F29" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="8"/>
+    </row>
+    <row r="30" spans="1:16" ht="31.5" customHeight="1">
+      <c r="B30" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -4839,57 +5133,57 @@
     </row>
     <row r="37" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="B37" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+    </row>
+    <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+    </row>
+    <row r="41" spans="1:13" ht="25.5" customHeight="1">
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="J41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-    </row>
-    <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-    </row>
-    <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="J41" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
     </row>
     <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A45" s="25"/>
@@ -5205,11 +5499,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="D26:E26"/>
@@ -5224,18 +5525,11 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -5248,7 +5542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:IS35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5270,56 +5564,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:253" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" spans="1:253" s="44" customFormat="1" ht="20.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+    </row>
+    <row r="5" spans="1:253" s="44" customFormat="1" ht="20.25">
+      <c r="A5" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-    </row>
-    <row r="5" spans="1:253" s="44" customFormat="1" ht="20.25">
-      <c r="A5" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
     </row>
     <row r="6" spans="1:253" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:253" ht="15" thickTop="1"/>
     <row r="8" spans="1:253" ht="15" thickBot="1">
@@ -5334,108 +5628,108 @@
     </row>
     <row r="9" spans="1:253" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="B9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="D9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="E9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="F9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="G9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="H9" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="I9" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="42" t="s">
+    </row>
+    <row r="10" spans="1:253" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B10" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="103">
+        <v>44967</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="1:253" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B11" s="102"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:253" customFormat="1" ht="36.75" customHeight="1">
+      <c r="B12" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:253" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B10" s="102" t="s">
+      <c r="D12" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="103">
+        <v>44974</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="104">
-        <v>44967</v>
-      </c>
-      <c r="G10" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:253" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B11" s="103"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:253" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B12" s="102" t="s">
+      <c r="H12" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:253" customFormat="1" ht="39" customHeight="1">
+      <c r="B13" s="102"/>
+      <c r="C13" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="104"/>
+      <c r="G13" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="104">
-        <v>44974</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="1:253" customFormat="1" ht="39" customHeight="1">
-      <c r="B13" s="103"/>
-      <c r="C13" s="52" t="s">
+      <c r="H13" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="53" t="s">
+      <c r="I13" s="54" t="s">
         <v>44</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:253" customFormat="1" ht="3" customHeight="1">
@@ -5614,7 +5908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:K45"/>
     </sheetView>
   </sheetViews>
@@ -5653,52 +5947,52 @@
     <row r="5" spans="1:12">
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="58"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="30">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="122"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:12" ht="30">
-      <c r="A8" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="122"/>
+      <c r="A8" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="60"/>
@@ -5714,742 +6008,742 @@
       <c r="K9" s="62"/>
     </row>
     <row r="10" spans="1:12" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="112"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="115"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="115"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="113"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="113"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="113"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="113"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A28" s="113"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A30" s="113"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="34"/>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1">
+      <c r="A32" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="112"/>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1">
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="115"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1">
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="115"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="113"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="115"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="113"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="115"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="115"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="113"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="115"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="113"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="115"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="113"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="115"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="113"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="115"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="113"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="115"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="113"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="115"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="115"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" thickBot="1">
+      <c r="A45" s="116"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="118"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="113"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="116"/>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="34"/>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="114"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="34"/>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="34"/>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="34"/>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="34"/>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="34"/>
-    </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="34"/>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A31" s="117"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="34"/>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1">
-      <c r="A32" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="113"/>
-    </row>
-    <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="116"/>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="116"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="116"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="116"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="116"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="114"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="116"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="114"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="116"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="114"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="116"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="114"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="116"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="116"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="114"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="116"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="116"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="117"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="119"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="113"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="112"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="114"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="116"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="115"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="114"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="116"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="115"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="114"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="116"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="115"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="114"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="116"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="115"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="114"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="115"/>
-      <c r="K51" s="116"/>
+      <c r="A51" s="113"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="115"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="114"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="116"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="115"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="114"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="116"/>
+      <c r="A53" s="113"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="115"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="114"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="116"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="115"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="114"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="116"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="115"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="114"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="116"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="114"/>
+      <c r="K56" s="115"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="114"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="116"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="115"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="116"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="115"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="114"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="116"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="115"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="116"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="115"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="114"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="116"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="115"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="114"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="115"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="115"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="116"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="115"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="114"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="115"/>
-      <c r="I63" s="115"/>
-      <c r="J63" s="115"/>
-      <c r="K63" s="116"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="115"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1">
-      <c r="A64" s="117"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="118"/>
-      <c r="G64" s="118"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="118"/>
-      <c r="J64" s="118"/>
-      <c r="K64" s="119"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="117"/>
+      <c r="K64" s="118"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="39"/>
@@ -6487,7 +6781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:IW50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -6528,12 +6822,12 @@
     <row r="5" spans="1:257">
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="57"/>
@@ -6541,42 +6835,42 @@
     </row>
     <row r="6" spans="1:257">
       <c r="A6" s="58"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="K6" s="59"/>
       <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="122"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="34"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="122"/>
+      <c r="A8" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="121"/>
       <c r="L8" s="34"/>
     </row>
     <row r="9" spans="1:257" ht="15" thickBot="1">
@@ -6594,80 +6888,80 @@
       <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
     </row>
     <row r="11" spans="1:257" ht="15.75" customHeight="1">
-      <c r="A11" s="124" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="133" t="s">
+      <c r="A11" s="123" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="132" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="135"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="134"/>
       <c r="L11" s="34"/>
     </row>
     <row r="12" spans="1:257">
-      <c r="A12" s="127"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="138"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="137"/>
       <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:257" ht="15" thickBot="1">
-      <c r="A13" s="130"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="141"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="140"/>
       <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:257" ht="15" customHeight="1">
       <c r="A14" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="65"/>
       <c r="E14" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="65"/>
       <c r="H14" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
@@ -6676,18 +6970,18 @@
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="24"/>
       <c r="D15" s="64"/>
       <c r="E15" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="64"/>
       <c r="H15" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K15" s="69"/>
       <c r="L15" s="68"/>
@@ -6695,13 +6989,13 @@
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="64"/>
       <c r="E16" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="64"/>
@@ -6712,13 +7006,13 @@
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="24"/>
       <c r="D17" s="64"/>
       <c r="E17" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="64"/>
       <c r="H17" s="58"/>
@@ -6728,13 +7022,13 @@
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="64"/>
       <c r="E18" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="58"/>
@@ -6744,13 +7038,13 @@
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="24"/>
       <c r="D19" s="64"/>
       <c r="E19" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="59"/>
       <c r="H19" s="58"/>
@@ -6760,13 +7054,13 @@
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="64"/>
       <c r="E20" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="58"/>
@@ -6776,13 +7070,13 @@
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="24"/>
       <c r="D21" s="64"/>
       <c r="E21" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="58"/>
@@ -6792,13 +7086,13 @@
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="64"/>
       <c r="E22" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="58"/>
@@ -6808,13 +7102,13 @@
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="24"/>
       <c r="D23" s="64"/>
       <c r="E23" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="58"/>
@@ -6824,13 +7118,13 @@
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="64"/>
       <c r="E24" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="59"/>
       <c r="H24" s="58"/>
@@ -6840,7 +7134,7 @@
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="24"/>
@@ -6854,7 +7148,7 @@
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -6868,7 +7162,7 @@
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="24"/>
@@ -6882,7 +7176,7 @@
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -6896,7 +7190,7 @@
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="24"/>
@@ -6910,7 +7204,7 @@
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -6924,7 +7218,7 @@
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A31" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="24"/>
@@ -6938,7 +7232,7 @@
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A32" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -6953,7 +7247,7 @@
     </row>
     <row r="33" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="24"/>
@@ -6968,7 +7262,7 @@
     </row>
     <row r="34" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -6982,7 +7276,7 @@
     </row>
     <row r="35" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="24"/>
@@ -6996,7 +7290,7 @@
     </row>
     <row r="36" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -7010,7 +7304,7 @@
     </row>
     <row r="37" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="24"/>
@@ -7024,7 +7318,7 @@
     </row>
     <row r="38" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -7038,7 +7332,7 @@
     </row>
     <row r="39" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="24"/>
@@ -7052,7 +7346,7 @@
     </row>
     <row r="40" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="24"/>
@@ -7066,7 +7360,7 @@
     </row>
     <row r="41" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="64"/>
@@ -7079,7 +7373,7 @@
     </row>
     <row r="42" spans="1:257" ht="15" customHeight="1">
       <c r="A42" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="58"/>
@@ -7090,7 +7384,7 @@
     </row>
     <row r="43" spans="1:257" ht="15" customHeight="1">
       <c r="A43" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="58"/>
@@ -7101,7 +7395,7 @@
     </row>
     <row r="44" spans="1:257" ht="15" customHeight="1">
       <c r="A44" s="63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="58"/>
@@ -7112,7 +7406,7 @@
     </row>
     <row r="45" spans="1:257" ht="15" customHeight="1">
       <c r="A45" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="59"/>
       <c r="E45" s="58"/>
@@ -7123,7 +7417,7 @@
     </row>
     <row r="46" spans="1:257" ht="15" customHeight="1">
       <c r="A46" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="58"/>
@@ -7134,7 +7428,7 @@
     </row>
     <row r="47" spans="1:257" ht="15" customHeight="1">
       <c r="A47" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="59"/>
       <c r="E47" s="58"/>
@@ -7145,7 +7439,7 @@
     </row>
     <row r="48" spans="1:257" ht="15" customHeight="1">
       <c r="A48" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="59"/>
       <c r="E48" s="58"/>
@@ -7257,12 +7551,12 @@
     <row r="5" spans="1:257">
       <c r="A5" s="74"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -7272,9 +7566,9 @@
     <row r="6" spans="1:257">
       <c r="A6" s="74"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7285,36 +7579,36 @@
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="75"/>
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:257" ht="30.75" thickBot="1">
-      <c r="A8" s="146" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
+      <c r="A8" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
       <c r="L8" s="76"/>
       <c r="M8" s="34"/>
     </row>
@@ -7334,17 +7628,17 @@
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
       <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
@@ -7449,7 +7743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -7512,54 +7806,54 @@
     </row>
     <row r="5" spans="1:257">
       <c r="A5" s="58"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
       <c r="L5" s="59"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:257">
       <c r="A6" s="58"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="L6" s="59"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="89"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
       <c r="L7" s="59"/>
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="89"/>
+      <c r="A8" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
       <c r="L8" s="59"/>
       <c r="M8" s="34"/>
     </row>
@@ -7579,17 +7873,17 @@
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="148"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
       <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1">
@@ -7897,13 +8191,13 @@
     <row r="46" spans="1:257" ht="409.6" customHeight="1"/>
     <row r="47" spans="1:257" ht="25.5">
       <c r="B47" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="24">
         <v>1</v>
       </c>
       <c r="E47" s="80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F47" s="70">
         <v>0.4</v>
@@ -7911,7 +8205,7 @@
     </row>
     <row r="48" spans="1:257" ht="25.5">
       <c r="E48" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48" s="70">
         <v>0.4</v>
@@ -7919,7 +8213,7 @@
     </row>
     <row r="49" spans="5:6" ht="25.5">
       <c r="E49" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49" s="70">
         <v>0.9</v>
@@ -7927,7 +8221,7 @@
     </row>
     <row r="50" spans="5:6" ht="25.5">
       <c r="E50" s="80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F50" s="70">
         <v>0.2</v>
@@ -7953,8 +8247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IV226"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:K226"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -7996,56 +8290,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="89"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="89"/>
+      <c r="A8" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -8056,2870 +8350,2893 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-    </row>
-    <row r="11" spans="1:256" ht="15" thickTop="1">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+    </row>
+    <row r="11" spans="1:256" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A11" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="156"/>
       <c r="IT11" s="1"/>
       <c r="IU11" s="1"/>
       <c r="IV11" s="1"/>
     </row>
     <row r="12" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="153"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="149"/>
+    </row>
+    <row r="13" spans="1:256" ht="15" customHeight="1">
+      <c r="A13" s="153"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="149"/>
+    </row>
+    <row r="14" spans="1:256" ht="15" customHeight="1">
+      <c r="A14" s="153"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="149"/>
+    </row>
+    <row r="15" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="153"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="149"/>
+      <c r="IT15" s="2"/>
+    </row>
+    <row r="16" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="153"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="149"/>
+      <c r="IT16" s="2"/>
+    </row>
+    <row r="17" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="153"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="149"/>
+      <c r="IT17" s="2"/>
+    </row>
+    <row r="18" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="153"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="149"/>
+      <c r="IT18" s="2"/>
+    </row>
+    <row r="19" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="153"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="149"/>
+      <c r="IT19" s="2"/>
+    </row>
+    <row r="20" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="153"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="149"/>
+      <c r="IT20" s="2"/>
+    </row>
+    <row r="21" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="153"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="149"/>
+      <c r="IT21" s="2"/>
+    </row>
+    <row r="22" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="153"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="149"/>
+      <c r="IT22" s="2"/>
+    </row>
+    <row r="23" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A23" s="153"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="149"/>
+      <c r="IT23" s="2"/>
+    </row>
+    <row r="24" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A24" s="153"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="149"/>
+      <c r="IT24" s="2"/>
+    </row>
+    <row r="25" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A25" s="153"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="149"/>
+      <c r="IT25" s="2"/>
+    </row>
+    <row r="26" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="153"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="149"/>
+      <c r="IT26" s="2"/>
+    </row>
+    <row r="27" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="153"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="149"/>
+      <c r="IT27" s="2"/>
+    </row>
+    <row r="28" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A28" s="153"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="149"/>
+      <c r="IT28" s="2"/>
+    </row>
+    <row r="29" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A29" s="153"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="149"/>
+      <c r="IT29" s="2"/>
+    </row>
+    <row r="30" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A30" s="153"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="149"/>
+      <c r="IT30" s="2"/>
+    </row>
+    <row r="31" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A31" s="153"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="149"/>
+      <c r="IT31" s="2"/>
+    </row>
+    <row r="32" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A32" s="153"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="149"/>
+      <c r="IT32" s="2"/>
+    </row>
+    <row r="33" spans="1:254" s="1" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A33" s="153"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="149"/>
+      <c r="IT33" s="2"/>
+    </row>
+    <row r="34" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A34" s="153"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="149"/>
+      <c r="IT34" s="2"/>
+    </row>
+    <row r="35" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A35" s="153"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="149"/>
+      <c r="IT35" s="2"/>
+    </row>
+    <row r="36" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A36" s="153"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="149"/>
+      <c r="IT36" s="2"/>
+    </row>
+    <row r="37" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A37" s="153"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="149"/>
+      <c r="IT37" s="2"/>
+    </row>
+    <row r="38" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A38" s="153"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="149"/>
+      <c r="IT38" s="2"/>
+    </row>
+    <row r="39" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A39" s="153"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="149"/>
+      <c r="IT39" s="2"/>
+    </row>
+    <row r="40" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A40" s="153"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="149"/>
+      <c r="IT40" s="2"/>
+    </row>
+    <row r="41" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A41" s="153"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="149"/>
+      <c r="IT41" s="2"/>
+    </row>
+    <row r="42" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A42" s="153"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="149"/>
+      <c r="IT42" s="2"/>
+    </row>
+    <row r="43" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A43" s="153"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="149"/>
+      <c r="IT43" s="2"/>
+    </row>
+    <row r="44" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A44" s="153"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="153"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="149"/>
+      <c r="IT44" s="2"/>
+    </row>
+    <row r="45" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A45" s="153"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="149"/>
+      <c r="IT45" s="2"/>
+    </row>
+    <row r="46" spans="1:254" s="1" customFormat="1" ht="297" customHeight="1">
+      <c r="A46" s="153"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="149"/>
+      <c r="IT46" s="2"/>
+    </row>
+    <row r="47" spans="1:254" s="1" customFormat="1" ht="237.75" customHeight="1">
+      <c r="A47" s="153"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="149"/>
+      <c r="IT47" s="2"/>
+    </row>
+    <row r="48" spans="1:254" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A48" s="153"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="153"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="149"/>
+      <c r="IT48" s="2"/>
+    </row>
+    <row r="49" spans="1:254" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A49" s="153"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="153"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="153"/>
+      <c r="K49" s="149"/>
+      <c r="IT49" s="2"/>
+    </row>
+    <row r="50" spans="1:254" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+      <c r="A50" s="153"/>
+      <c r="B50" s="153"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="153"/>
+      <c r="I50" s="153"/>
+      <c r="J50" s="153"/>
+      <c r="K50" s="149"/>
+      <c r="IT50" s="2"/>
+    </row>
+    <row r="51" spans="1:254" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+      <c r="A51" s="153"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="149"/>
+      <c r="IT51" s="2"/>
+    </row>
+    <row r="52" spans="1:254" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+      <c r="A52" s="153"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="149"/>
+      <c r="IT52" s="2"/>
+    </row>
+    <row r="53" spans="1:254" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+      <c r="A53" s="153"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="153"/>
+      <c r="J53" s="153"/>
+      <c r="K53" s="149"/>
+      <c r="IT53" s="2"/>
+    </row>
+    <row r="54" spans="1:254" s="1" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A54" s="153"/>
+      <c r="B54" s="153"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="153"/>
+      <c r="J54" s="153"/>
+      <c r="K54" s="149"/>
+      <c r="IT54" s="2"/>
+    </row>
+    <row r="55" spans="1:254" s="1" customFormat="1" ht="96.75" customHeight="1">
+      <c r="A55" s="159" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="160"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="161"/>
+      <c r="IT55" s="2"/>
+    </row>
+    <row r="56" spans="1:254" ht="119.25" customHeight="1">
+      <c r="A56" s="154"/>
+      <c r="B56" s="154"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="150"/>
+    </row>
+    <row r="57" spans="1:254" ht="72.75" customHeight="1">
+      <c r="A57" s="154"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="154"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="154"/>
+      <c r="J57" s="154"/>
+      <c r="K57" s="150"/>
+    </row>
+    <row r="58" spans="1:254" ht="168.75" customHeight="1">
+      <c r="A58" s="154"/>
+      <c r="B58" s="154"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="154"/>
+      <c r="G58" s="154"/>
+      <c r="H58" s="154"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="150"/>
+    </row>
+    <row r="59" spans="1:254" ht="14.25" customHeight="1">
+      <c r="A59" s="154"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="154"/>
+      <c r="H59" s="154"/>
+      <c r="I59" s="154"/>
+      <c r="J59" s="154"/>
+      <c r="K59" s="150"/>
+    </row>
+    <row r="60" spans="1:254" ht="14.25" customHeight="1">
+      <c r="A60" s="154"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="154"/>
+      <c r="G60" s="154"/>
+      <c r="H60" s="154"/>
+      <c r="I60" s="154"/>
+      <c r="J60" s="154"/>
+      <c r="K60" s="150"/>
+    </row>
+    <row r="61" spans="1:254" ht="14.25" customHeight="1">
+      <c r="A61" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="157"/>
+      <c r="K61" s="158"/>
+    </row>
+    <row r="62" spans="1:254" ht="14.25" customHeight="1">
+      <c r="A62" s="154"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="154"/>
+      <c r="H62" s="154"/>
+      <c r="I62" s="154"/>
+      <c r="J62" s="154"/>
+      <c r="K62" s="150"/>
+    </row>
+    <row r="63" spans="1:254" ht="14.25" customHeight="1">
+      <c r="A63" s="154"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="150"/>
+    </row>
+    <row r="64" spans="1:254" ht="14.25" customHeight="1">
+      <c r="A64" s="154"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="154"/>
+      <c r="H64" s="154"/>
+      <c r="I64" s="154"/>
+      <c r="J64" s="154"/>
+      <c r="K64" s="150"/>
+    </row>
+    <row r="65" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A65" s="154"/>
+      <c r="B65" s="154"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="154"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="154"/>
+      <c r="J65" s="154"/>
+      <c r="K65" s="150"/>
+    </row>
+    <row r="66" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A66" s="154"/>
+      <c r="B66" s="154"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="154"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
+      <c r="G66" s="154"/>
+      <c r="H66" s="154"/>
+      <c r="I66" s="154"/>
+      <c r="J66" s="154"/>
+      <c r="K66" s="150"/>
+    </row>
+    <row r="67" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A67" s="154"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="154"/>
+      <c r="F67" s="154"/>
+      <c r="G67" s="154"/>
+      <c r="H67" s="154"/>
+      <c r="I67" s="154"/>
+      <c r="J67" s="154"/>
+      <c r="K67" s="150"/>
+    </row>
+    <row r="68" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A68" s="154"/>
+      <c r="B68" s="154"/>
+      <c r="C68" s="154"/>
+      <c r="D68" s="154"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="154"/>
+      <c r="G68" s="154"/>
+      <c r="H68" s="154"/>
+      <c r="I68" s="154"/>
+      <c r="J68" s="154"/>
+      <c r="K68" s="150"/>
+    </row>
+    <row r="69" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A69" s="154"/>
+      <c r="B69" s="154"/>
+      <c r="C69" s="154"/>
+      <c r="D69" s="154"/>
+      <c r="E69" s="154"/>
+      <c r="F69" s="154"/>
+      <c r="G69" s="154"/>
+      <c r="H69" s="154"/>
+      <c r="I69" s="154"/>
+      <c r="J69" s="154"/>
+      <c r="K69" s="150"/>
+    </row>
+    <row r="70" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A70" s="154"/>
+      <c r="B70" s="154"/>
+      <c r="C70" s="154"/>
+      <c r="D70" s="154"/>
+      <c r="E70" s="154"/>
+      <c r="F70" s="154"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="154"/>
+      <c r="J70" s="154"/>
+      <c r="K70" s="150"/>
+    </row>
+    <row r="71" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A71" s="154"/>
+      <c r="B71" s="154"/>
+      <c r="C71" s="154"/>
+      <c r="D71" s="154"/>
+      <c r="E71" s="154"/>
+      <c r="F71" s="154"/>
+      <c r="G71" s="154"/>
+      <c r="H71" s="154"/>
+      <c r="I71" s="154"/>
+      <c r="J71" s="154"/>
+      <c r="K71" s="150"/>
+    </row>
+    <row r="72" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A72" s="154"/>
+      <c r="B72" s="154"/>
+      <c r="C72" s="154"/>
+      <c r="D72" s="154"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="154"/>
+      <c r="I72" s="154"/>
+      <c r="J72" s="154"/>
+      <c r="K72" s="150"/>
+    </row>
+    <row r="73" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A73" s="154"/>
+      <c r="B73" s="154"/>
+      <c r="C73" s="154"/>
+      <c r="D73" s="154"/>
+      <c r="E73" s="154"/>
+      <c r="F73" s="154"/>
+      <c r="G73" s="154"/>
+      <c r="H73" s="154"/>
+      <c r="I73" s="154"/>
+      <c r="J73" s="154"/>
+      <c r="K73" s="150"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A74" s="154"/>
+      <c r="B74" s="154"/>
+      <c r="C74" s="154"/>
+      <c r="D74" s="154"/>
+      <c r="E74" s="154"/>
+      <c r="F74" s="154"/>
+      <c r="G74" s="154"/>
+      <c r="H74" s="154"/>
+      <c r="I74" s="154"/>
+      <c r="J74" s="154"/>
+      <c r="K74" s="150"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A75" s="154"/>
+      <c r="B75" s="154"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="154"/>
+      <c r="E75" s="154"/>
+      <c r="F75" s="154"/>
+      <c r="G75" s="154"/>
+      <c r="H75" s="154"/>
+      <c r="I75" s="154"/>
+      <c r="J75" s="154"/>
+      <c r="K75" s="150"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A76" s="154"/>
+      <c r="B76" s="154"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="154"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="154"/>
+      <c r="G76" s="154"/>
+      <c r="H76" s="154"/>
+      <c r="I76" s="154"/>
+      <c r="J76" s="154"/>
+      <c r="K76" s="150"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A77" s="154"/>
+      <c r="B77" s="154"/>
+      <c r="C77" s="154"/>
+      <c r="D77" s="154"/>
+      <c r="E77" s="154"/>
+      <c r="F77" s="154"/>
+      <c r="G77" s="154"/>
+      <c r="H77" s="154"/>
+      <c r="I77" s="154"/>
+      <c r="J77" s="154"/>
+      <c r="K77" s="150"/>
+    </row>
+    <row r="78" spans="1:11" ht="15" customHeight="1">
+      <c r="A78" s="154"/>
+      <c r="B78" s="154"/>
+      <c r="C78" s="154"/>
+      <c r="D78" s="154"/>
+      <c r="E78" s="154"/>
+      <c r="F78" s="154"/>
+      <c r="G78" s="154"/>
+      <c r="H78" s="154"/>
+      <c r="I78" s="154"/>
+      <c r="J78" s="154"/>
+      <c r="K78" s="150"/>
+    </row>
+    <row r="79" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A79" s="154"/>
+      <c r="B79" s="154"/>
+      <c r="C79" s="154"/>
+      <c r="D79" s="154"/>
+      <c r="E79" s="154"/>
+      <c r="F79" s="154"/>
+      <c r="G79" s="154"/>
+      <c r="H79" s="154"/>
+      <c r="I79" s="154"/>
+      <c r="J79" s="154"/>
+      <c r="K79" s="150"/>
+    </row>
+    <row r="80" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A80" s="154"/>
+      <c r="B80" s="154"/>
+      <c r="C80" s="154"/>
+      <c r="D80" s="154"/>
+      <c r="E80" s="154"/>
+      <c r="F80" s="154"/>
+      <c r="G80" s="154"/>
+      <c r="H80" s="154"/>
+      <c r="I80" s="154"/>
+      <c r="J80" s="154"/>
+      <c r="K80" s="150"/>
+    </row>
+    <row r="81" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A81" s="154"/>
+      <c r="B81" s="154"/>
+      <c r="C81" s="154"/>
+      <c r="D81" s="154"/>
+      <c r="E81" s="154"/>
+      <c r="F81" s="154"/>
+      <c r="G81" s="154"/>
+      <c r="H81" s="154"/>
+      <c r="I81" s="154"/>
+      <c r="J81" s="154"/>
+      <c r="K81" s="150"/>
+    </row>
+    <row r="82" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A82" s="154"/>
+      <c r="B82" s="154"/>
+      <c r="C82" s="154"/>
+      <c r="D82" s="154"/>
+      <c r="E82" s="154"/>
+      <c r="F82" s="154"/>
+      <c r="G82" s="154"/>
+      <c r="H82" s="154"/>
+      <c r="I82" s="154"/>
+      <c r="J82" s="154"/>
+      <c r="K82" s="150"/>
+    </row>
+    <row r="83" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A83" s="154"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
+      <c r="E83" s="154"/>
+      <c r="F83" s="154"/>
+      <c r="G83" s="154"/>
+      <c r="H83" s="154"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="154"/>
+      <c r="K83" s="150"/>
+    </row>
+    <row r="84" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A84" s="154"/>
+      <c r="B84" s="154"/>
+      <c r="C84" s="154"/>
+      <c r="D84" s="154"/>
+      <c r="E84" s="154"/>
+      <c r="F84" s="154"/>
+      <c r="G84" s="154"/>
+      <c r="H84" s="154"/>
+      <c r="I84" s="154"/>
+      <c r="J84" s="154"/>
+      <c r="K84" s="150"/>
+    </row>
+    <row r="85" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A85" s="154"/>
+      <c r="B85" s="154"/>
+      <c r="C85" s="154"/>
+      <c r="D85" s="154"/>
+      <c r="E85" s="154"/>
+      <c r="F85" s="154"/>
+      <c r="G85" s="154"/>
+      <c r="H85" s="154"/>
+      <c r="I85" s="154"/>
+      <c r="J85" s="154"/>
+      <c r="K85" s="150"/>
+    </row>
+    <row r="86" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A86" s="154"/>
+      <c r="B86" s="154"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="154"/>
+      <c r="F86" s="154"/>
+      <c r="G86" s="154"/>
+      <c r="H86" s="154"/>
+      <c r="I86" s="154"/>
+      <c r="J86" s="154"/>
+      <c r="K86" s="150"/>
+    </row>
+    <row r="87" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A87" s="154"/>
+      <c r="B87" s="154"/>
+      <c r="C87" s="154"/>
+      <c r="D87" s="154"/>
+      <c r="E87" s="154"/>
+      <c r="F87" s="154"/>
+      <c r="G87" s="154"/>
+      <c r="H87" s="154"/>
+      <c r="I87" s="154"/>
+      <c r="J87" s="154"/>
+      <c r="K87" s="150"/>
+    </row>
+    <row r="88" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A88" s="154"/>
+      <c r="B88" s="154"/>
+      <c r="C88" s="154"/>
+      <c r="D88" s="154"/>
+      <c r="E88" s="154"/>
+      <c r="F88" s="154"/>
+      <c r="G88" s="154"/>
+      <c r="H88" s="154"/>
+      <c r="I88" s="154"/>
+      <c r="J88" s="154"/>
+      <c r="K88" s="150"/>
+    </row>
+    <row r="89" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A89" s="154"/>
+      <c r="B89" s="154"/>
+      <c r="C89" s="154"/>
+      <c r="D89" s="154"/>
+      <c r="E89" s="154"/>
+      <c r="F89" s="154"/>
+      <c r="G89" s="154"/>
+      <c r="H89" s="154"/>
+      <c r="I89" s="154"/>
+      <c r="J89" s="154"/>
+      <c r="K89" s="150"/>
+    </row>
+    <row r="90" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A90" s="154"/>
+      <c r="B90" s="154"/>
+      <c r="C90" s="154"/>
+      <c r="D90" s="154"/>
+      <c r="E90" s="154"/>
+      <c r="F90" s="154"/>
+      <c r="G90" s="154"/>
+      <c r="H90" s="154"/>
+      <c r="I90" s="154"/>
+      <c r="J90" s="154"/>
+      <c r="K90" s="150"/>
+    </row>
+    <row r="91" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A91" s="154"/>
+      <c r="B91" s="154"/>
+      <c r="C91" s="154"/>
+      <c r="D91" s="154"/>
+      <c r="E91" s="154"/>
+      <c r="F91" s="154"/>
+      <c r="G91" s="154"/>
+      <c r="H91" s="154"/>
+      <c r="I91" s="154"/>
+      <c r="J91" s="154"/>
+      <c r="K91" s="150"/>
+    </row>
+    <row r="92" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A92" s="154"/>
+      <c r="B92" s="154"/>
+      <c r="C92" s="154"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="154"/>
+      <c r="H92" s="154"/>
+      <c r="I92" s="154"/>
+      <c r="J92" s="154"/>
+      <c r="K92" s="150"/>
+    </row>
+    <row r="93" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A93" s="154"/>
+      <c r="B93" s="154"/>
+      <c r="C93" s="154"/>
+      <c r="D93" s="154"/>
+      <c r="E93" s="154"/>
+      <c r="F93" s="154"/>
+      <c r="G93" s="154"/>
+      <c r="H93" s="154"/>
+      <c r="I93" s="154"/>
+      <c r="J93" s="154"/>
+      <c r="K93" s="150"/>
+    </row>
+    <row r="94" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A94" s="154"/>
+      <c r="B94" s="154"/>
+      <c r="C94" s="154"/>
+      <c r="D94" s="154"/>
+      <c r="E94" s="154"/>
+      <c r="F94" s="154"/>
+      <c r="G94" s="154"/>
+      <c r="H94" s="154"/>
+      <c r="I94" s="154"/>
+      <c r="J94" s="154"/>
+      <c r="K94" s="150"/>
+    </row>
+    <row r="95" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A95" s="154"/>
+      <c r="B95" s="154"/>
+      <c r="C95" s="154"/>
+      <c r="D95" s="154"/>
+      <c r="E95" s="154"/>
+      <c r="F95" s="154"/>
+      <c r="G95" s="154"/>
+      <c r="H95" s="154"/>
+      <c r="I95" s="154"/>
+      <c r="J95" s="154"/>
+      <c r="K95" s="150"/>
+    </row>
+    <row r="96" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A96" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="157"/>
+      <c r="C96" s="157"/>
+      <c r="D96" s="157"/>
+      <c r="E96" s="157"/>
+      <c r="F96" s="157"/>
+      <c r="G96" s="157"/>
+      <c r="H96" s="157"/>
+      <c r="I96" s="157"/>
+      <c r="J96" s="157"/>
+      <c r="K96" s="158"/>
+    </row>
+    <row r="97" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A97" s="154"/>
+      <c r="B97" s="154"/>
+      <c r="C97" s="154"/>
+      <c r="D97" s="154"/>
+      <c r="E97" s="154"/>
+      <c r="F97" s="154"/>
+      <c r="G97" s="154"/>
+      <c r="H97" s="154"/>
+      <c r="I97" s="154"/>
+      <c r="J97" s="154"/>
+      <c r="K97" s="150"/>
+    </row>
+    <row r="98" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A98" s="154"/>
+      <c r="B98" s="154"/>
+      <c r="C98" s="154"/>
+      <c r="D98" s="154"/>
+      <c r="E98" s="154"/>
+      <c r="F98" s="154"/>
+      <c r="G98" s="154"/>
+      <c r="H98" s="154"/>
+      <c r="I98" s="154"/>
+      <c r="J98" s="154"/>
+      <c r="K98" s="150"/>
+    </row>
+    <row r="99" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A99" s="154"/>
+      <c r="B99" s="154"/>
+      <c r="C99" s="154"/>
+      <c r="D99" s="154"/>
+      <c r="E99" s="154"/>
+      <c r="F99" s="154"/>
+      <c r="G99" s="154"/>
+      <c r="H99" s="154"/>
+      <c r="I99" s="154"/>
+      <c r="J99" s="154"/>
+      <c r="K99" s="150"/>
+    </row>
+    <row r="100" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A100" s="154"/>
+      <c r="B100" s="154"/>
+      <c r="C100" s="154"/>
+      <c r="D100" s="154"/>
+      <c r="E100" s="154"/>
+      <c r="F100" s="154"/>
+      <c r="G100" s="154"/>
+      <c r="H100" s="154"/>
+      <c r="I100" s="154"/>
+      <c r="J100" s="154"/>
+      <c r="K100" s="150"/>
+    </row>
+    <row r="101" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A101" s="154"/>
+      <c r="B101" s="154"/>
+      <c r="C101" s="154"/>
+      <c r="D101" s="154"/>
+      <c r="E101" s="154"/>
+      <c r="F101" s="154"/>
+      <c r="G101" s="154"/>
+      <c r="H101" s="154"/>
+      <c r="I101" s="154"/>
+      <c r="J101" s="154"/>
+      <c r="K101" s="150"/>
+    </row>
+    <row r="102" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A102" s="154"/>
+      <c r="B102" s="154"/>
+      <c r="C102" s="154"/>
+      <c r="D102" s="154"/>
+      <c r="E102" s="154"/>
+      <c r="F102" s="154"/>
+      <c r="G102" s="154"/>
+      <c r="H102" s="154"/>
+      <c r="I102" s="154"/>
+      <c r="J102" s="154"/>
+      <c r="K102" s="150"/>
+    </row>
+    <row r="103" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A103" s="154"/>
+      <c r="B103" s="154"/>
+      <c r="C103" s="154"/>
+      <c r="D103" s="154"/>
+      <c r="E103" s="154"/>
+      <c r="F103" s="154"/>
+      <c r="G103" s="154"/>
+      <c r="H103" s="154"/>
+      <c r="I103" s="154"/>
+      <c r="J103" s="154"/>
+      <c r="K103" s="150"/>
+    </row>
+    <row r="104" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A104" s="154"/>
+      <c r="B104" s="154"/>
+      <c r="C104" s="154"/>
+      <c r="D104" s="154"/>
+      <c r="E104" s="154"/>
+      <c r="F104" s="154"/>
+      <c r="G104" s="154"/>
+      <c r="H104" s="154"/>
+      <c r="I104" s="154"/>
+      <c r="J104" s="154"/>
+      <c r="K104" s="150"/>
+    </row>
+    <row r="105" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A105" s="154"/>
+      <c r="B105" s="154"/>
+      <c r="C105" s="154"/>
+      <c r="D105" s="154"/>
+      <c r="E105" s="154"/>
+      <c r="F105" s="154"/>
+      <c r="G105" s="154"/>
+      <c r="H105" s="154"/>
+      <c r="I105" s="154"/>
+      <c r="J105" s="154"/>
+      <c r="K105" s="150"/>
+    </row>
+    <row r="106" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A106" s="154"/>
+      <c r="B106" s="154"/>
+      <c r="C106" s="154"/>
+      <c r="D106" s="154"/>
+      <c r="E106" s="154"/>
+      <c r="F106" s="154"/>
+      <c r="G106" s="154"/>
+      <c r="H106" s="154"/>
+      <c r="I106" s="154"/>
+      <c r="J106" s="154"/>
+      <c r="K106" s="150"/>
+    </row>
+    <row r="107" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A107" s="154"/>
+      <c r="B107" s="154"/>
+      <c r="C107" s="154"/>
+      <c r="D107" s="154"/>
+      <c r="E107" s="154"/>
+      <c r="F107" s="154"/>
+      <c r="G107" s="154"/>
+      <c r="H107" s="154"/>
+      <c r="I107" s="154"/>
+      <c r="J107" s="154"/>
+      <c r="K107" s="150"/>
+    </row>
+    <row r="108" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A108" s="154"/>
+      <c r="B108" s="154"/>
+      <c r="C108" s="154"/>
+      <c r="D108" s="154"/>
+      <c r="E108" s="154"/>
+      <c r="F108" s="154"/>
+      <c r="G108" s="154"/>
+      <c r="H108" s="154"/>
+      <c r="I108" s="154"/>
+      <c r="J108" s="154"/>
+      <c r="K108" s="150"/>
+    </row>
+    <row r="109" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A109" s="154"/>
+      <c r="B109" s="154"/>
+      <c r="C109" s="154"/>
+      <c r="D109" s="154"/>
+      <c r="E109" s="154"/>
+      <c r="F109" s="154"/>
+      <c r="G109" s="154"/>
+      <c r="H109" s="154"/>
+      <c r="I109" s="154"/>
+      <c r="J109" s="154"/>
+      <c r="K109" s="150"/>
+    </row>
+    <row r="110" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A110" s="154"/>
+      <c r="B110" s="154"/>
+      <c r="C110" s="154"/>
+      <c r="D110" s="154"/>
+      <c r="E110" s="154"/>
+      <c r="F110" s="154"/>
+      <c r="G110" s="154"/>
+      <c r="H110" s="154"/>
+      <c r="I110" s="154"/>
+      <c r="J110" s="154"/>
+      <c r="K110" s="150"/>
+    </row>
+    <row r="111" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A111" s="154"/>
+      <c r="B111" s="154"/>
+      <c r="C111" s="154"/>
+      <c r="D111" s="154"/>
+      <c r="E111" s="154"/>
+      <c r="F111" s="154"/>
+      <c r="G111" s="154"/>
+      <c r="H111" s="154"/>
+      <c r="I111" s="154"/>
+      <c r="J111" s="154"/>
+      <c r="K111" s="150"/>
+    </row>
+    <row r="112" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A112" s="154"/>
+      <c r="B112" s="154"/>
+      <c r="C112" s="154"/>
+      <c r="D112" s="154"/>
+      <c r="E112" s="154"/>
+      <c r="F112" s="154"/>
+      <c r="G112" s="154"/>
+      <c r="H112" s="154"/>
+      <c r="I112" s="154"/>
+      <c r="J112" s="154"/>
+      <c r="K112" s="150"/>
+    </row>
+    <row r="113" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A113" s="154"/>
+      <c r="B113" s="154"/>
+      <c r="C113" s="154"/>
+      <c r="D113" s="154"/>
+      <c r="E113" s="154"/>
+      <c r="F113" s="154"/>
+      <c r="G113" s="154"/>
+      <c r="H113" s="154"/>
+      <c r="I113" s="154"/>
+      <c r="J113" s="154"/>
+      <c r="K113" s="150"/>
+    </row>
+    <row r="114" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A114" s="154"/>
+      <c r="B114" s="154"/>
+      <c r="C114" s="154"/>
+      <c r="D114" s="154"/>
+      <c r="E114" s="154"/>
+      <c r="F114" s="154"/>
+      <c r="G114" s="154"/>
+      <c r="H114" s="154"/>
+      <c r="I114" s="154"/>
+      <c r="J114" s="154"/>
+      <c r="K114" s="150"/>
+    </row>
+    <row r="115" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A115" s="154"/>
+      <c r="B115" s="154"/>
+      <c r="C115" s="154"/>
+      <c r="D115" s="154"/>
+      <c r="E115" s="154"/>
+      <c r="F115" s="154"/>
+      <c r="G115" s="154"/>
+      <c r="H115" s="154"/>
+      <c r="I115" s="154"/>
+      <c r="J115" s="154"/>
+      <c r="K115" s="150"/>
+    </row>
+    <row r="116" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A116" s="154"/>
+      <c r="B116" s="154"/>
+      <c r="C116" s="154"/>
+      <c r="D116" s="154"/>
+      <c r="E116" s="154"/>
+      <c r="F116" s="154"/>
+      <c r="G116" s="154"/>
+      <c r="H116" s="154"/>
+      <c r="I116" s="154"/>
+      <c r="J116" s="154"/>
+      <c r="K116" s="150"/>
+    </row>
+    <row r="117" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A117" s="154"/>
+      <c r="B117" s="154"/>
+      <c r="C117" s="154"/>
+      <c r="D117" s="154"/>
+      <c r="E117" s="154"/>
+      <c r="F117" s="154"/>
+      <c r="G117" s="154"/>
+      <c r="H117" s="154"/>
+      <c r="I117" s="154"/>
+      <c r="J117" s="154"/>
+      <c r="K117" s="150"/>
+    </row>
+    <row r="118" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A118" s="154"/>
+      <c r="B118" s="154"/>
+      <c r="C118" s="154"/>
+      <c r="D118" s="154"/>
+      <c r="E118" s="154"/>
+      <c r="F118" s="154"/>
+      <c r="G118" s="154"/>
+      <c r="H118" s="154"/>
+      <c r="I118" s="154"/>
+      <c r="J118" s="154"/>
+      <c r="K118" s="150"/>
+    </row>
+    <row r="119" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A119" s="154"/>
+      <c r="B119" s="154"/>
+      <c r="C119" s="154"/>
+      <c r="D119" s="154"/>
+      <c r="E119" s="154"/>
+      <c r="F119" s="154"/>
+      <c r="G119" s="154"/>
+      <c r="H119" s="154"/>
+      <c r="I119" s="154"/>
+      <c r="J119" s="154"/>
+      <c r="K119" s="150"/>
+    </row>
+    <row r="120" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A120" s="154"/>
+      <c r="B120" s="154"/>
+      <c r="C120" s="154"/>
+      <c r="D120" s="154"/>
+      <c r="E120" s="154"/>
+      <c r="F120" s="154"/>
+      <c r="G120" s="154"/>
+      <c r="H120" s="154"/>
+      <c r="I120" s="154"/>
+      <c r="J120" s="154"/>
+      <c r="K120" s="150"/>
+    </row>
+    <row r="121" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A121" s="154"/>
+      <c r="B121" s="154"/>
+      <c r="C121" s="154"/>
+      <c r="D121" s="154"/>
+      <c r="E121" s="154"/>
+      <c r="F121" s="154"/>
+      <c r="G121" s="154"/>
+      <c r="H121" s="154"/>
+      <c r="I121" s="154"/>
+      <c r="J121" s="154"/>
+      <c r="K121" s="150"/>
+    </row>
+    <row r="122" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A122" s="154"/>
+      <c r="B122" s="154"/>
+      <c r="C122" s="154"/>
+      <c r="D122" s="154"/>
+      <c r="E122" s="154"/>
+      <c r="F122" s="154"/>
+      <c r="G122" s="154"/>
+      <c r="H122" s="154"/>
+      <c r="I122" s="154"/>
+      <c r="J122" s="154"/>
+      <c r="K122" s="150"/>
+    </row>
+    <row r="123" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A123" s="154"/>
+      <c r="B123" s="154"/>
+      <c r="C123" s="154"/>
+      <c r="D123" s="154"/>
+      <c r="E123" s="154"/>
+      <c r="F123" s="154"/>
+      <c r="G123" s="154"/>
+      <c r="H123" s="154"/>
+      <c r="I123" s="154"/>
+      <c r="J123" s="154"/>
+      <c r="K123" s="150"/>
+    </row>
+    <row r="124" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A124" s="154"/>
+      <c r="B124" s="154"/>
+      <c r="C124" s="154"/>
+      <c r="D124" s="154"/>
+      <c r="E124" s="154"/>
+      <c r="F124" s="154"/>
+      <c r="G124" s="154"/>
+      <c r="H124" s="154"/>
+      <c r="I124" s="154"/>
+      <c r="J124" s="154"/>
+      <c r="K124" s="150"/>
+    </row>
+    <row r="125" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A125" s="154"/>
+      <c r="B125" s="154"/>
+      <c r="C125" s="154"/>
+      <c r="D125" s="154"/>
+      <c r="E125" s="154"/>
+      <c r="F125" s="154"/>
+      <c r="G125" s="154"/>
+      <c r="H125" s="154"/>
+      <c r="I125" s="154"/>
+      <c r="J125" s="154"/>
+      <c r="K125" s="150"/>
+    </row>
+    <row r="126" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A126" s="154"/>
+      <c r="B126" s="154"/>
+      <c r="C126" s="154"/>
+      <c r="D126" s="154"/>
+      <c r="E126" s="154"/>
+      <c r="F126" s="154"/>
+      <c r="G126" s="154"/>
+      <c r="H126" s="154"/>
+      <c r="I126" s="154"/>
+      <c r="J126" s="154"/>
+      <c r="K126" s="150"/>
+    </row>
+    <row r="127" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A127" s="154"/>
+      <c r="B127" s="154"/>
+      <c r="C127" s="154"/>
+      <c r="D127" s="154"/>
+      <c r="E127" s="154"/>
+      <c r="F127" s="154"/>
+      <c r="G127" s="154"/>
+      <c r="H127" s="154"/>
+      <c r="I127" s="154"/>
+      <c r="J127" s="154"/>
+      <c r="K127" s="150"/>
+    </row>
+    <row r="128" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A128" s="154"/>
+      <c r="B128" s="154"/>
+      <c r="C128" s="154"/>
+      <c r="D128" s="154"/>
+      <c r="E128" s="154"/>
+      <c r="F128" s="154"/>
+      <c r="G128" s="154"/>
+      <c r="H128" s="154"/>
+      <c r="I128" s="154"/>
+      <c r="J128" s="154"/>
+      <c r="K128" s="150"/>
+    </row>
+    <row r="129" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A129" s="154"/>
+      <c r="B129" s="154"/>
+      <c r="C129" s="154"/>
+      <c r="D129" s="154"/>
+      <c r="E129" s="154"/>
+      <c r="F129" s="154"/>
+      <c r="G129" s="154"/>
+      <c r="H129" s="154"/>
+      <c r="I129" s="154"/>
+      <c r="J129" s="154"/>
+      <c r="K129" s="150"/>
+    </row>
+    <row r="130" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A130" s="154"/>
+      <c r="B130" s="154"/>
+      <c r="C130" s="154"/>
+      <c r="D130" s="154"/>
+      <c r="E130" s="154"/>
+      <c r="F130" s="154"/>
+      <c r="G130" s="154"/>
+      <c r="H130" s="154"/>
+      <c r="I130" s="154"/>
+      <c r="J130" s="154"/>
+      <c r="K130" s="150"/>
+    </row>
+    <row r="131" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A131" s="154"/>
+      <c r="B131" s="154"/>
+      <c r="C131" s="154"/>
+      <c r="D131" s="154"/>
+      <c r="E131" s="154"/>
+      <c r="F131" s="154"/>
+      <c r="G131" s="154"/>
+      <c r="H131" s="154"/>
+      <c r="I131" s="154"/>
+      <c r="J131" s="154"/>
+      <c r="K131" s="150"/>
+    </row>
+    <row r="132" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A132" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-    </row>
-    <row r="13" spans="1:256" ht="15" customHeight="1">
-      <c r="A13" s="152"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="153"/>
-    </row>
-    <row r="14" spans="1:256" ht="15" customHeight="1">
-      <c r="A14" s="152"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
-    </row>
-    <row r="15" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="152"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
-      <c r="IT15" s="2"/>
-    </row>
-    <row r="16" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="152"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="153"/>
-      <c r="IT16" s="2"/>
-    </row>
-    <row r="17" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="152"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
-      <c r="IT17" s="2"/>
-    </row>
-    <row r="18" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="152"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="153"/>
-      <c r="IT18" s="2"/>
-    </row>
-    <row r="19" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="152"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="153"/>
-      <c r="IT19" s="2"/>
-    </row>
-    <row r="20" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="152"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153"/>
-      <c r="IT20" s="2"/>
-    </row>
-    <row r="21" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="152"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="153"/>
-      <c r="IT21" s="2"/>
-    </row>
-    <row r="22" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="152"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="IT22" s="2"/>
-    </row>
-    <row r="23" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A23" s="152"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="153"/>
-      <c r="IT23" s="2"/>
-    </row>
-    <row r="24" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A24" s="152"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="153"/>
-      <c r="IT24" s="2"/>
-    </row>
-    <row r="25" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A25" s="152"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="153"/>
-      <c r="IT25" s="2"/>
-    </row>
-    <row r="26" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="152"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="153"/>
-      <c r="IT26" s="2"/>
-    </row>
-    <row r="27" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="152"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="153"/>
-      <c r="IT27" s="2"/>
-    </row>
-    <row r="28" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="152"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="153"/>
-      <c r="IT28" s="2"/>
-    </row>
-    <row r="29" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="152"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="153"/>
-      <c r="IT29" s="2"/>
-    </row>
-    <row r="30" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="152"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="153"/>
-      <c r="IT30" s="2"/>
-    </row>
-    <row r="31" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A31" s="152"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="153"/>
-      <c r="IT31" s="2"/>
-    </row>
-    <row r="32" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A32" s="152"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="153"/>
-      <c r="IT32" s="2"/>
-    </row>
-    <row r="33" spans="1:254" s="1" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A33" s="152"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="153"/>
-      <c r="IT33" s="2"/>
-    </row>
-    <row r="34" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="152"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="153"/>
-      <c r="IT34" s="2"/>
-    </row>
-    <row r="35" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A35" s="152"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="153"/>
-      <c r="IT35" s="2"/>
-    </row>
-    <row r="36" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A36" s="152"/>
-      <c r="B36" s="152"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="153"/>
-      <c r="IT36" s="2"/>
-    </row>
-    <row r="37" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A37" s="152"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="153"/>
-      <c r="IT37" s="2"/>
-    </row>
-    <row r="38" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A38" s="152"/>
-      <c r="B38" s="152"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="152"/>
-      <c r="K38" s="153"/>
-      <c r="IT38" s="2"/>
-    </row>
-    <row r="39" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A39" s="152"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="153"/>
-      <c r="IT39" s="2"/>
-    </row>
-    <row r="40" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A40" s="152"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="152"/>
-      <c r="K40" s="153"/>
-      <c r="IT40" s="2"/>
-    </row>
-    <row r="41" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A41" s="152"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="153"/>
-      <c r="IT41" s="2"/>
-    </row>
-    <row r="42" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A42" s="152"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="152"/>
-      <c r="F42" s="152"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="152"/>
-      <c r="K42" s="153"/>
-      <c r="IT42" s="2"/>
-    </row>
-    <row r="43" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="152"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="153"/>
-      <c r="IT43" s="2"/>
-    </row>
-    <row r="44" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="152"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="153"/>
-      <c r="IT44" s="2"/>
-    </row>
-    <row r="45" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A45" s="152"/>
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="152"/>
-      <c r="K45" s="153"/>
-      <c r="IT45" s="2"/>
-    </row>
-    <row r="46" spans="1:254" s="1" customFormat="1" ht="297" customHeight="1">
-      <c r="A46" s="152"/>
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="153"/>
-      <c r="IT46" s="2"/>
-    </row>
-    <row r="47" spans="1:254" s="1" customFormat="1" ht="282" customHeight="1">
-      <c r="A47" s="152"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="153"/>
-      <c r="IT47" s="2"/>
-    </row>
-    <row r="48" spans="1:254" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="152"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="153"/>
-      <c r="IT48" s="2"/>
-    </row>
-    <row r="49" spans="1:254" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="152"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="153"/>
-      <c r="IT49" s="2"/>
-    </row>
-    <row r="50" spans="1:254" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A50" s="152"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="153"/>
-      <c r="IT50" s="2"/>
-    </row>
-    <row r="51" spans="1:254" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A51" s="152"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="152"/>
-      <c r="K51" s="153"/>
-      <c r="IT51" s="2"/>
-    </row>
-    <row r="52" spans="1:254" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A52" s="152"/>
-      <c r="B52" s="152"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="152"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="152"/>
-      <c r="K52" s="153"/>
-      <c r="IT52" s="2"/>
-    </row>
-    <row r="53" spans="1:254" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A53" s="152"/>
-      <c r="B53" s="152"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="152"/>
-      <c r="E53" s="152"/>
-      <c r="F53" s="152"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="152"/>
-      <c r="K53" s="153"/>
-      <c r="IT53" s="2"/>
-    </row>
-    <row r="54" spans="1:254" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A54" s="152"/>
-      <c r="B54" s="152"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="152"/>
-      <c r="E54" s="152"/>
-      <c r="F54" s="152"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="152"/>
-      <c r="I54" s="152"/>
-      <c r="J54" s="152"/>
-      <c r="K54" s="153"/>
-      <c r="IT54" s="2"/>
-    </row>
-    <row r="55" spans="1:254" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A55" s="152"/>
-      <c r="B55" s="152"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="152"/>
-      <c r="F55" s="152"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="152"/>
-      <c r="J55" s="152"/>
-      <c r="K55" s="153"/>
-      <c r="IT55" s="2"/>
-    </row>
-    <row r="56" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A56" s="152"/>
-      <c r="B56" s="152"/>
-      <c r="C56" s="152"/>
-      <c r="D56" s="152"/>
-      <c r="E56" s="152"/>
-      <c r="F56" s="152"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="152"/>
-      <c r="J56" s="152"/>
-      <c r="K56" s="153"/>
-    </row>
-    <row r="57" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A57" s="152"/>
-      <c r="B57" s="152"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="153"/>
-    </row>
-    <row r="58" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A58" s="152"/>
-      <c r="B58" s="152"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="153"/>
-    </row>
-    <row r="59" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A59" s="152"/>
-      <c r="B59" s="152"/>
-      <c r="C59" s="152"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="152"/>
-      <c r="F59" s="152"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="152"/>
-      <c r="I59" s="152"/>
-      <c r="J59" s="152"/>
-      <c r="K59" s="153"/>
-    </row>
-    <row r="60" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A60" s="152"/>
-      <c r="B60" s="152"/>
-      <c r="C60" s="152"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="152"/>
-      <c r="K60" s="153"/>
-    </row>
-    <row r="61" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A61" s="152"/>
-      <c r="B61" s="152"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="152"/>
-      <c r="F61" s="152"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="152"/>
-      <c r="I61" s="152"/>
-      <c r="J61" s="152"/>
-      <c r="K61" s="153"/>
-    </row>
-    <row r="62" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A62" s="152"/>
-      <c r="B62" s="152"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="153"/>
-    </row>
-    <row r="63" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A63" s="152"/>
-      <c r="B63" s="152"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="152"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="152"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="152"/>
-      <c r="I63" s="152"/>
-      <c r="J63" s="152"/>
-      <c r="K63" s="153"/>
-    </row>
-    <row r="64" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A64" s="152"/>
-      <c r="B64" s="152"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="152"/>
-      <c r="F64" s="152"/>
-      <c r="G64" s="152"/>
-      <c r="H64" s="152"/>
-      <c r="I64" s="152"/>
-      <c r="J64" s="152"/>
-      <c r="K64" s="153"/>
-    </row>
-    <row r="65" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A65" s="152"/>
-      <c r="B65" s="152"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="152"/>
-      <c r="F65" s="152"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="152"/>
-      <c r="I65" s="152"/>
-      <c r="J65" s="152"/>
-      <c r="K65" s="153"/>
-    </row>
-    <row r="66" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A66" s="152"/>
-      <c r="B66" s="152"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="152"/>
-      <c r="E66" s="152"/>
-      <c r="F66" s="152"/>
-      <c r="G66" s="152"/>
-      <c r="H66" s="152"/>
-      <c r="I66" s="152"/>
-      <c r="J66" s="152"/>
-      <c r="K66" s="153"/>
-    </row>
-    <row r="67" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A67" s="152"/>
-      <c r="B67" s="152"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="152"/>
-      <c r="E67" s="152"/>
-      <c r="F67" s="152"/>
-      <c r="G67" s="152"/>
-      <c r="H67" s="152"/>
-      <c r="I67" s="152"/>
-      <c r="J67" s="152"/>
-      <c r="K67" s="153"/>
-    </row>
-    <row r="68" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A68" s="152"/>
-      <c r="B68" s="152"/>
-      <c r="C68" s="152"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="152"/>
-      <c r="F68" s="152"/>
-      <c r="G68" s="152"/>
-      <c r="H68" s="152"/>
-      <c r="I68" s="152"/>
-      <c r="J68" s="152"/>
-      <c r="K68" s="153"/>
-    </row>
-    <row r="69" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A69" s="152"/>
-      <c r="B69" s="152"/>
-      <c r="C69" s="152"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="152"/>
-      <c r="F69" s="152"/>
-      <c r="G69" s="152"/>
-      <c r="H69" s="152"/>
-      <c r="I69" s="152"/>
-      <c r="J69" s="152"/>
-      <c r="K69" s="153"/>
-    </row>
-    <row r="70" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A70" s="152"/>
-      <c r="B70" s="152"/>
-      <c r="C70" s="152"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="152"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="152"/>
-      <c r="K70" s="153"/>
-    </row>
-    <row r="71" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A71" s="152"/>
-      <c r="B71" s="152"/>
-      <c r="C71" s="152"/>
-      <c r="D71" s="152"/>
-      <c r="E71" s="152"/>
-      <c r="F71" s="152"/>
-      <c r="G71" s="152"/>
-      <c r="H71" s="152"/>
-      <c r="I71" s="152"/>
-      <c r="J71" s="152"/>
-      <c r="K71" s="153"/>
-    </row>
-    <row r="72" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A72" s="152"/>
-      <c r="B72" s="152"/>
-      <c r="C72" s="152"/>
-      <c r="D72" s="152"/>
-      <c r="E72" s="152"/>
-      <c r="F72" s="152"/>
-      <c r="G72" s="152"/>
-      <c r="H72" s="152"/>
-      <c r="I72" s="152"/>
-      <c r="J72" s="152"/>
-      <c r="K72" s="153"/>
-    </row>
-    <row r="73" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A73" s="152"/>
-      <c r="B73" s="152"/>
-      <c r="C73" s="152"/>
-      <c r="D73" s="152"/>
-      <c r="E73" s="152"/>
-      <c r="F73" s="152"/>
-      <c r="G73" s="152"/>
-      <c r="H73" s="152"/>
-      <c r="I73" s="152"/>
-      <c r="J73" s="152"/>
-      <c r="K73" s="153"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A74" s="152"/>
-      <c r="B74" s="152"/>
-      <c r="C74" s="152"/>
-      <c r="D74" s="152"/>
-      <c r="E74" s="152"/>
-      <c r="F74" s="152"/>
-      <c r="G74" s="152"/>
-      <c r="H74" s="152"/>
-      <c r="I74" s="152"/>
-      <c r="J74" s="152"/>
-      <c r="K74" s="153"/>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A75" s="152"/>
-      <c r="B75" s="152"/>
-      <c r="C75" s="152"/>
-      <c r="D75" s="152"/>
-      <c r="E75" s="152"/>
-      <c r="F75" s="152"/>
-      <c r="G75" s="152"/>
-      <c r="H75" s="152"/>
-      <c r="I75" s="152"/>
-      <c r="J75" s="152"/>
-      <c r="K75" s="153"/>
-    </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A76" s="152"/>
-      <c r="B76" s="152"/>
-      <c r="C76" s="152"/>
-      <c r="D76" s="152"/>
-      <c r="E76" s="152"/>
-      <c r="F76" s="152"/>
-      <c r="G76" s="152"/>
-      <c r="H76" s="152"/>
-      <c r="I76" s="152"/>
-      <c r="J76" s="152"/>
-      <c r="K76" s="153"/>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A77" s="152"/>
-      <c r="B77" s="152"/>
-      <c r="C77" s="152"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="152"/>
-      <c r="F77" s="152"/>
-      <c r="G77" s="152"/>
-      <c r="H77" s="152"/>
-      <c r="I77" s="152"/>
-      <c r="J77" s="152"/>
-      <c r="K77" s="153"/>
-    </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1">
-      <c r="A78" s="152"/>
-      <c r="B78" s="152"/>
-      <c r="C78" s="152"/>
-      <c r="D78" s="152"/>
-      <c r="E78" s="152"/>
-      <c r="F78" s="152"/>
-      <c r="G78" s="152"/>
-      <c r="H78" s="152"/>
-      <c r="I78" s="152"/>
-      <c r="J78" s="152"/>
-      <c r="K78" s="153"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="152"/>
-      <c r="B79" s="152"/>
-      <c r="C79" s="152"/>
-      <c r="D79" s="152"/>
-      <c r="E79" s="152"/>
-      <c r="F79" s="152"/>
-      <c r="G79" s="152"/>
-      <c r="H79" s="152"/>
-      <c r="I79" s="152"/>
-      <c r="J79" s="152"/>
-      <c r="K79" s="153"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="152"/>
-      <c r="B80" s="152"/>
-      <c r="C80" s="152"/>
-      <c r="D80" s="152"/>
-      <c r="E80" s="152"/>
-      <c r="F80" s="152"/>
-      <c r="G80" s="152"/>
-      <c r="H80" s="152"/>
-      <c r="I80" s="152"/>
-      <c r="J80" s="152"/>
-      <c r="K80" s="153"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="152"/>
-      <c r="B81" s="152"/>
-      <c r="C81" s="152"/>
-      <c r="D81" s="152"/>
-      <c r="E81" s="152"/>
-      <c r="F81" s="152"/>
-      <c r="G81" s="152"/>
-      <c r="H81" s="152"/>
-      <c r="I81" s="152"/>
-      <c r="J81" s="152"/>
-      <c r="K81" s="153"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="152"/>
-      <c r="B82" s="152"/>
-      <c r="C82" s="152"/>
-      <c r="D82" s="152"/>
-      <c r="E82" s="152"/>
-      <c r="F82" s="152"/>
-      <c r="G82" s="152"/>
-      <c r="H82" s="152"/>
-      <c r="I82" s="152"/>
-      <c r="J82" s="152"/>
-      <c r="K82" s="153"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="152"/>
-      <c r="B83" s="152"/>
-      <c r="C83" s="152"/>
-      <c r="D83" s="152"/>
-      <c r="E83" s="152"/>
-      <c r="F83" s="152"/>
-      <c r="G83" s="152"/>
-      <c r="H83" s="152"/>
-      <c r="I83" s="152"/>
-      <c r="J83" s="152"/>
-      <c r="K83" s="153"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="152"/>
-      <c r="B84" s="152"/>
-      <c r="C84" s="152"/>
-      <c r="D84" s="152"/>
-      <c r="E84" s="152"/>
-      <c r="F84" s="152"/>
-      <c r="G84" s="152"/>
-      <c r="H84" s="152"/>
-      <c r="I84" s="152"/>
-      <c r="J84" s="152"/>
-      <c r="K84" s="153"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="152"/>
-      <c r="B85" s="152"/>
-      <c r="C85" s="152"/>
-      <c r="D85" s="152"/>
-      <c r="E85" s="152"/>
-      <c r="F85" s="152"/>
-      <c r="G85" s="152"/>
-      <c r="H85" s="152"/>
-      <c r="I85" s="152"/>
-      <c r="J85" s="152"/>
-      <c r="K85" s="153"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="152"/>
-      <c r="B86" s="152"/>
-      <c r="C86" s="152"/>
-      <c r="D86" s="152"/>
-      <c r="E86" s="152"/>
-      <c r="F86" s="152"/>
-      <c r="G86" s="152"/>
-      <c r="H86" s="152"/>
-      <c r="I86" s="152"/>
-      <c r="J86" s="152"/>
-      <c r="K86" s="153"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="152"/>
-      <c r="B87" s="152"/>
-      <c r="C87" s="152"/>
-      <c r="D87" s="152"/>
-      <c r="E87" s="152"/>
-      <c r="F87" s="152"/>
-      <c r="G87" s="152"/>
-      <c r="H87" s="152"/>
-      <c r="I87" s="152"/>
-      <c r="J87" s="152"/>
-      <c r="K87" s="153"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="152"/>
-      <c r="B88" s="152"/>
-      <c r="C88" s="152"/>
-      <c r="D88" s="152"/>
-      <c r="E88" s="152"/>
-      <c r="F88" s="152"/>
-      <c r="G88" s="152"/>
-      <c r="H88" s="152"/>
-      <c r="I88" s="152"/>
-      <c r="J88" s="152"/>
-      <c r="K88" s="153"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="152"/>
-      <c r="B89" s="152"/>
-      <c r="C89" s="152"/>
-      <c r="D89" s="152"/>
-      <c r="E89" s="152"/>
-      <c r="F89" s="152"/>
-      <c r="G89" s="152"/>
-      <c r="H89" s="152"/>
-      <c r="I89" s="152"/>
-      <c r="J89" s="152"/>
-      <c r="K89" s="153"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="152"/>
-      <c r="B90" s="152"/>
-      <c r="C90" s="152"/>
-      <c r="D90" s="152"/>
-      <c r="E90" s="152"/>
-      <c r="F90" s="152"/>
-      <c r="G90" s="152"/>
-      <c r="H90" s="152"/>
-      <c r="I90" s="152"/>
-      <c r="J90" s="152"/>
-      <c r="K90" s="153"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="152"/>
-      <c r="B91" s="152"/>
-      <c r="C91" s="152"/>
-      <c r="D91" s="152"/>
-      <c r="E91" s="152"/>
-      <c r="F91" s="152"/>
-      <c r="G91" s="152"/>
-      <c r="H91" s="152"/>
-      <c r="I91" s="152"/>
-      <c r="J91" s="152"/>
-      <c r="K91" s="153"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="152"/>
-      <c r="B92" s="152"/>
-      <c r="C92" s="152"/>
-      <c r="D92" s="152"/>
-      <c r="E92" s="152"/>
-      <c r="F92" s="152"/>
-      <c r="G92" s="152"/>
-      <c r="H92" s="152"/>
-      <c r="I92" s="152"/>
-      <c r="J92" s="152"/>
-      <c r="K92" s="153"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="152"/>
-      <c r="B93" s="152"/>
-      <c r="C93" s="152"/>
-      <c r="D93" s="152"/>
-      <c r="E93" s="152"/>
-      <c r="F93" s="152"/>
-      <c r="G93" s="152"/>
-      <c r="H93" s="152"/>
-      <c r="I93" s="152"/>
-      <c r="J93" s="152"/>
-      <c r="K93" s="153"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="152"/>
-      <c r="B94" s="152"/>
-      <c r="C94" s="152"/>
-      <c r="D94" s="152"/>
-      <c r="E94" s="152"/>
-      <c r="F94" s="152"/>
-      <c r="G94" s="152"/>
-      <c r="H94" s="152"/>
-      <c r="I94" s="152"/>
-      <c r="J94" s="152"/>
-      <c r="K94" s="153"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="152"/>
-      <c r="B95" s="152"/>
-      <c r="C95" s="152"/>
-      <c r="D95" s="152"/>
-      <c r="E95" s="152"/>
-      <c r="F95" s="152"/>
-      <c r="G95" s="152"/>
-      <c r="H95" s="152"/>
-      <c r="I95" s="152"/>
-      <c r="J95" s="152"/>
-      <c r="K95" s="153"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="152"/>
-      <c r="B96" s="152"/>
-      <c r="C96" s="152"/>
-      <c r="D96" s="152"/>
-      <c r="E96" s="152"/>
-      <c r="F96" s="152"/>
-      <c r="G96" s="152"/>
-      <c r="H96" s="152"/>
-      <c r="I96" s="152"/>
-      <c r="J96" s="152"/>
-      <c r="K96" s="153"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="152"/>
-      <c r="B97" s="152"/>
-      <c r="C97" s="152"/>
-      <c r="D97" s="152"/>
-      <c r="E97" s="152"/>
-      <c r="F97" s="152"/>
-      <c r="G97" s="152"/>
-      <c r="H97" s="152"/>
-      <c r="I97" s="152"/>
-      <c r="J97" s="152"/>
-      <c r="K97" s="153"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="152"/>
-      <c r="B98" s="152"/>
-      <c r="C98" s="152"/>
-      <c r="D98" s="152"/>
-      <c r="E98" s="152"/>
-      <c r="F98" s="152"/>
-      <c r="G98" s="152"/>
-      <c r="H98" s="152"/>
-      <c r="I98" s="152"/>
-      <c r="J98" s="152"/>
-      <c r="K98" s="153"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="152"/>
-      <c r="B99" s="152"/>
-      <c r="C99" s="152"/>
-      <c r="D99" s="152"/>
-      <c r="E99" s="152"/>
-      <c r="F99" s="152"/>
-      <c r="G99" s="152"/>
-      <c r="H99" s="152"/>
-      <c r="I99" s="152"/>
-      <c r="J99" s="152"/>
-      <c r="K99" s="153"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="152"/>
-      <c r="B100" s="152"/>
-      <c r="C100" s="152"/>
-      <c r="D100" s="152"/>
-      <c r="E100" s="152"/>
-      <c r="F100" s="152"/>
-      <c r="G100" s="152"/>
-      <c r="H100" s="152"/>
-      <c r="I100" s="152"/>
-      <c r="J100" s="152"/>
-      <c r="K100" s="153"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="152"/>
-      <c r="B101" s="152"/>
-      <c r="C101" s="152"/>
-      <c r="D101" s="152"/>
-      <c r="E101" s="152"/>
-      <c r="F101" s="152"/>
-      <c r="G101" s="152"/>
-      <c r="H101" s="152"/>
-      <c r="I101" s="152"/>
-      <c r="J101" s="152"/>
-      <c r="K101" s="153"/>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="152"/>
-      <c r="B102" s="152"/>
-      <c r="C102" s="152"/>
-      <c r="D102" s="152"/>
-      <c r="E102" s="152"/>
-      <c r="F102" s="152"/>
-      <c r="G102" s="152"/>
-      <c r="H102" s="152"/>
-      <c r="I102" s="152"/>
-      <c r="J102" s="152"/>
-      <c r="K102" s="153"/>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="152"/>
-      <c r="B103" s="152"/>
-      <c r="C103" s="152"/>
-      <c r="D103" s="152"/>
-      <c r="E103" s="152"/>
-      <c r="F103" s="152"/>
-      <c r="G103" s="152"/>
-      <c r="H103" s="152"/>
-      <c r="I103" s="152"/>
-      <c r="J103" s="152"/>
-      <c r="K103" s="153"/>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="152"/>
-      <c r="B104" s="152"/>
-      <c r="C104" s="152"/>
-      <c r="D104" s="152"/>
-      <c r="E104" s="152"/>
-      <c r="F104" s="152"/>
-      <c r="G104" s="152"/>
-      <c r="H104" s="152"/>
-      <c r="I104" s="152"/>
-      <c r="J104" s="152"/>
-      <c r="K104" s="153"/>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="152"/>
-      <c r="B105" s="152"/>
-      <c r="C105" s="152"/>
-      <c r="D105" s="152"/>
-      <c r="E105" s="152"/>
-      <c r="F105" s="152"/>
-      <c r="G105" s="152"/>
-      <c r="H105" s="152"/>
-      <c r="I105" s="152"/>
-      <c r="J105" s="152"/>
-      <c r="K105" s="153"/>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="152"/>
-      <c r="B106" s="152"/>
-      <c r="C106" s="152"/>
-      <c r="D106" s="152"/>
-      <c r="E106" s="152"/>
-      <c r="F106" s="152"/>
-      <c r="G106" s="152"/>
-      <c r="H106" s="152"/>
-      <c r="I106" s="152"/>
-      <c r="J106" s="152"/>
-      <c r="K106" s="153"/>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="152"/>
-      <c r="B107" s="152"/>
-      <c r="C107" s="152"/>
-      <c r="D107" s="152"/>
-      <c r="E107" s="152"/>
-      <c r="F107" s="152"/>
-      <c r="G107" s="152"/>
-      <c r="H107" s="152"/>
-      <c r="I107" s="152"/>
-      <c r="J107" s="152"/>
-      <c r="K107" s="153"/>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="152"/>
-      <c r="B108" s="152"/>
-      <c r="C108" s="152"/>
-      <c r="D108" s="152"/>
-      <c r="E108" s="152"/>
-      <c r="F108" s="152"/>
-      <c r="G108" s="152"/>
-      <c r="H108" s="152"/>
-      <c r="I108" s="152"/>
-      <c r="J108" s="152"/>
-      <c r="K108" s="153"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="152"/>
-      <c r="B109" s="152"/>
-      <c r="C109" s="152"/>
-      <c r="D109" s="152"/>
-      <c r="E109" s="152"/>
-      <c r="F109" s="152"/>
-      <c r="G109" s="152"/>
-      <c r="H109" s="152"/>
-      <c r="I109" s="152"/>
-      <c r="J109" s="152"/>
-      <c r="K109" s="153"/>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="152"/>
-      <c r="B110" s="152"/>
-      <c r="C110" s="152"/>
-      <c r="D110" s="152"/>
-      <c r="E110" s="152"/>
-      <c r="F110" s="152"/>
-      <c r="G110" s="152"/>
-      <c r="H110" s="152"/>
-      <c r="I110" s="152"/>
-      <c r="J110" s="152"/>
-      <c r="K110" s="153"/>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="152"/>
-      <c r="B111" s="152"/>
-      <c r="C111" s="152"/>
-      <c r="D111" s="152"/>
-      <c r="E111" s="152"/>
-      <c r="F111" s="152"/>
-      <c r="G111" s="152"/>
-      <c r="H111" s="152"/>
-      <c r="I111" s="152"/>
-      <c r="J111" s="152"/>
-      <c r="K111" s="153"/>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="152"/>
-      <c r="B112" s="152"/>
-      <c r="C112" s="152"/>
-      <c r="D112" s="152"/>
-      <c r="E112" s="152"/>
-      <c r="F112" s="152"/>
-      <c r="G112" s="152"/>
-      <c r="H112" s="152"/>
-      <c r="I112" s="152"/>
-      <c r="J112" s="152"/>
-      <c r="K112" s="153"/>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="152"/>
-      <c r="B113" s="152"/>
-      <c r="C113" s="152"/>
-      <c r="D113" s="152"/>
-      <c r="E113" s="152"/>
-      <c r="F113" s="152"/>
-      <c r="G113" s="152"/>
-      <c r="H113" s="152"/>
-      <c r="I113" s="152"/>
-      <c r="J113" s="152"/>
-      <c r="K113" s="153"/>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="152"/>
-      <c r="B114" s="152"/>
-      <c r="C114" s="152"/>
-      <c r="D114" s="152"/>
-      <c r="E114" s="152"/>
-      <c r="F114" s="152"/>
-      <c r="G114" s="152"/>
-      <c r="H114" s="152"/>
-      <c r="I114" s="152"/>
-      <c r="J114" s="152"/>
-      <c r="K114" s="153"/>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="152"/>
-      <c r="B115" s="152"/>
-      <c r="C115" s="152"/>
-      <c r="D115" s="152"/>
-      <c r="E115" s="152"/>
-      <c r="F115" s="152"/>
-      <c r="G115" s="152"/>
-      <c r="H115" s="152"/>
-      <c r="I115" s="152"/>
-      <c r="J115" s="152"/>
-      <c r="K115" s="153"/>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="152"/>
-      <c r="B116" s="152"/>
-      <c r="C116" s="152"/>
-      <c r="D116" s="152"/>
-      <c r="E116" s="152"/>
-      <c r="F116" s="152"/>
-      <c r="G116" s="152"/>
-      <c r="H116" s="152"/>
-      <c r="I116" s="152"/>
-      <c r="J116" s="152"/>
-      <c r="K116" s="153"/>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="152"/>
-      <c r="B117" s="152"/>
-      <c r="C117" s="152"/>
-      <c r="D117" s="152"/>
-      <c r="E117" s="152"/>
-      <c r="F117" s="152"/>
-      <c r="G117" s="152"/>
-      <c r="H117" s="152"/>
-      <c r="I117" s="152"/>
-      <c r="J117" s="152"/>
-      <c r="K117" s="153"/>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="152"/>
-      <c r="B118" s="152"/>
-      <c r="C118" s="152"/>
-      <c r="D118" s="152"/>
-      <c r="E118" s="152"/>
-      <c r="F118" s="152"/>
-      <c r="G118" s="152"/>
-      <c r="H118" s="152"/>
-      <c r="I118" s="152"/>
-      <c r="J118" s="152"/>
-      <c r="K118" s="153"/>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="152"/>
-      <c r="B119" s="152"/>
-      <c r="C119" s="152"/>
-      <c r="D119" s="152"/>
-      <c r="E119" s="152"/>
-      <c r="F119" s="152"/>
-      <c r="G119" s="152"/>
-      <c r="H119" s="152"/>
-      <c r="I119" s="152"/>
-      <c r="J119" s="152"/>
-      <c r="K119" s="153"/>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="152"/>
-      <c r="B120" s="152"/>
-      <c r="C120" s="152"/>
-      <c r="D120" s="152"/>
-      <c r="E120" s="152"/>
-      <c r="F120" s="152"/>
-      <c r="G120" s="152"/>
-      <c r="H120" s="152"/>
-      <c r="I120" s="152"/>
-      <c r="J120" s="152"/>
-      <c r="K120" s="153"/>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="152"/>
-      <c r="B121" s="152"/>
-      <c r="C121" s="152"/>
-      <c r="D121" s="152"/>
-      <c r="E121" s="152"/>
-      <c r="F121" s="152"/>
-      <c r="G121" s="152"/>
-      <c r="H121" s="152"/>
-      <c r="I121" s="152"/>
-      <c r="J121" s="152"/>
-      <c r="K121" s="153"/>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="152"/>
-      <c r="B122" s="152"/>
-      <c r="C122" s="152"/>
-      <c r="D122" s="152"/>
-      <c r="E122" s="152"/>
-      <c r="F122" s="152"/>
-      <c r="G122" s="152"/>
-      <c r="H122" s="152"/>
-      <c r="I122" s="152"/>
-      <c r="J122" s="152"/>
-      <c r="K122" s="153"/>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="152"/>
-      <c r="B123" s="152"/>
-      <c r="C123" s="152"/>
-      <c r="D123" s="152"/>
-      <c r="E123" s="152"/>
-      <c r="F123" s="152"/>
-      <c r="G123" s="152"/>
-      <c r="H123" s="152"/>
-      <c r="I123" s="152"/>
-      <c r="J123" s="152"/>
-      <c r="K123" s="153"/>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="152"/>
-      <c r="B124" s="152"/>
-      <c r="C124" s="152"/>
-      <c r="D124" s="152"/>
-      <c r="E124" s="152"/>
-      <c r="F124" s="152"/>
-      <c r="G124" s="152"/>
-      <c r="H124" s="152"/>
-      <c r="I124" s="152"/>
-      <c r="J124" s="152"/>
-      <c r="K124" s="153"/>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="152"/>
-      <c r="B125" s="152"/>
-      <c r="C125" s="152"/>
-      <c r="D125" s="152"/>
-      <c r="E125" s="152"/>
-      <c r="F125" s="152"/>
-      <c r="G125" s="152"/>
-      <c r="H125" s="152"/>
-      <c r="I125" s="152"/>
-      <c r="J125" s="152"/>
-      <c r="K125" s="153"/>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="152"/>
-      <c r="B126" s="152"/>
-      <c r="C126" s="152"/>
-      <c r="D126" s="152"/>
-      <c r="E126" s="152"/>
-      <c r="F126" s="152"/>
-      <c r="G126" s="152"/>
-      <c r="H126" s="152"/>
-      <c r="I126" s="152"/>
-      <c r="J126" s="152"/>
-      <c r="K126" s="153"/>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="152"/>
-      <c r="B127" s="152"/>
-      <c r="C127" s="152"/>
-      <c r="D127" s="152"/>
-      <c r="E127" s="152"/>
-      <c r="F127" s="152"/>
-      <c r="G127" s="152"/>
-      <c r="H127" s="152"/>
-      <c r="I127" s="152"/>
-      <c r="J127" s="152"/>
-      <c r="K127" s="153"/>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="152"/>
-      <c r="B128" s="152"/>
-      <c r="C128" s="152"/>
-      <c r="D128" s="152"/>
-      <c r="E128" s="152"/>
-      <c r="F128" s="152"/>
-      <c r="G128" s="152"/>
-      <c r="H128" s="152"/>
-      <c r="I128" s="152"/>
-      <c r="J128" s="152"/>
-      <c r="K128" s="153"/>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="152"/>
-      <c r="B129" s="152"/>
-      <c r="C129" s="152"/>
-      <c r="D129" s="152"/>
-      <c r="E129" s="152"/>
-      <c r="F129" s="152"/>
-      <c r="G129" s="152"/>
-      <c r="H129" s="152"/>
-      <c r="I129" s="152"/>
-      <c r="J129" s="152"/>
-      <c r="K129" s="153"/>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="152"/>
-      <c r="B130" s="152"/>
-      <c r="C130" s="152"/>
-      <c r="D130" s="152"/>
-      <c r="E130" s="152"/>
-      <c r="F130" s="152"/>
-      <c r="G130" s="152"/>
-      <c r="H130" s="152"/>
-      <c r="I130" s="152"/>
-      <c r="J130" s="152"/>
-      <c r="K130" s="153"/>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="152"/>
-      <c r="B131" s="152"/>
-      <c r="C131" s="152"/>
-      <c r="D131" s="152"/>
-      <c r="E131" s="152"/>
-      <c r="F131" s="152"/>
-      <c r="G131" s="152"/>
-      <c r="H131" s="152"/>
-      <c r="I131" s="152"/>
-      <c r="J131" s="152"/>
-      <c r="K131" s="153"/>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="152"/>
-      <c r="B132" s="152"/>
-      <c r="C132" s="152"/>
-      <c r="D132" s="152"/>
-      <c r="E132" s="152"/>
-      <c r="F132" s="152"/>
-      <c r="G132" s="152"/>
-      <c r="H132" s="152"/>
-      <c r="I132" s="152"/>
-      <c r="J132" s="152"/>
-      <c r="K132" s="153"/>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="152"/>
-      <c r="B133" s="152"/>
-      <c r="C133" s="152"/>
-      <c r="D133" s="152"/>
-      <c r="E133" s="152"/>
-      <c r="F133" s="152"/>
-      <c r="G133" s="152"/>
-      <c r="H133" s="152"/>
-      <c r="I133" s="152"/>
-      <c r="J133" s="152"/>
-      <c r="K133" s="153"/>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="152"/>
-      <c r="B134" s="152"/>
-      <c r="C134" s="152"/>
-      <c r="D134" s="152"/>
-      <c r="E134" s="152"/>
-      <c r="F134" s="152"/>
-      <c r="G134" s="152"/>
-      <c r="H134" s="152"/>
-      <c r="I134" s="152"/>
-      <c r="J134" s="152"/>
-      <c r="K134" s="153"/>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="152"/>
-      <c r="B135" s="152"/>
-      <c r="C135" s="152"/>
-      <c r="D135" s="152"/>
-      <c r="E135" s="152"/>
-      <c r="F135" s="152"/>
-      <c r="G135" s="152"/>
-      <c r="H135" s="152"/>
-      <c r="I135" s="152"/>
-      <c r="J135" s="152"/>
-      <c r="K135" s="153"/>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="152"/>
-      <c r="B136" s="152"/>
-      <c r="C136" s="152"/>
-      <c r="D136" s="152"/>
-      <c r="E136" s="152"/>
-      <c r="F136" s="152"/>
-      <c r="G136" s="152"/>
-      <c r="H136" s="152"/>
-      <c r="I136" s="152"/>
-      <c r="J136" s="152"/>
-      <c r="K136" s="153"/>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="152"/>
-      <c r="B137" s="152"/>
-      <c r="C137" s="152"/>
-      <c r="D137" s="152"/>
-      <c r="E137" s="152"/>
-      <c r="F137" s="152"/>
-      <c r="G137" s="152"/>
-      <c r="H137" s="152"/>
-      <c r="I137" s="152"/>
-      <c r="J137" s="152"/>
-      <c r="K137" s="153"/>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="152"/>
-      <c r="B138" s="152"/>
-      <c r="C138" s="152"/>
-      <c r="D138" s="152"/>
-      <c r="E138" s="152"/>
-      <c r="F138" s="152"/>
-      <c r="G138" s="152"/>
-      <c r="H138" s="152"/>
-      <c r="I138" s="152"/>
-      <c r="J138" s="152"/>
-      <c r="K138" s="153"/>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="152"/>
-      <c r="B139" s="152"/>
-      <c r="C139" s="152"/>
-      <c r="D139" s="152"/>
-      <c r="E139" s="152"/>
-      <c r="F139" s="152"/>
-      <c r="G139" s="152"/>
-      <c r="H139" s="152"/>
-      <c r="I139" s="152"/>
-      <c r="J139" s="152"/>
-      <c r="K139" s="153"/>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="152"/>
-      <c r="B140" s="152"/>
-      <c r="C140" s="152"/>
-      <c r="D140" s="152"/>
-      <c r="E140" s="152"/>
-      <c r="F140" s="152"/>
-      <c r="G140" s="152"/>
-      <c r="H140" s="152"/>
-      <c r="I140" s="152"/>
-      <c r="J140" s="152"/>
-      <c r="K140" s="153"/>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="152"/>
-      <c r="B141" s="152"/>
-      <c r="C141" s="152"/>
-      <c r="D141" s="152"/>
-      <c r="E141" s="152"/>
-      <c r="F141" s="152"/>
-      <c r="G141" s="152"/>
-      <c r="H141" s="152"/>
-      <c r="I141" s="152"/>
-      <c r="J141" s="152"/>
-      <c r="K141" s="153"/>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="152"/>
-      <c r="B142" s="152"/>
-      <c r="C142" s="152"/>
-      <c r="D142" s="152"/>
-      <c r="E142" s="152"/>
-      <c r="F142" s="152"/>
-      <c r="G142" s="152"/>
-      <c r="H142" s="152"/>
-      <c r="I142" s="152"/>
-      <c r="J142" s="152"/>
-      <c r="K142" s="153"/>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="152"/>
-      <c r="B143" s="152"/>
-      <c r="C143" s="152"/>
-      <c r="D143" s="152"/>
-      <c r="E143" s="152"/>
-      <c r="F143" s="152"/>
-      <c r="G143" s="152"/>
-      <c r="H143" s="152"/>
-      <c r="I143" s="152"/>
-      <c r="J143" s="152"/>
-      <c r="K143" s="153"/>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144" s="152"/>
-      <c r="B144" s="152"/>
-      <c r="C144" s="152"/>
-      <c r="D144" s="152"/>
-      <c r="E144" s="152"/>
-      <c r="F144" s="152"/>
-      <c r="G144" s="152"/>
-      <c r="H144" s="152"/>
-      <c r="I144" s="152"/>
-      <c r="J144" s="152"/>
-      <c r="K144" s="153"/>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="152"/>
-      <c r="B145" s="152"/>
-      <c r="C145" s="152"/>
-      <c r="D145" s="152"/>
-      <c r="E145" s="152"/>
-      <c r="F145" s="152"/>
-      <c r="G145" s="152"/>
-      <c r="H145" s="152"/>
-      <c r="I145" s="152"/>
-      <c r="J145" s="152"/>
-      <c r="K145" s="153"/>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="152"/>
-      <c r="B146" s="152"/>
-      <c r="C146" s="152"/>
-      <c r="D146" s="152"/>
-      <c r="E146" s="152"/>
-      <c r="F146" s="152"/>
-      <c r="G146" s="152"/>
-      <c r="H146" s="152"/>
-      <c r="I146" s="152"/>
-      <c r="J146" s="152"/>
-      <c r="K146" s="153"/>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147" s="152"/>
-      <c r="B147" s="152"/>
-      <c r="C147" s="152"/>
-      <c r="D147" s="152"/>
-      <c r="E147" s="152"/>
-      <c r="F147" s="152"/>
-      <c r="G147" s="152"/>
-      <c r="H147" s="152"/>
-      <c r="I147" s="152"/>
-      <c r="J147" s="152"/>
-      <c r="K147" s="153"/>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148" s="152"/>
-      <c r="B148" s="152"/>
-      <c r="C148" s="152"/>
-      <c r="D148" s="152"/>
-      <c r="E148" s="152"/>
-      <c r="F148" s="152"/>
-      <c r="G148" s="152"/>
-      <c r="H148" s="152"/>
-      <c r="I148" s="152"/>
-      <c r="J148" s="152"/>
-      <c r="K148" s="153"/>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149" s="152"/>
-      <c r="B149" s="152"/>
-      <c r="C149" s="152"/>
-      <c r="D149" s="152"/>
-      <c r="E149" s="152"/>
-      <c r="F149" s="152"/>
-      <c r="G149" s="152"/>
-      <c r="H149" s="152"/>
-      <c r="I149" s="152"/>
-      <c r="J149" s="152"/>
-      <c r="K149" s="153"/>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150" s="152"/>
-      <c r="B150" s="152"/>
-      <c r="C150" s="152"/>
-      <c r="D150" s="152"/>
-      <c r="E150" s="152"/>
-      <c r="F150" s="152"/>
-      <c r="G150" s="152"/>
-      <c r="H150" s="152"/>
-      <c r="I150" s="152"/>
-      <c r="J150" s="152"/>
-      <c r="K150" s="153"/>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151" s="152"/>
-      <c r="B151" s="152"/>
-      <c r="C151" s="152"/>
-      <c r="D151" s="152"/>
-      <c r="E151" s="152"/>
-      <c r="F151" s="152"/>
-      <c r="G151" s="152"/>
-      <c r="H151" s="152"/>
-      <c r="I151" s="152"/>
-      <c r="J151" s="152"/>
-      <c r="K151" s="153"/>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="152"/>
-      <c r="B152" s="152"/>
-      <c r="C152" s="152"/>
-      <c r="D152" s="152"/>
-      <c r="E152" s="152"/>
-      <c r="F152" s="152"/>
-      <c r="G152" s="152"/>
-      <c r="H152" s="152"/>
-      <c r="I152" s="152"/>
-      <c r="J152" s="152"/>
-      <c r="K152" s="153"/>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153" s="152"/>
-      <c r="B153" s="152"/>
-      <c r="C153" s="152"/>
-      <c r="D153" s="152"/>
-      <c r="E153" s="152"/>
-      <c r="F153" s="152"/>
-      <c r="G153" s="152"/>
-      <c r="H153" s="152"/>
-      <c r="I153" s="152"/>
-      <c r="J153" s="152"/>
-      <c r="K153" s="153"/>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154" s="152"/>
-      <c r="B154" s="152"/>
-      <c r="C154" s="152"/>
-      <c r="D154" s="152"/>
-      <c r="E154" s="152"/>
-      <c r="F154" s="152"/>
-      <c r="G154" s="152"/>
-      <c r="H154" s="152"/>
-      <c r="I154" s="152"/>
-      <c r="J154" s="152"/>
-      <c r="K154" s="153"/>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155" s="152"/>
-      <c r="B155" s="152"/>
-      <c r="C155" s="152"/>
-      <c r="D155" s="152"/>
-      <c r="E155" s="152"/>
-      <c r="F155" s="152"/>
-      <c r="G155" s="152"/>
-      <c r="H155" s="152"/>
-      <c r="I155" s="152"/>
-      <c r="J155" s="152"/>
-      <c r="K155" s="153"/>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="152"/>
-      <c r="B156" s="152"/>
-      <c r="C156" s="152"/>
-      <c r="D156" s="152"/>
-      <c r="E156" s="152"/>
-      <c r="F156" s="152"/>
-      <c r="G156" s="152"/>
-      <c r="H156" s="152"/>
-      <c r="I156" s="152"/>
-      <c r="J156" s="152"/>
-      <c r="K156" s="153"/>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="152"/>
-      <c r="B157" s="152"/>
-      <c r="C157" s="152"/>
-      <c r="D157" s="152"/>
-      <c r="E157" s="152"/>
-      <c r="F157" s="152"/>
-      <c r="G157" s="152"/>
-      <c r="H157" s="152"/>
-      <c r="I157" s="152"/>
-      <c r="J157" s="152"/>
-      <c r="K157" s="153"/>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="152"/>
-      <c r="B158" s="152"/>
-      <c r="C158" s="152"/>
-      <c r="D158" s="152"/>
-      <c r="E158" s="152"/>
-      <c r="F158" s="152"/>
-      <c r="G158" s="152"/>
-      <c r="H158" s="152"/>
-      <c r="I158" s="152"/>
-      <c r="J158" s="152"/>
-      <c r="K158" s="153"/>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="152"/>
-      <c r="B159" s="152"/>
-      <c r="C159" s="152"/>
-      <c r="D159" s="152"/>
-      <c r="E159" s="152"/>
-      <c r="F159" s="152"/>
-      <c r="G159" s="152"/>
-      <c r="H159" s="152"/>
-      <c r="I159" s="152"/>
-      <c r="J159" s="152"/>
-      <c r="K159" s="153"/>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="152"/>
-      <c r="B160" s="152"/>
-      <c r="C160" s="152"/>
-      <c r="D160" s="152"/>
-      <c r="E160" s="152"/>
-      <c r="F160" s="152"/>
-      <c r="G160" s="152"/>
-      <c r="H160" s="152"/>
-      <c r="I160" s="152"/>
-      <c r="J160" s="152"/>
-      <c r="K160" s="153"/>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="152"/>
-      <c r="B161" s="152"/>
-      <c r="C161" s="152"/>
-      <c r="D161" s="152"/>
-      <c r="E161" s="152"/>
-      <c r="F161" s="152"/>
-      <c r="G161" s="152"/>
-      <c r="H161" s="152"/>
-      <c r="I161" s="152"/>
-      <c r="J161" s="152"/>
-      <c r="K161" s="153"/>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="152"/>
-      <c r="B162" s="152"/>
-      <c r="C162" s="152"/>
-      <c r="D162" s="152"/>
-      <c r="E162" s="152"/>
-      <c r="F162" s="152"/>
-      <c r="G162" s="152"/>
-      <c r="H162" s="152"/>
-      <c r="I162" s="152"/>
-      <c r="J162" s="152"/>
-      <c r="K162" s="153"/>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="152"/>
-      <c r="B163" s="152"/>
-      <c r="C163" s="152"/>
-      <c r="D163" s="152"/>
-      <c r="E163" s="152"/>
-      <c r="F163" s="152"/>
-      <c r="G163" s="152"/>
-      <c r="H163" s="152"/>
-      <c r="I163" s="152"/>
-      <c r="J163" s="152"/>
-      <c r="K163" s="153"/>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164" s="152"/>
-      <c r="B164" s="152"/>
-      <c r="C164" s="152"/>
-      <c r="D164" s="152"/>
-      <c r="E164" s="152"/>
-      <c r="F164" s="152"/>
-      <c r="G164" s="152"/>
-      <c r="H164" s="152"/>
-      <c r="I164" s="152"/>
-      <c r="J164" s="152"/>
-      <c r="K164" s="153"/>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165" s="152"/>
-      <c r="B165" s="152"/>
-      <c r="C165" s="152"/>
-      <c r="D165" s="152"/>
-      <c r="E165" s="152"/>
-      <c r="F165" s="152"/>
-      <c r="G165" s="152"/>
-      <c r="H165" s="152"/>
-      <c r="I165" s="152"/>
-      <c r="J165" s="152"/>
-      <c r="K165" s="153"/>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="152"/>
-      <c r="B166" s="152"/>
-      <c r="C166" s="152"/>
-      <c r="D166" s="152"/>
-      <c r="E166" s="152"/>
-      <c r="F166" s="152"/>
-      <c r="G166" s="152"/>
-      <c r="H166" s="152"/>
-      <c r="I166" s="152"/>
-      <c r="J166" s="152"/>
-      <c r="K166" s="153"/>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167" s="152"/>
-      <c r="B167" s="152"/>
-      <c r="C167" s="152"/>
-      <c r="D167" s="152"/>
-      <c r="E167" s="152"/>
-      <c r="F167" s="152"/>
-      <c r="G167" s="152"/>
-      <c r="H167" s="152"/>
-      <c r="I167" s="152"/>
-      <c r="J167" s="152"/>
-      <c r="K167" s="153"/>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168" s="152"/>
-      <c r="B168" s="152"/>
-      <c r="C168" s="152"/>
-      <c r="D168" s="152"/>
-      <c r="E168" s="152"/>
-      <c r="F168" s="152"/>
-      <c r="G168" s="152"/>
-      <c r="H168" s="152"/>
-      <c r="I168" s="152"/>
-      <c r="J168" s="152"/>
-      <c r="K168" s="153"/>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169" s="152"/>
-      <c r="B169" s="152"/>
-      <c r="C169" s="152"/>
-      <c r="D169" s="152"/>
-      <c r="E169" s="152"/>
-      <c r="F169" s="152"/>
-      <c r="G169" s="152"/>
-      <c r="H169" s="152"/>
-      <c r="I169" s="152"/>
-      <c r="J169" s="152"/>
-      <c r="K169" s="153"/>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170" s="152"/>
-      <c r="B170" s="152"/>
-      <c r="C170" s="152"/>
-      <c r="D170" s="152"/>
-      <c r="E170" s="152"/>
-      <c r="F170" s="152"/>
-      <c r="G170" s="152"/>
-      <c r="H170" s="152"/>
-      <c r="I170" s="152"/>
-      <c r="J170" s="152"/>
-      <c r="K170" s="153"/>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171" s="152"/>
-      <c r="B171" s="152"/>
-      <c r="C171" s="152"/>
-      <c r="D171" s="152"/>
-      <c r="E171" s="152"/>
-      <c r="F171" s="152"/>
-      <c r="G171" s="152"/>
-      <c r="H171" s="152"/>
-      <c r="I171" s="152"/>
-      <c r="J171" s="152"/>
-      <c r="K171" s="153"/>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172" s="152"/>
-      <c r="B172" s="152"/>
-      <c r="C172" s="152"/>
-      <c r="D172" s="152"/>
-      <c r="E172" s="152"/>
-      <c r="F172" s="152"/>
-      <c r="G172" s="152"/>
-      <c r="H172" s="152"/>
-      <c r="I172" s="152"/>
-      <c r="J172" s="152"/>
-      <c r="K172" s="153"/>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173" s="152"/>
-      <c r="B173" s="152"/>
-      <c r="C173" s="152"/>
-      <c r="D173" s="152"/>
-      <c r="E173" s="152"/>
-      <c r="F173" s="152"/>
-      <c r="G173" s="152"/>
-      <c r="H173" s="152"/>
-      <c r="I173" s="152"/>
-      <c r="J173" s="152"/>
-      <c r="K173" s="153"/>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174" s="152"/>
-      <c r="B174" s="152"/>
-      <c r="C174" s="152"/>
-      <c r="D174" s="152"/>
-      <c r="E174" s="152"/>
-      <c r="F174" s="152"/>
-      <c r="G174" s="152"/>
-      <c r="H174" s="152"/>
-      <c r="I174" s="152"/>
-      <c r="J174" s="152"/>
-      <c r="K174" s="153"/>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175" s="152"/>
-      <c r="B175" s="152"/>
-      <c r="C175" s="152"/>
-      <c r="D175" s="152"/>
-      <c r="E175" s="152"/>
-      <c r="F175" s="152"/>
-      <c r="G175" s="152"/>
-      <c r="H175" s="152"/>
-      <c r="I175" s="152"/>
-      <c r="J175" s="152"/>
-      <c r="K175" s="153"/>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176" s="152"/>
-      <c r="B176" s="152"/>
-      <c r="C176" s="152"/>
-      <c r="D176" s="152"/>
-      <c r="E176" s="152"/>
-      <c r="F176" s="152"/>
-      <c r="G176" s="152"/>
-      <c r="H176" s="152"/>
-      <c r="I176" s="152"/>
-      <c r="J176" s="152"/>
-      <c r="K176" s="153"/>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177" s="152"/>
-      <c r="B177" s="152"/>
-      <c r="C177" s="152"/>
-      <c r="D177" s="152"/>
-      <c r="E177" s="152"/>
-      <c r="F177" s="152"/>
-      <c r="G177" s="152"/>
-      <c r="H177" s="152"/>
-      <c r="I177" s="152"/>
-      <c r="J177" s="152"/>
-      <c r="K177" s="153"/>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178" s="152"/>
-      <c r="B178" s="152"/>
-      <c r="C178" s="152"/>
-      <c r="D178" s="152"/>
-      <c r="E178" s="152"/>
-      <c r="F178" s="152"/>
-      <c r="G178" s="152"/>
-      <c r="H178" s="152"/>
-      <c r="I178" s="152"/>
-      <c r="J178" s="152"/>
-      <c r="K178" s="153"/>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179" s="152"/>
-      <c r="B179" s="152"/>
-      <c r="C179" s="152"/>
-      <c r="D179" s="152"/>
-      <c r="E179" s="152"/>
-      <c r="F179" s="152"/>
-      <c r="G179" s="152"/>
-      <c r="H179" s="152"/>
-      <c r="I179" s="152"/>
-      <c r="J179" s="152"/>
-      <c r="K179" s="153"/>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180" s="152"/>
-      <c r="B180" s="152"/>
-      <c r="C180" s="152"/>
-      <c r="D180" s="152"/>
-      <c r="E180" s="152"/>
-      <c r="F180" s="152"/>
-      <c r="G180" s="152"/>
-      <c r="H180" s="152"/>
-      <c r="I180" s="152"/>
-      <c r="J180" s="152"/>
-      <c r="K180" s="153"/>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181" s="152"/>
-      <c r="B181" s="152"/>
-      <c r="C181" s="152"/>
-      <c r="D181" s="152"/>
-      <c r="E181" s="152"/>
-      <c r="F181" s="152"/>
-      <c r="G181" s="152"/>
-      <c r="H181" s="152"/>
-      <c r="I181" s="152"/>
-      <c r="J181" s="152"/>
-      <c r="K181" s="153"/>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182" s="152"/>
-      <c r="B182" s="152"/>
-      <c r="C182" s="152"/>
-      <c r="D182" s="152"/>
-      <c r="E182" s="152"/>
-      <c r="F182" s="152"/>
-      <c r="G182" s="152"/>
-      <c r="H182" s="152"/>
-      <c r="I182" s="152"/>
-      <c r="J182" s="152"/>
-      <c r="K182" s="153"/>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183" s="152"/>
-      <c r="B183" s="152"/>
-      <c r="C183" s="152"/>
-      <c r="D183" s="152"/>
-      <c r="E183" s="152"/>
-      <c r="F183" s="152"/>
-      <c r="G183" s="152"/>
-      <c r="H183" s="152"/>
-      <c r="I183" s="152"/>
-      <c r="J183" s="152"/>
-      <c r="K183" s="153"/>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184" s="152"/>
-      <c r="B184" s="152"/>
-      <c r="C184" s="152"/>
-      <c r="D184" s="152"/>
-      <c r="E184" s="152"/>
-      <c r="F184" s="152"/>
-      <c r="G184" s="152"/>
-      <c r="H184" s="152"/>
-      <c r="I184" s="152"/>
-      <c r="J184" s="152"/>
-      <c r="K184" s="153"/>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185" s="152"/>
-      <c r="B185" s="152"/>
-      <c r="C185" s="152"/>
-      <c r="D185" s="152"/>
-      <c r="E185" s="152"/>
-      <c r="F185" s="152"/>
-      <c r="G185" s="152"/>
-      <c r="H185" s="152"/>
-      <c r="I185" s="152"/>
-      <c r="J185" s="152"/>
-      <c r="K185" s="153"/>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186" s="152"/>
-      <c r="B186" s="152"/>
-      <c r="C186" s="152"/>
-      <c r="D186" s="152"/>
-      <c r="E186" s="152"/>
-      <c r="F186" s="152"/>
-      <c r="G186" s="152"/>
-      <c r="H186" s="152"/>
-      <c r="I186" s="152"/>
-      <c r="J186" s="152"/>
-      <c r="K186" s="153"/>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187" s="152"/>
-      <c r="B187" s="152"/>
-      <c r="C187" s="152"/>
-      <c r="D187" s="152"/>
-      <c r="E187" s="152"/>
-      <c r="F187" s="152"/>
-      <c r="G187" s="152"/>
-      <c r="H187" s="152"/>
-      <c r="I187" s="152"/>
-      <c r="J187" s="152"/>
-      <c r="K187" s="153"/>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188" s="152"/>
-      <c r="B188" s="152"/>
-      <c r="C188" s="152"/>
-      <c r="D188" s="152"/>
-      <c r="E188" s="152"/>
-      <c r="F188" s="152"/>
-      <c r="G188" s="152"/>
-      <c r="H188" s="152"/>
-      <c r="I188" s="152"/>
-      <c r="J188" s="152"/>
-      <c r="K188" s="153"/>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189" s="152"/>
-      <c r="B189" s="152"/>
-      <c r="C189" s="152"/>
-      <c r="D189" s="152"/>
-      <c r="E189" s="152"/>
-      <c r="F189" s="152"/>
-      <c r="G189" s="152"/>
-      <c r="H189" s="152"/>
-      <c r="I189" s="152"/>
-      <c r="J189" s="152"/>
-      <c r="K189" s="153"/>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190" s="152"/>
-      <c r="B190" s="152"/>
-      <c r="C190" s="152"/>
-      <c r="D190" s="152"/>
-      <c r="E190" s="152"/>
-      <c r="F190" s="152"/>
-      <c r="G190" s="152"/>
-      <c r="H190" s="152"/>
-      <c r="I190" s="152"/>
-      <c r="J190" s="152"/>
-      <c r="K190" s="153"/>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191" s="152"/>
-      <c r="B191" s="152"/>
-      <c r="C191" s="152"/>
-      <c r="D191" s="152"/>
-      <c r="E191" s="152"/>
-      <c r="F191" s="152"/>
-      <c r="G191" s="152"/>
-      <c r="H191" s="152"/>
-      <c r="I191" s="152"/>
-      <c r="J191" s="152"/>
-      <c r="K191" s="153"/>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192" s="152"/>
-      <c r="B192" s="152"/>
-      <c r="C192" s="152"/>
-      <c r="D192" s="152"/>
-      <c r="E192" s="152"/>
-      <c r="F192" s="152"/>
-      <c r="G192" s="152"/>
-      <c r="H192" s="152"/>
-      <c r="I192" s="152"/>
-      <c r="J192" s="152"/>
-      <c r="K192" s="153"/>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193" s="152"/>
-      <c r="B193" s="152"/>
-      <c r="C193" s="152"/>
-      <c r="D193" s="152"/>
-      <c r="E193" s="152"/>
-      <c r="F193" s="152"/>
-      <c r="G193" s="152"/>
-      <c r="H193" s="152"/>
-      <c r="I193" s="152"/>
-      <c r="J193" s="152"/>
-      <c r="K193" s="153"/>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194" s="152"/>
-      <c r="B194" s="152"/>
-      <c r="C194" s="152"/>
-      <c r="D194" s="152"/>
-      <c r="E194" s="152"/>
-      <c r="F194" s="152"/>
-      <c r="G194" s="152"/>
-      <c r="H194" s="152"/>
-      <c r="I194" s="152"/>
-      <c r="J194" s="152"/>
-      <c r="K194" s="153"/>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195" s="152"/>
-      <c r="B195" s="152"/>
-      <c r="C195" s="152"/>
-      <c r="D195" s="152"/>
-      <c r="E195" s="152"/>
-      <c r="F195" s="152"/>
-      <c r="G195" s="152"/>
-      <c r="H195" s="152"/>
-      <c r="I195" s="152"/>
-      <c r="J195" s="152"/>
-      <c r="K195" s="153"/>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196" s="152"/>
-      <c r="B196" s="152"/>
-      <c r="C196" s="152"/>
-      <c r="D196" s="152"/>
-      <c r="E196" s="152"/>
-      <c r="F196" s="152"/>
-      <c r="G196" s="152"/>
-      <c r="H196" s="152"/>
-      <c r="I196" s="152"/>
-      <c r="J196" s="152"/>
-      <c r="K196" s="153"/>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197" s="152"/>
-      <c r="B197" s="152"/>
-      <c r="C197" s="152"/>
-      <c r="D197" s="152"/>
-      <c r="E197" s="152"/>
-      <c r="F197" s="152"/>
-      <c r="G197" s="152"/>
-      <c r="H197" s="152"/>
-      <c r="I197" s="152"/>
-      <c r="J197" s="152"/>
-      <c r="K197" s="153"/>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198" s="152"/>
-      <c r="B198" s="152"/>
-      <c r="C198" s="152"/>
-      <c r="D198" s="152"/>
-      <c r="E198" s="152"/>
-      <c r="F198" s="152"/>
-      <c r="G198" s="152"/>
-      <c r="H198" s="152"/>
-      <c r="I198" s="152"/>
-      <c r="J198" s="152"/>
-      <c r="K198" s="153"/>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199" s="152"/>
-      <c r="B199" s="152"/>
-      <c r="C199" s="152"/>
-      <c r="D199" s="152"/>
-      <c r="E199" s="152"/>
-      <c r="F199" s="152"/>
-      <c r="G199" s="152"/>
-      <c r="H199" s="152"/>
-      <c r="I199" s="152"/>
-      <c r="J199" s="152"/>
-      <c r="K199" s="153"/>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200" s="152"/>
-      <c r="B200" s="152"/>
-      <c r="C200" s="152"/>
-      <c r="D200" s="152"/>
-      <c r="E200" s="152"/>
-      <c r="F200" s="152"/>
-      <c r="G200" s="152"/>
-      <c r="H200" s="152"/>
-      <c r="I200" s="152"/>
-      <c r="J200" s="152"/>
-      <c r="K200" s="153"/>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201" s="152"/>
-      <c r="B201" s="152"/>
-      <c r="C201" s="152"/>
-      <c r="D201" s="152"/>
-      <c r="E201" s="152"/>
-      <c r="F201" s="152"/>
-      <c r="G201" s="152"/>
-      <c r="H201" s="152"/>
-      <c r="I201" s="152"/>
-      <c r="J201" s="152"/>
-      <c r="K201" s="153"/>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202" s="152"/>
-      <c r="B202" s="152"/>
-      <c r="C202" s="152"/>
-      <c r="D202" s="152"/>
-      <c r="E202" s="152"/>
-      <c r="F202" s="152"/>
-      <c r="G202" s="152"/>
-      <c r="H202" s="152"/>
-      <c r="I202" s="152"/>
-      <c r="J202" s="152"/>
-      <c r="K202" s="153"/>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203" s="152"/>
-      <c r="B203" s="152"/>
-      <c r="C203" s="152"/>
-      <c r="D203" s="152"/>
-      <c r="E203" s="152"/>
-      <c r="F203" s="152"/>
-      <c r="G203" s="152"/>
-      <c r="H203" s="152"/>
-      <c r="I203" s="152"/>
-      <c r="J203" s="152"/>
-      <c r="K203" s="153"/>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204" s="152"/>
-      <c r="B204" s="152"/>
-      <c r="C204" s="152"/>
-      <c r="D204" s="152"/>
-      <c r="E204" s="152"/>
-      <c r="F204" s="152"/>
-      <c r="G204" s="152"/>
-      <c r="H204" s="152"/>
-      <c r="I204" s="152"/>
-      <c r="J204" s="152"/>
-      <c r="K204" s="153"/>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205" s="152"/>
-      <c r="B205" s="152"/>
-      <c r="C205" s="152"/>
-      <c r="D205" s="152"/>
-      <c r="E205" s="152"/>
-      <c r="F205" s="152"/>
-      <c r="G205" s="152"/>
-      <c r="H205" s="152"/>
-      <c r="I205" s="152"/>
-      <c r="J205" s="152"/>
-      <c r="K205" s="153"/>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206" s="152"/>
-      <c r="B206" s="152"/>
-      <c r="C206" s="152"/>
-      <c r="D206" s="152"/>
-      <c r="E206" s="152"/>
-      <c r="F206" s="152"/>
-      <c r="G206" s="152"/>
-      <c r="H206" s="152"/>
-      <c r="I206" s="152"/>
-      <c r="J206" s="152"/>
-      <c r="K206" s="153"/>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207" s="152"/>
-      <c r="B207" s="152"/>
-      <c r="C207" s="152"/>
-      <c r="D207" s="152"/>
-      <c r="E207" s="152"/>
-      <c r="F207" s="152"/>
-      <c r="G207" s="152"/>
-      <c r="H207" s="152"/>
-      <c r="I207" s="152"/>
-      <c r="J207" s="152"/>
-      <c r="K207" s="153"/>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208" s="152"/>
-      <c r="B208" s="152"/>
-      <c r="C208" s="152"/>
-      <c r="D208" s="152"/>
-      <c r="E208" s="152"/>
-      <c r="F208" s="152"/>
-      <c r="G208" s="152"/>
-      <c r="H208" s="152"/>
-      <c r="I208" s="152"/>
-      <c r="J208" s="152"/>
-      <c r="K208" s="153"/>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209" s="152"/>
-      <c r="B209" s="152"/>
-      <c r="C209" s="152"/>
-      <c r="D209" s="152"/>
-      <c r="E209" s="152"/>
-      <c r="F209" s="152"/>
-      <c r="G209" s="152"/>
-      <c r="H209" s="152"/>
-      <c r="I209" s="152"/>
-      <c r="J209" s="152"/>
-      <c r="K209" s="153"/>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210" s="152"/>
-      <c r="B210" s="152"/>
-      <c r="C210" s="152"/>
-      <c r="D210" s="152"/>
-      <c r="E210" s="152"/>
-      <c r="F210" s="152"/>
-      <c r="G210" s="152"/>
-      <c r="H210" s="152"/>
-      <c r="I210" s="152"/>
-      <c r="J210" s="152"/>
-      <c r="K210" s="153"/>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211" s="152"/>
-      <c r="B211" s="152"/>
-      <c r="C211" s="152"/>
-      <c r="D211" s="152"/>
-      <c r="E211" s="152"/>
-      <c r="F211" s="152"/>
-      <c r="G211" s="152"/>
-      <c r="H211" s="152"/>
-      <c r="I211" s="152"/>
-      <c r="J211" s="152"/>
-      <c r="K211" s="153"/>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212" s="152"/>
-      <c r="B212" s="152"/>
-      <c r="C212" s="152"/>
-      <c r="D212" s="152"/>
-      <c r="E212" s="152"/>
-      <c r="F212" s="152"/>
-      <c r="G212" s="152"/>
-      <c r="H212" s="152"/>
-      <c r="I212" s="152"/>
-      <c r="J212" s="152"/>
-      <c r="K212" s="153"/>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213" s="152"/>
-      <c r="B213" s="152"/>
-      <c r="C213" s="152"/>
-      <c r="D213" s="152"/>
-      <c r="E213" s="152"/>
-      <c r="F213" s="152"/>
-      <c r="G213" s="152"/>
-      <c r="H213" s="152"/>
-      <c r="I213" s="152"/>
-      <c r="J213" s="152"/>
-      <c r="K213" s="153"/>
-    </row>
-    <row r="214" spans="1:11">
-      <c r="A214" s="152"/>
-      <c r="B214" s="152"/>
-      <c r="C214" s="152"/>
-      <c r="D214" s="152"/>
-      <c r="E214" s="152"/>
-      <c r="F214" s="152"/>
-      <c r="G214" s="152"/>
-      <c r="H214" s="152"/>
-      <c r="I214" s="152"/>
-      <c r="J214" s="152"/>
-      <c r="K214" s="153"/>
-    </row>
-    <row r="215" spans="1:11">
-      <c r="A215" s="152"/>
-      <c r="B215" s="152"/>
-      <c r="C215" s="152"/>
-      <c r="D215" s="152"/>
-      <c r="E215" s="152"/>
-      <c r="F215" s="152"/>
-      <c r="G215" s="152"/>
-      <c r="H215" s="152"/>
-      <c r="I215" s="152"/>
-      <c r="J215" s="152"/>
-      <c r="K215" s="153"/>
-    </row>
-    <row r="216" spans="1:11">
-      <c r="A216" s="152"/>
-      <c r="B216" s="152"/>
-      <c r="C216" s="152"/>
-      <c r="D216" s="152"/>
-      <c r="E216" s="152"/>
-      <c r="F216" s="152"/>
-      <c r="G216" s="152"/>
-      <c r="H216" s="152"/>
-      <c r="I216" s="152"/>
-      <c r="J216" s="152"/>
-      <c r="K216" s="153"/>
-    </row>
-    <row r="217" spans="1:11">
-      <c r="A217" s="152"/>
-      <c r="B217" s="152"/>
-      <c r="C217" s="152"/>
-      <c r="D217" s="152"/>
-      <c r="E217" s="152"/>
-      <c r="F217" s="152"/>
-      <c r="G217" s="152"/>
-      <c r="H217" s="152"/>
-      <c r="I217" s="152"/>
-      <c r="J217" s="152"/>
-      <c r="K217" s="153"/>
-    </row>
-    <row r="218" spans="1:11">
-      <c r="A218" s="152"/>
-      <c r="B218" s="152"/>
-      <c r="C218" s="152"/>
-      <c r="D218" s="152"/>
-      <c r="E218" s="152"/>
-      <c r="F218" s="152"/>
-      <c r="G218" s="152"/>
-      <c r="H218" s="152"/>
-      <c r="I218" s="152"/>
-      <c r="J218" s="152"/>
-      <c r="K218" s="153"/>
-    </row>
-    <row r="219" spans="1:11">
-      <c r="A219" s="152"/>
-      <c r="B219" s="152"/>
-      <c r="C219" s="152"/>
-      <c r="D219" s="152"/>
-      <c r="E219" s="152"/>
-      <c r="F219" s="152"/>
-      <c r="G219" s="152"/>
-      <c r="H219" s="152"/>
-      <c r="I219" s="152"/>
-      <c r="J219" s="152"/>
-      <c r="K219" s="153"/>
-    </row>
-    <row r="220" spans="1:11">
-      <c r="A220" s="152"/>
-      <c r="B220" s="152"/>
-      <c r="C220" s="152"/>
-      <c r="D220" s="152"/>
-      <c r="E220" s="152"/>
-      <c r="F220" s="152"/>
-      <c r="G220" s="152"/>
-      <c r="H220" s="152"/>
-      <c r="I220" s="152"/>
-      <c r="J220" s="152"/>
-      <c r="K220" s="153"/>
-    </row>
-    <row r="221" spans="1:11">
-      <c r="A221" s="152"/>
-      <c r="B221" s="152"/>
-      <c r="C221" s="152"/>
-      <c r="D221" s="152"/>
-      <c r="E221" s="152"/>
-      <c r="F221" s="152"/>
-      <c r="G221" s="152"/>
-      <c r="H221" s="152"/>
-      <c r="I221" s="152"/>
-      <c r="J221" s="152"/>
-      <c r="K221" s="153"/>
-    </row>
-    <row r="222" spans="1:11">
-      <c r="A222" s="152"/>
-      <c r="B222" s="152"/>
-      <c r="C222" s="152"/>
-      <c r="D222" s="152"/>
-      <c r="E222" s="152"/>
-      <c r="F222" s="152"/>
-      <c r="G222" s="152"/>
-      <c r="H222" s="152"/>
-      <c r="I222" s="152"/>
-      <c r="J222" s="152"/>
-      <c r="K222" s="153"/>
-    </row>
-    <row r="223" spans="1:11">
-      <c r="A223" s="152"/>
-      <c r="B223" s="152"/>
-      <c r="C223" s="152"/>
-      <c r="D223" s="152"/>
-      <c r="E223" s="152"/>
-      <c r="F223" s="152"/>
-      <c r="G223" s="152"/>
-      <c r="H223" s="152"/>
-      <c r="I223" s="152"/>
-      <c r="J223" s="152"/>
-      <c r="K223" s="153"/>
-    </row>
-    <row r="224" spans="1:11">
-      <c r="A224" s="152"/>
-      <c r="B224" s="152"/>
-      <c r="C224" s="152"/>
-      <c r="D224" s="152"/>
-      <c r="E224" s="152"/>
-      <c r="F224" s="152"/>
-      <c r="G224" s="152"/>
-      <c r="H224" s="152"/>
-      <c r="I224" s="152"/>
-      <c r="J224" s="152"/>
-      <c r="K224" s="153"/>
-    </row>
-    <row r="225" spans="1:11">
-      <c r="A225" s="152"/>
-      <c r="B225" s="152"/>
-      <c r="C225" s="152"/>
-      <c r="D225" s="152"/>
-      <c r="E225" s="152"/>
-      <c r="F225" s="152"/>
-      <c r="G225" s="152"/>
-      <c r="H225" s="152"/>
-      <c r="I225" s="152"/>
-      <c r="J225" s="152"/>
-      <c r="K225" s="153"/>
-    </row>
-    <row r="226" spans="1:11">
-      <c r="A226" s="154"/>
-      <c r="B226" s="154"/>
-      <c r="C226" s="154"/>
-      <c r="D226" s="154"/>
-      <c r="E226" s="154"/>
-      <c r="F226" s="154"/>
-      <c r="G226" s="154"/>
-      <c r="H226" s="154"/>
-      <c r="I226" s="154"/>
-      <c r="J226" s="154"/>
-      <c r="K226" s="155"/>
+      <c r="B132" s="153"/>
+      <c r="C132" s="153"/>
+      <c r="D132" s="153"/>
+      <c r="E132" s="153"/>
+      <c r="F132" s="153"/>
+      <c r="G132" s="153"/>
+      <c r="H132" s="153"/>
+      <c r="I132" s="153"/>
+      <c r="J132" s="153"/>
+      <c r="K132" s="149"/>
+    </row>
+    <row r="133" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A133" s="153"/>
+      <c r="B133" s="153"/>
+      <c r="C133" s="153"/>
+      <c r="D133" s="153"/>
+      <c r="E133" s="153"/>
+      <c r="F133" s="153"/>
+      <c r="G133" s="153"/>
+      <c r="H133" s="153"/>
+      <c r="I133" s="153"/>
+      <c r="J133" s="153"/>
+      <c r="K133" s="149"/>
+    </row>
+    <row r="134" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A134" s="153"/>
+      <c r="B134" s="153"/>
+      <c r="C134" s="153"/>
+      <c r="D134" s="153"/>
+      <c r="E134" s="153"/>
+      <c r="F134" s="153"/>
+      <c r="G134" s="153"/>
+      <c r="H134" s="153"/>
+      <c r="I134" s="153"/>
+      <c r="J134" s="153"/>
+      <c r="K134" s="149"/>
+    </row>
+    <row r="135" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A135" s="153"/>
+      <c r="B135" s="153"/>
+      <c r="C135" s="153"/>
+      <c r="D135" s="153"/>
+      <c r="E135" s="153"/>
+      <c r="F135" s="153"/>
+      <c r="G135" s="153"/>
+      <c r="H135" s="153"/>
+      <c r="I135" s="153"/>
+      <c r="J135" s="153"/>
+      <c r="K135" s="149"/>
+    </row>
+    <row r="136" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A136" s="154"/>
+      <c r="B136" s="154"/>
+      <c r="C136" s="154"/>
+      <c r="D136" s="154"/>
+      <c r="E136" s="154"/>
+      <c r="F136" s="154"/>
+      <c r="G136" s="154"/>
+      <c r="H136" s="154"/>
+      <c r="I136" s="154"/>
+      <c r="J136" s="154"/>
+      <c r="K136" s="150"/>
+    </row>
+    <row r="137" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A137" s="154"/>
+      <c r="B137" s="154"/>
+      <c r="C137" s="154"/>
+      <c r="D137" s="154"/>
+      <c r="E137" s="154"/>
+      <c r="F137" s="154"/>
+      <c r="G137" s="154"/>
+      <c r="H137" s="154"/>
+      <c r="I137" s="154"/>
+      <c r="J137" s="154"/>
+      <c r="K137" s="150"/>
+    </row>
+    <row r="138" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A138" s="154"/>
+      <c r="B138" s="154"/>
+      <c r="C138" s="154"/>
+      <c r="D138" s="154"/>
+      <c r="E138" s="154"/>
+      <c r="F138" s="154"/>
+      <c r="G138" s="154"/>
+      <c r="H138" s="154"/>
+      <c r="I138" s="154"/>
+      <c r="J138" s="154"/>
+      <c r="K138" s="150"/>
+    </row>
+    <row r="139" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A139" s="154"/>
+      <c r="B139" s="154"/>
+      <c r="C139" s="154"/>
+      <c r="D139" s="154"/>
+      <c r="E139" s="154"/>
+      <c r="F139" s="154"/>
+      <c r="G139" s="154"/>
+      <c r="H139" s="154"/>
+      <c r="I139" s="154"/>
+      <c r="J139" s="154"/>
+      <c r="K139" s="150"/>
+    </row>
+    <row r="140" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A140" s="154"/>
+      <c r="B140" s="154"/>
+      <c r="C140" s="154"/>
+      <c r="D140" s="154"/>
+      <c r="E140" s="154"/>
+      <c r="F140" s="154"/>
+      <c r="G140" s="154"/>
+      <c r="H140" s="154"/>
+      <c r="I140" s="154"/>
+      <c r="J140" s="154"/>
+      <c r="K140" s="150"/>
+    </row>
+    <row r="141" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A141" s="154"/>
+      <c r="B141" s="154"/>
+      <c r="C141" s="154"/>
+      <c r="D141" s="154"/>
+      <c r="E141" s="154"/>
+      <c r="F141" s="154"/>
+      <c r="G141" s="154"/>
+      <c r="H141" s="154"/>
+      <c r="I141" s="154"/>
+      <c r="J141" s="154"/>
+      <c r="K141" s="150"/>
+    </row>
+    <row r="142" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A142" s="154"/>
+      <c r="B142" s="154"/>
+      <c r="C142" s="154"/>
+      <c r="D142" s="154"/>
+      <c r="E142" s="154"/>
+      <c r="F142" s="154"/>
+      <c r="G142" s="154"/>
+      <c r="H142" s="154"/>
+      <c r="I142" s="154"/>
+      <c r="J142" s="154"/>
+      <c r="K142" s="150"/>
+    </row>
+    <row r="143" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A143" s="154"/>
+      <c r="B143" s="154"/>
+      <c r="C143" s="154"/>
+      <c r="D143" s="154"/>
+      <c r="E143" s="154"/>
+      <c r="F143" s="154"/>
+      <c r="G143" s="154"/>
+      <c r="H143" s="154"/>
+      <c r="I143" s="154"/>
+      <c r="J143" s="154"/>
+      <c r="K143" s="150"/>
+    </row>
+    <row r="144" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A144" s="154"/>
+      <c r="B144" s="154"/>
+      <c r="C144" s="154"/>
+      <c r="D144" s="154"/>
+      <c r="E144" s="154"/>
+      <c r="F144" s="154"/>
+      <c r="G144" s="154"/>
+      <c r="H144" s="154"/>
+      <c r="I144" s="154"/>
+      <c r="J144" s="154"/>
+      <c r="K144" s="150"/>
+    </row>
+    <row r="145" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A145" s="154"/>
+      <c r="B145" s="154"/>
+      <c r="C145" s="154"/>
+      <c r="D145" s="154"/>
+      <c r="E145" s="154"/>
+      <c r="F145" s="154"/>
+      <c r="G145" s="154"/>
+      <c r="H145" s="154"/>
+      <c r="I145" s="154"/>
+      <c r="J145" s="154"/>
+      <c r="K145" s="150"/>
+    </row>
+    <row r="146" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A146" s="154"/>
+      <c r="B146" s="154"/>
+      <c r="C146" s="154"/>
+      <c r="D146" s="154"/>
+      <c r="E146" s="154"/>
+      <c r="F146" s="154"/>
+      <c r="G146" s="154"/>
+      <c r="H146" s="154"/>
+      <c r="I146" s="154"/>
+      <c r="J146" s="154"/>
+      <c r="K146" s="150"/>
+    </row>
+    <row r="147" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A147" s="154"/>
+      <c r="B147" s="154"/>
+      <c r="C147" s="154"/>
+      <c r="D147" s="154"/>
+      <c r="E147" s="154"/>
+      <c r="F147" s="154"/>
+      <c r="G147" s="154"/>
+      <c r="H147" s="154"/>
+      <c r="I147" s="154"/>
+      <c r="J147" s="154"/>
+      <c r="K147" s="150"/>
+    </row>
+    <row r="148" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A148" s="154"/>
+      <c r="B148" s="154"/>
+      <c r="C148" s="154"/>
+      <c r="D148" s="154"/>
+      <c r="E148" s="154"/>
+      <c r="F148" s="154"/>
+      <c r="G148" s="154"/>
+      <c r="H148" s="154"/>
+      <c r="I148" s="154"/>
+      <c r="J148" s="154"/>
+      <c r="K148" s="150"/>
+    </row>
+    <row r="149" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A149" s="154"/>
+      <c r="B149" s="154"/>
+      <c r="C149" s="154"/>
+      <c r="D149" s="154"/>
+      <c r="E149" s="154"/>
+      <c r="F149" s="154"/>
+      <c r="G149" s="154"/>
+      <c r="H149" s="154"/>
+      <c r="I149" s="154"/>
+      <c r="J149" s="154"/>
+      <c r="K149" s="150"/>
+    </row>
+    <row r="150" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A150" s="154"/>
+      <c r="B150" s="154"/>
+      <c r="C150" s="154"/>
+      <c r="D150" s="154"/>
+      <c r="E150" s="154"/>
+      <c r="F150" s="154"/>
+      <c r="G150" s="154"/>
+      <c r="H150" s="154"/>
+      <c r="I150" s="154"/>
+      <c r="J150" s="154"/>
+      <c r="K150" s="150"/>
+    </row>
+    <row r="151" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A151" s="154"/>
+      <c r="B151" s="154"/>
+      <c r="C151" s="154"/>
+      <c r="D151" s="154"/>
+      <c r="E151" s="154"/>
+      <c r="F151" s="154"/>
+      <c r="G151" s="154"/>
+      <c r="H151" s="154"/>
+      <c r="I151" s="154"/>
+      <c r="J151" s="154"/>
+      <c r="K151" s="150"/>
+    </row>
+    <row r="152" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A152" s="154"/>
+      <c r="B152" s="154"/>
+      <c r="C152" s="154"/>
+      <c r="D152" s="154"/>
+      <c r="E152" s="154"/>
+      <c r="F152" s="154"/>
+      <c r="G152" s="154"/>
+      <c r="H152" s="154"/>
+      <c r="I152" s="154"/>
+      <c r="J152" s="154"/>
+      <c r="K152" s="150"/>
+    </row>
+    <row r="153" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A153" s="154"/>
+      <c r="B153" s="154"/>
+      <c r="C153" s="154"/>
+      <c r="D153" s="154"/>
+      <c r="E153" s="154"/>
+      <c r="F153" s="154"/>
+      <c r="G153" s="154"/>
+      <c r="H153" s="154"/>
+      <c r="I153" s="154"/>
+      <c r="J153" s="154"/>
+      <c r="K153" s="150"/>
+    </row>
+    <row r="154" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A154" s="154"/>
+      <c r="B154" s="154"/>
+      <c r="C154" s="154"/>
+      <c r="D154" s="154"/>
+      <c r="E154" s="154"/>
+      <c r="F154" s="154"/>
+      <c r="G154" s="154"/>
+      <c r="H154" s="154"/>
+      <c r="I154" s="154"/>
+      <c r="J154" s="154"/>
+      <c r="K154" s="150"/>
+    </row>
+    <row r="155" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A155" s="154"/>
+      <c r="B155" s="154"/>
+      <c r="C155" s="154"/>
+      <c r="D155" s="154"/>
+      <c r="E155" s="154"/>
+      <c r="F155" s="154"/>
+      <c r="G155" s="154"/>
+      <c r="H155" s="154"/>
+      <c r="I155" s="154"/>
+      <c r="J155" s="154"/>
+      <c r="K155" s="150"/>
+    </row>
+    <row r="156" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A156" s="154"/>
+      <c r="B156" s="154"/>
+      <c r="C156" s="154"/>
+      <c r="D156" s="154"/>
+      <c r="E156" s="154"/>
+      <c r="F156" s="154"/>
+      <c r="G156" s="154"/>
+      <c r="H156" s="154"/>
+      <c r="I156" s="154"/>
+      <c r="J156" s="154"/>
+      <c r="K156" s="150"/>
+    </row>
+    <row r="157" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A157" s="154"/>
+      <c r="B157" s="154"/>
+      <c r="C157" s="154"/>
+      <c r="D157" s="154"/>
+      <c r="E157" s="154"/>
+      <c r="F157" s="154"/>
+      <c r="G157" s="154"/>
+      <c r="H157" s="154"/>
+      <c r="I157" s="154"/>
+      <c r="J157" s="154"/>
+      <c r="K157" s="150"/>
+    </row>
+    <row r="158" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A158" s="154"/>
+      <c r="B158" s="154"/>
+      <c r="C158" s="154"/>
+      <c r="D158" s="154"/>
+      <c r="E158" s="154"/>
+      <c r="F158" s="154"/>
+      <c r="G158" s="154"/>
+      <c r="H158" s="154"/>
+      <c r="I158" s="154"/>
+      <c r="J158" s="154"/>
+      <c r="K158" s="150"/>
+    </row>
+    <row r="159" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A159" s="154"/>
+      <c r="B159" s="154"/>
+      <c r="C159" s="154"/>
+      <c r="D159" s="154"/>
+      <c r="E159" s="154"/>
+      <c r="F159" s="154"/>
+      <c r="G159" s="154"/>
+      <c r="H159" s="154"/>
+      <c r="I159" s="154"/>
+      <c r="J159" s="154"/>
+      <c r="K159" s="150"/>
+    </row>
+    <row r="160" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A160" s="154"/>
+      <c r="B160" s="154"/>
+      <c r="C160" s="154"/>
+      <c r="D160" s="154"/>
+      <c r="E160" s="154"/>
+      <c r="F160" s="154"/>
+      <c r="G160" s="154"/>
+      <c r="H160" s="154"/>
+      <c r="I160" s="154"/>
+      <c r="J160" s="154"/>
+      <c r="K160" s="150"/>
+    </row>
+    <row r="161" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A161" s="154"/>
+      <c r="B161" s="154"/>
+      <c r="C161" s="154"/>
+      <c r="D161" s="154"/>
+      <c r="E161" s="154"/>
+      <c r="F161" s="154"/>
+      <c r="G161" s="154"/>
+      <c r="H161" s="154"/>
+      <c r="I161" s="154"/>
+      <c r="J161" s="154"/>
+      <c r="K161" s="150"/>
+    </row>
+    <row r="162" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A162" s="154"/>
+      <c r="B162" s="154"/>
+      <c r="C162" s="154"/>
+      <c r="D162" s="154"/>
+      <c r="E162" s="154"/>
+      <c r="F162" s="154"/>
+      <c r="G162" s="154"/>
+      <c r="H162" s="154"/>
+      <c r="I162" s="154"/>
+      <c r="J162" s="154"/>
+      <c r="K162" s="150"/>
+    </row>
+    <row r="163" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A163" s="154"/>
+      <c r="B163" s="154"/>
+      <c r="C163" s="154"/>
+      <c r="D163" s="154"/>
+      <c r="E163" s="154"/>
+      <c r="F163" s="154"/>
+      <c r="G163" s="154"/>
+      <c r="H163" s="154"/>
+      <c r="I163" s="154"/>
+      <c r="J163" s="154"/>
+      <c r="K163" s="150"/>
+    </row>
+    <row r="164" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A164" s="154"/>
+      <c r="B164" s="154"/>
+      <c r="C164" s="154"/>
+      <c r="D164" s="154"/>
+      <c r="E164" s="154"/>
+      <c r="F164" s="154"/>
+      <c r="G164" s="154"/>
+      <c r="H164" s="154"/>
+      <c r="I164" s="154"/>
+      <c r="J164" s="154"/>
+      <c r="K164" s="150"/>
+    </row>
+    <row r="165" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A165" s="154"/>
+      <c r="B165" s="154"/>
+      <c r="C165" s="154"/>
+      <c r="D165" s="154"/>
+      <c r="E165" s="154"/>
+      <c r="F165" s="154"/>
+      <c r="G165" s="154"/>
+      <c r="H165" s="154"/>
+      <c r="I165" s="154"/>
+      <c r="J165" s="154"/>
+      <c r="K165" s="150"/>
+    </row>
+    <row r="166" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A166" s="154"/>
+      <c r="B166" s="154"/>
+      <c r="C166" s="154"/>
+      <c r="D166" s="154"/>
+      <c r="E166" s="154"/>
+      <c r="F166" s="154"/>
+      <c r="G166" s="154"/>
+      <c r="H166" s="154"/>
+      <c r="I166" s="154"/>
+      <c r="J166" s="154"/>
+      <c r="K166" s="150"/>
+    </row>
+    <row r="167" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A167" s="154"/>
+      <c r="B167" s="154"/>
+      <c r="C167" s="154"/>
+      <c r="D167" s="154"/>
+      <c r="E167" s="154"/>
+      <c r="F167" s="154"/>
+      <c r="G167" s="154"/>
+      <c r="H167" s="154"/>
+      <c r="I167" s="154"/>
+      <c r="J167" s="154"/>
+      <c r="K167" s="150"/>
+    </row>
+    <row r="168" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A168" s="154"/>
+      <c r="B168" s="154"/>
+      <c r="C168" s="154"/>
+      <c r="D168" s="154"/>
+      <c r="E168" s="154"/>
+      <c r="F168" s="154"/>
+      <c r="G168" s="154"/>
+      <c r="H168" s="154"/>
+      <c r="I168" s="154"/>
+      <c r="J168" s="154"/>
+      <c r="K168" s="150"/>
+    </row>
+    <row r="169" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A169" s="154"/>
+      <c r="B169" s="154"/>
+      <c r="C169" s="154"/>
+      <c r="D169" s="154"/>
+      <c r="E169" s="154"/>
+      <c r="F169" s="154"/>
+      <c r="G169" s="154"/>
+      <c r="H169" s="154"/>
+      <c r="I169" s="154"/>
+      <c r="J169" s="154"/>
+      <c r="K169" s="150"/>
+    </row>
+    <row r="170" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A170" s="154"/>
+      <c r="B170" s="154"/>
+      <c r="C170" s="154"/>
+      <c r="D170" s="154"/>
+      <c r="E170" s="154"/>
+      <c r="F170" s="154"/>
+      <c r="G170" s="154"/>
+      <c r="H170" s="154"/>
+      <c r="I170" s="154"/>
+      <c r="J170" s="154"/>
+      <c r="K170" s="150"/>
+    </row>
+    <row r="171" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A171" s="154"/>
+      <c r="B171" s="154"/>
+      <c r="C171" s="154"/>
+      <c r="D171" s="154"/>
+      <c r="E171" s="154"/>
+      <c r="F171" s="154"/>
+      <c r="G171" s="154"/>
+      <c r="H171" s="154"/>
+      <c r="I171" s="154"/>
+      <c r="J171" s="154"/>
+      <c r="K171" s="150"/>
+    </row>
+    <row r="172" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A172" s="154"/>
+      <c r="B172" s="154"/>
+      <c r="C172" s="154"/>
+      <c r="D172" s="154"/>
+      <c r="E172" s="154"/>
+      <c r="F172" s="154"/>
+      <c r="G172" s="154"/>
+      <c r="H172" s="154"/>
+      <c r="I172" s="154"/>
+      <c r="J172" s="154"/>
+      <c r="K172" s="150"/>
+    </row>
+    <row r="173" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A173" s="154"/>
+      <c r="B173" s="154"/>
+      <c r="C173" s="154"/>
+      <c r="D173" s="154"/>
+      <c r="E173" s="154"/>
+      <c r="F173" s="154"/>
+      <c r="G173" s="154"/>
+      <c r="H173" s="154"/>
+      <c r="I173" s="154"/>
+      <c r="J173" s="154"/>
+      <c r="K173" s="150"/>
+    </row>
+    <row r="174" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A174" s="154"/>
+      <c r="B174" s="154"/>
+      <c r="C174" s="154"/>
+      <c r="D174" s="154"/>
+      <c r="E174" s="154"/>
+      <c r="F174" s="154"/>
+      <c r="G174" s="154"/>
+      <c r="H174" s="154"/>
+      <c r="I174" s="154"/>
+      <c r="J174" s="154"/>
+      <c r="K174" s="150"/>
+    </row>
+    <row r="175" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A175" s="154"/>
+      <c r="B175" s="154"/>
+      <c r="C175" s="154"/>
+      <c r="D175" s="154"/>
+      <c r="E175" s="154"/>
+      <c r="F175" s="154"/>
+      <c r="G175" s="154"/>
+      <c r="H175" s="154"/>
+      <c r="I175" s="154"/>
+      <c r="J175" s="154"/>
+      <c r="K175" s="150"/>
+    </row>
+    <row r="176" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A176" s="154"/>
+      <c r="B176" s="154"/>
+      <c r="C176" s="154"/>
+      <c r="D176" s="154"/>
+      <c r="E176" s="154"/>
+      <c r="F176" s="154"/>
+      <c r="G176" s="154"/>
+      <c r="H176" s="154"/>
+      <c r="I176" s="154"/>
+      <c r="J176" s="154"/>
+      <c r="K176" s="150"/>
+    </row>
+    <row r="177" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A177" s="154"/>
+      <c r="B177" s="154"/>
+      <c r="C177" s="154"/>
+      <c r="D177" s="154"/>
+      <c r="E177" s="154"/>
+      <c r="F177" s="154"/>
+      <c r="G177" s="154"/>
+      <c r="H177" s="154"/>
+      <c r="I177" s="154"/>
+      <c r="J177" s="154"/>
+      <c r="K177" s="150"/>
+    </row>
+    <row r="178" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A178" s="154"/>
+      <c r="B178" s="154"/>
+      <c r="C178" s="154"/>
+      <c r="D178" s="154"/>
+      <c r="E178" s="154"/>
+      <c r="F178" s="154"/>
+      <c r="G178" s="154"/>
+      <c r="H178" s="154"/>
+      <c r="I178" s="154"/>
+      <c r="J178" s="154"/>
+      <c r="K178" s="150"/>
+    </row>
+    <row r="179" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A179" s="154"/>
+      <c r="B179" s="154"/>
+      <c r="C179" s="154"/>
+      <c r="D179" s="154"/>
+      <c r="E179" s="154"/>
+      <c r="F179" s="154"/>
+      <c r="G179" s="154"/>
+      <c r="H179" s="154"/>
+      <c r="I179" s="154"/>
+      <c r="J179" s="154"/>
+      <c r="K179" s="150"/>
+    </row>
+    <row r="180" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A180" s="154"/>
+      <c r="B180" s="154"/>
+      <c r="C180" s="154"/>
+      <c r="D180" s="154"/>
+      <c r="E180" s="154"/>
+      <c r="F180" s="154"/>
+      <c r="G180" s="154"/>
+      <c r="H180" s="154"/>
+      <c r="I180" s="154"/>
+      <c r="J180" s="154"/>
+      <c r="K180" s="150"/>
+    </row>
+    <row r="181" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A181" s="154"/>
+      <c r="B181" s="154"/>
+      <c r="C181" s="154"/>
+      <c r="D181" s="154"/>
+      <c r="E181" s="154"/>
+      <c r="F181" s="154"/>
+      <c r="G181" s="154"/>
+      <c r="H181" s="154"/>
+      <c r="I181" s="154"/>
+      <c r="J181" s="154"/>
+      <c r="K181" s="150"/>
+    </row>
+    <row r="182" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A182" s="154"/>
+      <c r="B182" s="154"/>
+      <c r="C182" s="154"/>
+      <c r="D182" s="154"/>
+      <c r="E182" s="154"/>
+      <c r="F182" s="154"/>
+      <c r="G182" s="154"/>
+      <c r="H182" s="154"/>
+      <c r="I182" s="154"/>
+      <c r="J182" s="154"/>
+      <c r="K182" s="150"/>
+    </row>
+    <row r="183" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A183" s="154"/>
+      <c r="B183" s="154"/>
+      <c r="C183" s="154"/>
+      <c r="D183" s="154"/>
+      <c r="E183" s="154"/>
+      <c r="F183" s="154"/>
+      <c r="G183" s="154"/>
+      <c r="H183" s="154"/>
+      <c r="I183" s="154"/>
+      <c r="J183" s="154"/>
+      <c r="K183" s="150"/>
+    </row>
+    <row r="184" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A184" s="154"/>
+      <c r="B184" s="154"/>
+      <c r="C184" s="154"/>
+      <c r="D184" s="154"/>
+      <c r="E184" s="154"/>
+      <c r="F184" s="154"/>
+      <c r="G184" s="154"/>
+      <c r="H184" s="154"/>
+      <c r="I184" s="154"/>
+      <c r="J184" s="154"/>
+      <c r="K184" s="150"/>
+    </row>
+    <row r="185" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A185" s="154"/>
+      <c r="B185" s="154"/>
+      <c r="C185" s="154"/>
+      <c r="D185" s="154"/>
+      <c r="E185" s="154"/>
+      <c r="F185" s="154"/>
+      <c r="G185" s="154"/>
+      <c r="H185" s="154"/>
+      <c r="I185" s="154"/>
+      <c r="J185" s="154"/>
+      <c r="K185" s="150"/>
+    </row>
+    <row r="186" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A186" s="154"/>
+      <c r="B186" s="154"/>
+      <c r="C186" s="154"/>
+      <c r="D186" s="154"/>
+      <c r="E186" s="154"/>
+      <c r="F186" s="154"/>
+      <c r="G186" s="154"/>
+      <c r="H186" s="154"/>
+      <c r="I186" s="154"/>
+      <c r="J186" s="154"/>
+      <c r="K186" s="150"/>
+    </row>
+    <row r="187" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A187" s="154"/>
+      <c r="B187" s="154"/>
+      <c r="C187" s="154"/>
+      <c r="D187" s="154"/>
+      <c r="E187" s="154"/>
+      <c r="F187" s="154"/>
+      <c r="G187" s="154"/>
+      <c r="H187" s="154"/>
+      <c r="I187" s="154"/>
+      <c r="J187" s="154"/>
+      <c r="K187" s="150"/>
+    </row>
+    <row r="188" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A188" s="154"/>
+      <c r="B188" s="154"/>
+      <c r="C188" s="154"/>
+      <c r="D188" s="154"/>
+      <c r="E188" s="154"/>
+      <c r="F188" s="154"/>
+      <c r="G188" s="154"/>
+      <c r="H188" s="154"/>
+      <c r="I188" s="154"/>
+      <c r="J188" s="154"/>
+      <c r="K188" s="150"/>
+    </row>
+    <row r="189" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A189" s="154"/>
+      <c r="B189" s="154"/>
+      <c r="C189" s="154"/>
+      <c r="D189" s="154"/>
+      <c r="E189" s="154"/>
+      <c r="F189" s="154"/>
+      <c r="G189" s="154"/>
+      <c r="H189" s="154"/>
+      <c r="I189" s="154"/>
+      <c r="J189" s="154"/>
+      <c r="K189" s="150"/>
+    </row>
+    <row r="190" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A190" s="154"/>
+      <c r="B190" s="154"/>
+      <c r="C190" s="154"/>
+      <c r="D190" s="154"/>
+      <c r="E190" s="154"/>
+      <c r="F190" s="154"/>
+      <c r="G190" s="154"/>
+      <c r="H190" s="154"/>
+      <c r="I190" s="154"/>
+      <c r="J190" s="154"/>
+      <c r="K190" s="150"/>
+    </row>
+    <row r="191" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A191" s="154"/>
+      <c r="B191" s="154"/>
+      <c r="C191" s="154"/>
+      <c r="D191" s="154"/>
+      <c r="E191" s="154"/>
+      <c r="F191" s="154"/>
+      <c r="G191" s="154"/>
+      <c r="H191" s="154"/>
+      <c r="I191" s="154"/>
+      <c r="J191" s="154"/>
+      <c r="K191" s="150"/>
+    </row>
+    <row r="192" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A192" s="154"/>
+      <c r="B192" s="154"/>
+      <c r="C192" s="154"/>
+      <c r="D192" s="154"/>
+      <c r="E192" s="154"/>
+      <c r="F192" s="154"/>
+      <c r="G192" s="154"/>
+      <c r="H192" s="154"/>
+      <c r="I192" s="154"/>
+      <c r="J192" s="154"/>
+      <c r="K192" s="150"/>
+    </row>
+    <row r="193" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A193" s="154"/>
+      <c r="B193" s="154"/>
+      <c r="C193" s="154"/>
+      <c r="D193" s="154"/>
+      <c r="E193" s="154"/>
+      <c r="F193" s="154"/>
+      <c r="G193" s="154"/>
+      <c r="H193" s="154"/>
+      <c r="I193" s="154"/>
+      <c r="J193" s="154"/>
+      <c r="K193" s="150"/>
+    </row>
+    <row r="194" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A194" s="154"/>
+      <c r="B194" s="154"/>
+      <c r="C194" s="154"/>
+      <c r="D194" s="154"/>
+      <c r="E194" s="154"/>
+      <c r="F194" s="154"/>
+      <c r="G194" s="154"/>
+      <c r="H194" s="154"/>
+      <c r="I194" s="154"/>
+      <c r="J194" s="154"/>
+      <c r="K194" s="150"/>
+    </row>
+    <row r="195" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A195" s="154"/>
+      <c r="B195" s="154"/>
+      <c r="C195" s="154"/>
+      <c r="D195" s="154"/>
+      <c r="E195" s="154"/>
+      <c r="F195" s="154"/>
+      <c r="G195" s="154"/>
+      <c r="H195" s="154"/>
+      <c r="I195" s="154"/>
+      <c r="J195" s="154"/>
+      <c r="K195" s="150"/>
+    </row>
+    <row r="196" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A196" s="154"/>
+      <c r="B196" s="154"/>
+      <c r="C196" s="154"/>
+      <c r="D196" s="154"/>
+      <c r="E196" s="154"/>
+      <c r="F196" s="154"/>
+      <c r="G196" s="154"/>
+      <c r="H196" s="154"/>
+      <c r="I196" s="154"/>
+      <c r="J196" s="154"/>
+      <c r="K196" s="150"/>
+    </row>
+    <row r="197" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A197" s="154"/>
+      <c r="B197" s="154"/>
+      <c r="C197" s="154"/>
+      <c r="D197" s="154"/>
+      <c r="E197" s="154"/>
+      <c r="F197" s="154"/>
+      <c r="G197" s="154"/>
+      <c r="H197" s="154"/>
+      <c r="I197" s="154"/>
+      <c r="J197" s="154"/>
+      <c r="K197" s="150"/>
+    </row>
+    <row r="198" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A198" s="154"/>
+      <c r="B198" s="154"/>
+      <c r="C198" s="154"/>
+      <c r="D198" s="154"/>
+      <c r="E198" s="154"/>
+      <c r="F198" s="154"/>
+      <c r="G198" s="154"/>
+      <c r="H198" s="154"/>
+      <c r="I198" s="154"/>
+      <c r="J198" s="154"/>
+      <c r="K198" s="150"/>
+    </row>
+    <row r="199" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A199" s="154"/>
+      <c r="B199" s="154"/>
+      <c r="C199" s="154"/>
+      <c r="D199" s="154"/>
+      <c r="E199" s="154"/>
+      <c r="F199" s="154"/>
+      <c r="G199" s="154"/>
+      <c r="H199" s="154"/>
+      <c r="I199" s="154"/>
+      <c r="J199" s="154"/>
+      <c r="K199" s="150"/>
+    </row>
+    <row r="200" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A200" s="154"/>
+      <c r="B200" s="154"/>
+      <c r="C200" s="154"/>
+      <c r="D200" s="154"/>
+      <c r="E200" s="154"/>
+      <c r="F200" s="154"/>
+      <c r="G200" s="154"/>
+      <c r="H200" s="154"/>
+      <c r="I200" s="154"/>
+      <c r="J200" s="154"/>
+      <c r="K200" s="150"/>
+    </row>
+    <row r="201" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A201" s="154"/>
+      <c r="B201" s="154"/>
+      <c r="C201" s="154"/>
+      <c r="D201" s="154"/>
+      <c r="E201" s="154"/>
+      <c r="F201" s="154"/>
+      <c r="G201" s="154"/>
+      <c r="H201" s="154"/>
+      <c r="I201" s="154"/>
+      <c r="J201" s="154"/>
+      <c r="K201" s="150"/>
+    </row>
+    <row r="202" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A202" s="154"/>
+      <c r="B202" s="154"/>
+      <c r="C202" s="154"/>
+      <c r="D202" s="154"/>
+      <c r="E202" s="154"/>
+      <c r="F202" s="154"/>
+      <c r="G202" s="154"/>
+      <c r="H202" s="154"/>
+      <c r="I202" s="154"/>
+      <c r="J202" s="154"/>
+      <c r="K202" s="150"/>
+    </row>
+    <row r="203" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A203" s="154"/>
+      <c r="B203" s="154"/>
+      <c r="C203" s="154"/>
+      <c r="D203" s="154"/>
+      <c r="E203" s="154"/>
+      <c r="F203" s="154"/>
+      <c r="G203" s="154"/>
+      <c r="H203" s="154"/>
+      <c r="I203" s="154"/>
+      <c r="J203" s="154"/>
+      <c r="K203" s="150"/>
+    </row>
+    <row r="204" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A204" s="154"/>
+      <c r="B204" s="154"/>
+      <c r="C204" s="154"/>
+      <c r="D204" s="154"/>
+      <c r="E204" s="154"/>
+      <c r="F204" s="154"/>
+      <c r="G204" s="154"/>
+      <c r="H204" s="154"/>
+      <c r="I204" s="154"/>
+      <c r="J204" s="154"/>
+      <c r="K204" s="150"/>
+    </row>
+    <row r="205" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A205" s="154"/>
+      <c r="B205" s="154"/>
+      <c r="C205" s="154"/>
+      <c r="D205" s="154"/>
+      <c r="E205" s="154"/>
+      <c r="F205" s="154"/>
+      <c r="G205" s="154"/>
+      <c r="H205" s="154"/>
+      <c r="I205" s="154"/>
+      <c r="J205" s="154"/>
+      <c r="K205" s="150"/>
+    </row>
+    <row r="206" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A206" s="154"/>
+      <c r="B206" s="154"/>
+      <c r="C206" s="154"/>
+      <c r="D206" s="154"/>
+      <c r="E206" s="154"/>
+      <c r="F206" s="154"/>
+      <c r="G206" s="154"/>
+      <c r="H206" s="154"/>
+      <c r="I206" s="154"/>
+      <c r="J206" s="154"/>
+      <c r="K206" s="150"/>
+    </row>
+    <row r="207" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A207" s="154"/>
+      <c r="B207" s="154"/>
+      <c r="C207" s="154"/>
+      <c r="D207" s="154"/>
+      <c r="E207" s="154"/>
+      <c r="F207" s="154"/>
+      <c r="G207" s="154"/>
+      <c r="H207" s="154"/>
+      <c r="I207" s="154"/>
+      <c r="J207" s="154"/>
+      <c r="K207" s="150"/>
+    </row>
+    <row r="208" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A208" s="154"/>
+      <c r="B208" s="154"/>
+      <c r="C208" s="154"/>
+      <c r="D208" s="154"/>
+      <c r="E208" s="154"/>
+      <c r="F208" s="154"/>
+      <c r="G208" s="154"/>
+      <c r="H208" s="154"/>
+      <c r="I208" s="154"/>
+      <c r="J208" s="154"/>
+      <c r="K208" s="150"/>
+    </row>
+    <row r="209" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A209" s="154"/>
+      <c r="B209" s="154"/>
+      <c r="C209" s="154"/>
+      <c r="D209" s="154"/>
+      <c r="E209" s="154"/>
+      <c r="F209" s="154"/>
+      <c r="G209" s="154"/>
+      <c r="H209" s="154"/>
+      <c r="I209" s="154"/>
+      <c r="J209" s="154"/>
+      <c r="K209" s="150"/>
+    </row>
+    <row r="210" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A210" s="154"/>
+      <c r="B210" s="154"/>
+      <c r="C210" s="154"/>
+      <c r="D210" s="154"/>
+      <c r="E210" s="154"/>
+      <c r="F210" s="154"/>
+      <c r="G210" s="154"/>
+      <c r="H210" s="154"/>
+      <c r="I210" s="154"/>
+      <c r="J210" s="154"/>
+      <c r="K210" s="150"/>
+    </row>
+    <row r="211" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A211" s="154"/>
+      <c r="B211" s="154"/>
+      <c r="C211" s="154"/>
+      <c r="D211" s="154"/>
+      <c r="E211" s="154"/>
+      <c r="F211" s="154"/>
+      <c r="G211" s="154"/>
+      <c r="H211" s="154"/>
+      <c r="I211" s="154"/>
+      <c r="J211" s="154"/>
+      <c r="K211" s="150"/>
+    </row>
+    <row r="212" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A212" s="154"/>
+      <c r="B212" s="154"/>
+      <c r="C212" s="154"/>
+      <c r="D212" s="154"/>
+      <c r="E212" s="154"/>
+      <c r="F212" s="154"/>
+      <c r="G212" s="154"/>
+      <c r="H212" s="154"/>
+      <c r="I212" s="154"/>
+      <c r="J212" s="154"/>
+      <c r="K212" s="150"/>
+    </row>
+    <row r="213" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A213" s="154"/>
+      <c r="B213" s="154"/>
+      <c r="C213" s="154"/>
+      <c r="D213" s="154"/>
+      <c r="E213" s="154"/>
+      <c r="F213" s="154"/>
+      <c r="G213" s="154"/>
+      <c r="H213" s="154"/>
+      <c r="I213" s="154"/>
+      <c r="J213" s="154"/>
+      <c r="K213" s="150"/>
+    </row>
+    <row r="214" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A214" s="154"/>
+      <c r="B214" s="154"/>
+      <c r="C214" s="154"/>
+      <c r="D214" s="154"/>
+      <c r="E214" s="154"/>
+      <c r="F214" s="154"/>
+      <c r="G214" s="154"/>
+      <c r="H214" s="154"/>
+      <c r="I214" s="154"/>
+      <c r="J214" s="154"/>
+      <c r="K214" s="150"/>
+    </row>
+    <row r="215" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A215" s="154"/>
+      <c r="B215" s="154"/>
+      <c r="C215" s="154"/>
+      <c r="D215" s="154"/>
+      <c r="E215" s="154"/>
+      <c r="F215" s="154"/>
+      <c r="G215" s="154"/>
+      <c r="H215" s="154"/>
+      <c r="I215" s="154"/>
+      <c r="J215" s="154"/>
+      <c r="K215" s="150"/>
+    </row>
+    <row r="216" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A216" s="154"/>
+      <c r="B216" s="154"/>
+      <c r="C216" s="154"/>
+      <c r="D216" s="154"/>
+      <c r="E216" s="154"/>
+      <c r="F216" s="154"/>
+      <c r="G216" s="154"/>
+      <c r="H216" s="154"/>
+      <c r="I216" s="154"/>
+      <c r="J216" s="154"/>
+      <c r="K216" s="150"/>
+    </row>
+    <row r="217" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A217" s="154"/>
+      <c r="B217" s="154"/>
+      <c r="C217" s="154"/>
+      <c r="D217" s="154"/>
+      <c r="E217" s="154"/>
+      <c r="F217" s="154"/>
+      <c r="G217" s="154"/>
+      <c r="H217" s="154"/>
+      <c r="I217" s="154"/>
+      <c r="J217" s="154"/>
+      <c r="K217" s="150"/>
+    </row>
+    <row r="218" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A218" s="154"/>
+      <c r="B218" s="154"/>
+      <c r="C218" s="154"/>
+      <c r="D218" s="154"/>
+      <c r="E218" s="154"/>
+      <c r="F218" s="154"/>
+      <c r="G218" s="154"/>
+      <c r="H218" s="154"/>
+      <c r="I218" s="154"/>
+      <c r="J218" s="154"/>
+      <c r="K218" s="150"/>
+    </row>
+    <row r="219" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A219" s="154"/>
+      <c r="B219" s="154"/>
+      <c r="C219" s="154"/>
+      <c r="D219" s="154"/>
+      <c r="E219" s="154"/>
+      <c r="F219" s="154"/>
+      <c r="G219" s="154"/>
+      <c r="H219" s="154"/>
+      <c r="I219" s="154"/>
+      <c r="J219" s="154"/>
+      <c r="K219" s="150"/>
+    </row>
+    <row r="220" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A220" s="154"/>
+      <c r="B220" s="154"/>
+      <c r="C220" s="154"/>
+      <c r="D220" s="154"/>
+      <c r="E220" s="154"/>
+      <c r="F220" s="154"/>
+      <c r="G220" s="154"/>
+      <c r="H220" s="154"/>
+      <c r="I220" s="154"/>
+      <c r="J220" s="154"/>
+      <c r="K220" s="150"/>
+    </row>
+    <row r="221" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A221" s="154"/>
+      <c r="B221" s="154"/>
+      <c r="C221" s="154"/>
+      <c r="D221" s="154"/>
+      <c r="E221" s="154"/>
+      <c r="F221" s="154"/>
+      <c r="G221" s="154"/>
+      <c r="H221" s="154"/>
+      <c r="I221" s="154"/>
+      <c r="J221" s="154"/>
+      <c r="K221" s="150"/>
+    </row>
+    <row r="222" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A222" s="154"/>
+      <c r="B222" s="154"/>
+      <c r="C222" s="154"/>
+      <c r="D222" s="154"/>
+      <c r="E222" s="154"/>
+      <c r="F222" s="154"/>
+      <c r="G222" s="154"/>
+      <c r="H222" s="154"/>
+      <c r="I222" s="154"/>
+      <c r="J222" s="154"/>
+      <c r="K222" s="150"/>
+    </row>
+    <row r="223" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A223" s="154"/>
+      <c r="B223" s="154"/>
+      <c r="C223" s="154"/>
+      <c r="D223" s="154"/>
+      <c r="E223" s="154"/>
+      <c r="F223" s="154"/>
+      <c r="G223" s="154"/>
+      <c r="H223" s="154"/>
+      <c r="I223" s="154"/>
+      <c r="J223" s="154"/>
+      <c r="K223" s="150"/>
+    </row>
+    <row r="224" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A224" s="154"/>
+      <c r="B224" s="154"/>
+      <c r="C224" s="154"/>
+      <c r="D224" s="154"/>
+      <c r="E224" s="154"/>
+      <c r="F224" s="154"/>
+      <c r="G224" s="154"/>
+      <c r="H224" s="154"/>
+      <c r="I224" s="154"/>
+      <c r="J224" s="154"/>
+      <c r="K224" s="150"/>
+    </row>
+    <row r="225" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A225" s="154"/>
+      <c r="B225" s="154"/>
+      <c r="C225" s="154"/>
+      <c r="D225" s="154"/>
+      <c r="E225" s="154"/>
+      <c r="F225" s="154"/>
+      <c r="G225" s="154"/>
+      <c r="H225" s="154"/>
+      <c r="I225" s="154"/>
+      <c r="J225" s="154"/>
+      <c r="K225" s="150"/>
+    </row>
+    <row r="226" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A226" s="151"/>
+      <c r="B226" s="151"/>
+      <c r="C226" s="151"/>
+      <c r="D226" s="151"/>
+      <c r="E226" s="151"/>
+      <c r="F226" s="151"/>
+      <c r="G226" s="151"/>
+      <c r="H226" s="151"/>
+      <c r="I226" s="151"/>
+      <c r="J226" s="151"/>
+      <c r="K226" s="152"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A12:K226"/>
+  <mergeCells count="11">
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A11:K54"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A132:K135"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>

--- a/doc/trim1/1_gestion_proyecto/2_levantamiento_informacion/1_recoleccion_informacion.xlsx
+++ b/doc/trim1/1_gestion_proyecto/2_levantamiento_informacion/1_recoleccion_informacion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8803C02-9D55-4843-A131-2F8118E5A11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53266801-4EA0-48B8-A467-CCB75597A97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="136">
   <si>
     <t>&lt;Nombre Proyecto&gt;</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Organismo</t>
   </si>
   <si>
-    <t>&lt;Nombre Consejería u Organismo Autónomo&gt;</t>
-  </si>
-  <si>
     <t>Proyecto</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Fecha Versión</t>
   </si>
   <si>
-    <t>DD/MM/AAAA</t>
-  </si>
-  <si>
     <t>Aprobado Por</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>Técnicas de Recolección</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>EDWIN ALBEIRO RAMOS VILLAMIL</t>
   </si>
   <si>
@@ -166,24 +157,10 @@
     <t>Entrevista</t>
   </si>
   <si>
-    <t>Grabadora
-Libreta de apuntes</t>
-  </si>
-  <si>
     <t>Observación</t>
   </si>
   <si>
-    <t>Videograbadora
-Libreta de apuntes</t>
-  </si>
-  <si>
-    <t>Confirmar que se permita el uso de la videograbadora</t>
-  </si>
-  <si>
     <t>Encuesta</t>
-  </si>
-  <si>
-    <t>&lt;Nombre del Proyecto&gt;</t>
   </si>
   <si>
     <t>Planeación de la Recolección</t>
@@ -525,8 +502,121 @@
     <t>10/03/2023</t>
   </si>
   <si>
+    <t>Las facturas mostradas anteriormente se utilizan para la verificación de los productos que llegan al negocio, es decir cuando estos llegan el encargado compara lo pedido contra lo entregado, en caso de que este no este completo se la empresa encargada deberá traer los productos faltantes al siguiente día.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Factura generada cuando el dueño realiza un pedido de forma presencial a un agente de la marca</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Factura al cliente, en este caso se pone una X al producto que el cliente llevo, si no se encuentra dentro de la lista el encargado la escribe en una aparte, y posteriormente termina la jornada laboral con la empresa en funcionamiento se envía un correo electrónico al cliente, para ello cuando le solicita la factura el encargado solicita el nombre completo y el correo electrónico. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Factura generada cuando el dueño realiza un pedido de forma virtual</t>
+    </r>
+  </si>
+  <si>
+    <t>Market System</t>
+  </si>
+  <si>
+    <t>Catalina Chavez - Harold Sanchez - Oscar Aguirre</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>Se adiciona el analisis de la tecnica de observacion</t>
+  </si>
+  <si>
+    <t>16/03/2023</t>
+  </si>
+  <si>
+    <t>Servicio nacional de aprendizaje (SENA)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Link de google forms: https://docs.google.com/forms/d/1wet0uLchOhNNOuOtDQW-2sOG4IxYcgsqueBXbCoHOhU/edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Libreta de apuntes</t>
+  </si>
+  <si>
+    <t>Camara fotografica
+Libreta de apuntes</t>
+  </si>
+  <si>
+    <t>Confirmar que se permita el uso de la camara</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANÁLISIS DE RECOLECCIÓN DE DATOS.
-Con el objetivo de obtener información acerca de la empresa XXX ubicada en XXX la cual se dedica a la comercialización de productos varios, se plantearon diferentes métodos de recolección de datos los cuales irán siendo nombrados posteriormente.
+Con el objetivo de obtener información acerca de la empresa que se dedica a la comercialización de productos varios, se plantearon diferentes métodos de recolección de datos los cuales irán siendo nombrados posteriormente.
 Para un sondeo previo acerca de la empresa anteriormente mencionada se utiliza el método de cuestionario vía electrónica, con ayuda de la herramienta Google forms, con el fin de obtener resultados óptimos se plantean objetivos para la investigación los cuales son:
 •	Conocer los procesos de la empresa.
 •	Identificar el proceso más difícil de la empresa.
@@ -569,99 +659,6 @@
 Tras terminar con la entrevista se le solicita al dueño permiso para observar la tienda, y tomar fotos de los productos generados por los procesos, esto con el método de observación, tomando apuntes en la libreta de campo.
 Algunas de las fotografías obtenidas fueron:
 </t>
-  </si>
-  <si>
-    <t>Las facturas mostradas anteriormente se utilizan para la verificación de los productos que llegan al negocio, es decir cuando estos llegan el encargado compara lo pedido contra lo entregado, en caso de que este no este completo se la empresa encargada deberá traer los productos faltantes al siguiente día.</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Factura generada cuando el dueño realiza un pedido de forma presencial a un agente de la marca</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Factura al cliente, en este caso se pone una X al producto que el cliente llevo, si no se encuentra dentro de la lista el encargado la escribe en una aparte, y posteriormente termina la jornada laboral con la empresa en funcionamiento se envía un correo electrónico al cliente, para ello cuando le solicita la factura el encargado solicita el nombre completo y el correo electrónico. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Factura generada cuando el dueño realiza un pedido de forma virtual</t>
-    </r>
-  </si>
-  <si>
-    <t>Market System</t>
-  </si>
-  <si>
-    <t>Catalina Chavez - Harold Sanchez - Oscar Aguirre</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>Se adiciona el analisis de la tecnica de observacion</t>
-  </si>
-  <si>
-    <t>16/03/2023</t>
   </si>
 </sst>
 </file>
@@ -831,7 +828,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,12 +856,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,27 +1899,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1947,12 +1939,29 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2093,23 +2102,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2117,11 +2111,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2132,11 +2123,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3856,20 +3847,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>704848</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="720000" cy="720000"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E5BC2D-AE9F-7EC3-CF8E-56300A66068E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3877,53 +3873,53 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="7265" t="9659" r="8548" b="11575"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504948" y="1047748"/>
-          <a:ext cx="720000" cy="720000"/>
+          <a:off x="981075" y="1085850"/>
+          <a:ext cx="1876425" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="432000" cy="432000"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>405341</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35983</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176E445A-D94B-44E4-B0C0-72097B34A8D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3931,53 +3927,53 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="7265" t="9659" r="8548" b="11575"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66676" y="57151"/>
-          <a:ext cx="432000" cy="432000"/>
+          <a:off x="1121833" y="0"/>
+          <a:ext cx="1876425" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="900000" cy="900000"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>358775</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DB0B6F-3EE0-4EDB-B540-1EEAB432215E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3985,53 +3981,53 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="7265" t="9659" r="8548" b="11575"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1160318" y="813954"/>
-          <a:ext cx="900000" cy="900000"/>
+          <a:off x="1635125" y="793750"/>
+          <a:ext cx="1876425" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
+      <xdr:colOff>272144</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="900000" cy="900000"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>134711</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6545FB-DB50-42CE-94A8-E068CC1A8B34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4039,34 +4035,29 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="7265" t="9659" r="8548" b="11575"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1163782" y="845127"/>
-          <a:ext cx="900000" cy="900000"/>
+          <a:off x="1074965" y="870857"/>
+          <a:ext cx="1876425" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4126,55 +4117,6 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="900000" cy="900000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1163782" y="845127"/>
-          <a:ext cx="900000" cy="900000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4207,7 +4149,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4245,10 +4187,59 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AF3212-486D-4C96-B049-27A600F5E269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7265" t="9659" r="8548" b="11575"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="793750" y="650875"/>
+          <a:ext cx="1876425" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4256,55 +4247,6 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="900000" cy="900000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1163782" y="845127"/>
-          <a:ext cx="900000" cy="900000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4332,7 +4274,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect b="4789"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -4383,7 +4325,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4433,7 +4375,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4483,7 +4425,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4498,6 +4440,55 @@
         <a:xfrm>
           <a:off x="342900" y="33394650"/>
           <a:ext cx="4857750" cy="6477512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>271463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBEDA74-E573-45D6-BD13-0F45DE4C617D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7265" t="9659" r="8548" b="11575"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="785813"/>
+          <a:ext cx="1876425" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4832,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:IV87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4858,55 +4849,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
+      <c r="C7" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
+      <c r="C8" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
     </row>
     <row r="10" spans="1:11" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -4917,100 +4908,100 @@
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
+      <c r="C16" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="162" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
+        <v>3</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="162" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="163" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="D20" s="89"/>
+      <c r="E20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="F20" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="83"/>
+      <c r="B21" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="105"/>
       <c r="E21" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
       <c r="E22" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
     <row r="24" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="B24" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2"/>
       <c r="F24" s="2"/>
       <c r="P24" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
@@ -5019,112 +5010,112 @@
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="B26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="E26" s="98"/>
+      <c r="F26" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D26" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="86"/>
-      <c r="F26" s="16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="B27" s="17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="87"/>
+        <v>18</v>
+      </c>
+      <c r="D27" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="99"/>
       <c r="F27" s="19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="25.5" customHeight="1" thickTop="1">
       <c r="B28" s="17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="87"/>
+        <v>45</v>
+      </c>
+      <c r="D28" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="99"/>
       <c r="F28" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="27.75" customHeight="1">
       <c r="B29" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="88"/>
+        <v>118</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="100"/>
       <c r="F29" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="31.5" customHeight="1">
       <c r="B30" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="88"/>
+        <v>127</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="100"/>
       <c r="F30" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -5133,57 +5124,57 @@
     </row>
     <row r="37" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="B37" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
+      <c r="B39" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
       <c r="J41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
     </row>
     <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A45" s="25"/>
@@ -5499,18 +5490,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="D26:E26"/>
@@ -5525,11 +5509,18 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -5542,8 +5533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:IS35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -5564,56 +5555,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:253" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="1:253" s="44" customFormat="1" ht="20.25">
-      <c r="A4" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
+      <c r="A4" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="1:253" s="44" customFormat="1" ht="20.25">
-      <c r="A5" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
+      <c r="A5" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="1:253" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:253" ht="15" thickTop="1"/>
     <row r="8" spans="1:253" ht="15" thickBot="1">
@@ -5628,108 +5619,108 @@
     </row>
     <row r="9" spans="1:253" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="B9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="F9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="G9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="H9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="I9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="41" t="s">
+    </row>
+    <row r="10" spans="1:253" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B10" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="109">
+        <v>44967</v>
+      </c>
+      <c r="G10" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="1:253" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B11" s="108"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:253" customFormat="1" ht="36.75" customHeight="1">
+      <c r="B12" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="D12" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="109">
+        <v>44974</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:253" customFormat="1" ht="39" customHeight="1">
+      <c r="B13" s="108"/>
+      <c r="C13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:253" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B10" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="103">
-        <v>44967</v>
-      </c>
-      <c r="G10" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="109" t="s">
+      <c r="D13" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:253" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B11" s="102"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:253" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B12" s="101" t="s">
+      <c r="E13" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="103">
-        <v>44974</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="1:253" customFormat="1" ht="39" customHeight="1">
-      <c r="B13" s="102"/>
-      <c r="C13" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="104"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="53" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:253" customFormat="1" ht="3" customHeight="1">
@@ -5908,8 +5899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:K45"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -5947,52 +5938,52 @@
     <row r="5" spans="1:12">
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="58"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
       <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="30">
-      <c r="A7" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="121"/>
+      <c r="A7" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:12" ht="30">
-      <c r="A8" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="121"/>
+      <c r="A8" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="127"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="60"/>
@@ -6008,742 +5999,742 @@
       <c r="K9" s="62"/>
     </row>
     <row r="10" spans="1:12" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
+      <c r="A11" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="118"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="115"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="115"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="121"/>
       <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="115"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121"/>
       <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="115"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="121"/>
       <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="115"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="121"/>
       <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="113"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="121"/>
       <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="115"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="121"/>
       <c r="L20" s="34"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="115"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="121"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="115"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="121"/>
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="115"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="121"/>
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="113"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="121"/>
       <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="113"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="115"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
       <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="113"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="115"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="121"/>
       <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="115"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="121"/>
       <c r="L27" s="34"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="113"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="115"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="121"/>
       <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="113"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="115"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="121"/>
       <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="113"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="115"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="121"/>
       <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="118"/>
+      <c r="A31" s="122"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="124"/>
       <c r="L31" s="34"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1">
-      <c r="A32" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="112"/>
+      <c r="A32" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="118"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="115"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="121"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="115"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="121"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="113"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="115"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="121"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="113"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="115"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="121"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="113"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="115"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="121"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="113"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="115"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="121"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="113"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="115"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
+      <c r="K39" s="121"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="113"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="115"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="121"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="113"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="115"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="121"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="113"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="115"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="121"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="113"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="115"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="121"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="113"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="115"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="121"/>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="116"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="118"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="124"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="112"/>
+      <c r="A46" s="116" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="118"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="113"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="115"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="121"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="113"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="115"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="121"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="113"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="115"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="121"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="113"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="115"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="121"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="113"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="115"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="120"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="121"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="113"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="115"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="120"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="121"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="113"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="115"/>
+      <c r="A53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="121"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="113"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="115"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="121"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="113"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="115"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="121"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="113"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="115"/>
+      <c r="A56" s="119"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="121"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="113"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="114"/>
-      <c r="K57" s="115"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="121"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="113"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="115"/>
+      <c r="A58" s="119"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="121"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="113"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="115"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="121"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="113"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114"/>
-      <c r="K60" s="115"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="121"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="113"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="115"/>
+      <c r="A61" s="119"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="121"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="113"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="115"/>
+      <c r="A62" s="119"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="121"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="113"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="114"/>
-      <c r="K63" s="115"/>
+      <c r="A63" s="119"/>
+      <c r="B63" s="120"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="120"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="120"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="120"/>
+      <c r="J63" s="120"/>
+      <c r="K63" s="121"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1">
-      <c r="A64" s="116"/>
-      <c r="B64" s="117"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="118"/>
+      <c r="A64" s="122"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="123"/>
+      <c r="H64" s="123"/>
+      <c r="I64" s="123"/>
+      <c r="J64" s="123"/>
+      <c r="K64" s="124"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="39"/>
@@ -6781,8 +6772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:IW50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -6822,12 +6813,12 @@
     <row r="5" spans="1:257">
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="57"/>
@@ -6835,42 +6826,42 @@
     </row>
     <row r="6" spans="1:257">
       <c r="A6" s="58"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
       <c r="K6" s="59"/>
       <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="121"/>
+      <c r="A7" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="127"/>
       <c r="L7" s="34"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="121"/>
+      <c r="A8" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="127"/>
       <c r="L8" s="34"/>
     </row>
     <row r="9" spans="1:257" ht="15" thickBot="1">
@@ -6888,80 +6879,80 @@
       <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:257" ht="15.75" customHeight="1">
-      <c r="A11" s="123" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="132" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="132" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="134"/>
+      <c r="A11" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="139"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="140"/>
       <c r="L11" s="34"/>
     </row>
     <row r="12" spans="1:257">
-      <c r="A12" s="126"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="137"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
       <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:257" ht="15" thickBot="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="140"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="146"/>
       <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:257" ht="15" customHeight="1">
       <c r="A14" s="63" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="65"/>
       <c r="E14" s="66" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="65"/>
       <c r="H14" s="55" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
@@ -6970,18 +6961,18 @@
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="63" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="24"/>
       <c r="D15" s="64"/>
       <c r="E15" s="67" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="64"/>
       <c r="H15" s="58" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K15" s="69"/>
       <c r="L15" s="68"/>
@@ -6989,13 +6980,13 @@
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="63" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="64"/>
       <c r="E16" s="67" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="64"/>
@@ -7006,13 +6997,13 @@
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="63" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="24"/>
       <c r="D17" s="64"/>
       <c r="E17" s="58" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G17" s="64"/>
       <c r="H17" s="58"/>
@@ -7022,13 +7013,13 @@
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="63" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="64"/>
       <c r="E18" s="58" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="58"/>
@@ -7038,13 +7029,13 @@
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="63" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="24"/>
       <c r="D19" s="64"/>
       <c r="E19" s="58" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G19" s="59"/>
       <c r="H19" s="58"/>
@@ -7054,13 +7045,13 @@
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="63" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="64"/>
       <c r="E20" s="58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="58"/>
@@ -7070,13 +7061,13 @@
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="63" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="24"/>
       <c r="D21" s="64"/>
       <c r="E21" s="58" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="58"/>
@@ -7086,13 +7077,13 @@
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="63" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="64"/>
       <c r="E22" s="58" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="58"/>
@@ -7102,13 +7093,13 @@
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="63" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="24"/>
       <c r="D23" s="64"/>
       <c r="E23" s="58" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="58"/>
@@ -7118,13 +7109,13 @@
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="63" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="64"/>
       <c r="E24" s="58" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G24" s="59"/>
       <c r="H24" s="58"/>
@@ -7134,7 +7125,7 @@
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="63" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="24"/>
@@ -7148,7 +7139,7 @@
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="63" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -7162,7 +7153,7 @@
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="63" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="24"/>
@@ -7176,7 +7167,7 @@
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -7190,7 +7181,7 @@
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="24"/>
@@ -7204,7 +7195,7 @@
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -7218,7 +7209,7 @@
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A31" s="63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="24"/>
@@ -7232,7 +7223,7 @@
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A32" s="63" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -7247,7 +7238,7 @@
     </row>
     <row r="33" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="63" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="24"/>
@@ -7262,7 +7253,7 @@
     </row>
     <row r="34" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="63" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -7276,7 +7267,7 @@
     </row>
     <row r="35" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="63" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="24"/>
@@ -7290,7 +7281,7 @@
     </row>
     <row r="36" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="63" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -7304,7 +7295,7 @@
     </row>
     <row r="37" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="24"/>
@@ -7318,7 +7309,7 @@
     </row>
     <row r="38" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="63" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -7332,7 +7323,7 @@
     </row>
     <row r="39" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="24"/>
@@ -7346,7 +7337,7 @@
     </row>
     <row r="40" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="24"/>
@@ -7360,7 +7351,7 @@
     </row>
     <row r="41" spans="1:257" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="63" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="64"/>
@@ -7373,7 +7364,7 @@
     </row>
     <row r="42" spans="1:257" ht="15" customHeight="1">
       <c r="A42" s="63" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="58"/>
@@ -7384,7 +7375,7 @@
     </row>
     <row r="43" spans="1:257" ht="15" customHeight="1">
       <c r="A43" s="63" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="58"/>
@@ -7395,7 +7386,7 @@
     </row>
     <row r="44" spans="1:257" ht="15" customHeight="1">
       <c r="A44" s="63" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="58"/>
@@ -7406,7 +7397,7 @@
     </row>
     <row r="45" spans="1:257" ht="15" customHeight="1">
       <c r="A45" s="63" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D45" s="59"/>
       <c r="E45" s="58"/>
@@ -7417,7 +7408,7 @@
     </row>
     <row r="46" spans="1:257" ht="15" customHeight="1">
       <c r="A46" s="63" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="58"/>
@@ -7428,7 +7419,7 @@
     </row>
     <row r="47" spans="1:257" ht="15" customHeight="1">
       <c r="A47" s="63" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D47" s="59"/>
       <c r="E47" s="58"/>
@@ -7439,7 +7430,7 @@
     </row>
     <row r="48" spans="1:257" ht="15" customHeight="1">
       <c r="A48" s="63" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D48" s="59"/>
       <c r="E48" s="58"/>
@@ -7551,12 +7542,12 @@
     <row r="5" spans="1:257">
       <c r="A5" s="74"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -7566,9 +7557,9 @@
     <row r="6" spans="1:257">
       <c r="A6" s="74"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7579,36 +7570,36 @@
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="75"/>
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:257" ht="30.75" thickBot="1">
-      <c r="A8" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
+      <c r="A8" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
       <c r="L8" s="76"/>
       <c r="M8" s="34"/>
     </row>
@@ -7628,17 +7619,17 @@
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="141"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
@@ -7743,8 +7734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -7806,54 +7797,54 @@
     </row>
     <row r="5" spans="1:257">
       <c r="A5" s="58"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
       <c r="L5" s="59"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:257">
       <c r="A6" s="58"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
       <c r="L6" s="59"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
+      <c r="A7" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="59"/>
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
+      <c r="A8" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93"/>
       <c r="L8" s="59"/>
       <c r="M8" s="34"/>
     </row>
@@ -7873,17 +7864,17 @@
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="147"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
       <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1">
@@ -8191,13 +8182,13 @@
     <row r="46" spans="1:257" ht="409.6" customHeight="1"/>
     <row r="47" spans="1:257" ht="25.5">
       <c r="B47" s="24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C47" s="24">
         <v>1</v>
       </c>
       <c r="E47" s="80" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F47" s="70">
         <v>0.4</v>
@@ -8205,7 +8196,7 @@
     </row>
     <row r="48" spans="1:257" ht="25.5">
       <c r="E48" s="80" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F48" s="70">
         <v>0.4</v>
@@ -8213,7 +8204,7 @@
     </row>
     <row r="49" spans="5:6" ht="25.5">
       <c r="E49" s="80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F49" s="70">
         <v>0.9</v>
@@ -8221,7 +8212,7 @@
     </row>
     <row r="50" spans="5:6" ht="25.5">
       <c r="E50" s="80" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F50" s="70">
         <v>0.2</v>
@@ -8247,8 +8238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IV226"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView showGridLines="0" topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -8290,56 +8281,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
+      <c r="A7" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="93"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
+      <c r="A8" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -8350,638 +8341,638 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
     </row>
     <row r="11" spans="1:256" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A11" s="155" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="156"/>
+      <c r="A11" s="156" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="157"/>
       <c r="IT11" s="1"/>
       <c r="IU11" s="1"/>
       <c r="IV11" s="1"/>
     </row>
     <row r="12" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A12" s="153"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="149"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="158"/>
     </row>
     <row r="13" spans="1:256" ht="15" customHeight="1">
-      <c r="A13" s="153"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="149"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="158"/>
     </row>
     <row r="14" spans="1:256" ht="15" customHeight="1">
-      <c r="A14" s="153"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="149"/>
+      <c r="A14" s="155"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="158"/>
     </row>
     <row r="15" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="153"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="149"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="158"/>
       <c r="IT15" s="2"/>
     </row>
     <row r="16" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="153"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="149"/>
+      <c r="A16" s="155"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="158"/>
       <c r="IT16" s="2"/>
     </row>
     <row r="17" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="153"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="149"/>
+      <c r="A17" s="155"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="158"/>
       <c r="IT17" s="2"/>
     </row>
     <row r="18" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="153"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="149"/>
+      <c r="A18" s="155"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="158"/>
       <c r="IT18" s="2"/>
     </row>
     <row r="19" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="153"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="149"/>
+      <c r="A19" s="155"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="158"/>
       <c r="IT19" s="2"/>
     </row>
     <row r="20" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="153"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="149"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="158"/>
       <c r="IT20" s="2"/>
     </row>
     <row r="21" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="153"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="149"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="158"/>
       <c r="IT21" s="2"/>
     </row>
     <row r="22" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="153"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="149"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="158"/>
       <c r="IT22" s="2"/>
     </row>
     <row r="23" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A23" s="153"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="149"/>
+      <c r="A23" s="155"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="158"/>
       <c r="IT23" s="2"/>
     </row>
     <row r="24" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A24" s="153"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="149"/>
+      <c r="A24" s="155"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="158"/>
       <c r="IT24" s="2"/>
     </row>
     <row r="25" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A25" s="153"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="149"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="158"/>
       <c r="IT25" s="2"/>
     </row>
     <row r="26" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="153"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="149"/>
+      <c r="A26" s="155"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="158"/>
       <c r="IT26" s="2"/>
     </row>
     <row r="27" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="153"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="149"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="158"/>
       <c r="IT27" s="2"/>
     </row>
     <row r="28" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="153"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="149"/>
+      <c r="A28" s="155"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="158"/>
       <c r="IT28" s="2"/>
     </row>
     <row r="29" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="153"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="149"/>
+      <c r="A29" s="155"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="158"/>
       <c r="IT29" s="2"/>
     </row>
     <row r="30" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="153"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="149"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="158"/>
       <c r="IT30" s="2"/>
     </row>
     <row r="31" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A31" s="153"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="149"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="158"/>
       <c r="IT31" s="2"/>
     </row>
     <row r="32" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A32" s="153"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="149"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="158"/>
       <c r="IT32" s="2"/>
     </row>
     <row r="33" spans="1:254" s="1" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A33" s="153"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="149"/>
+      <c r="A33" s="155"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="158"/>
       <c r="IT33" s="2"/>
     </row>
     <row r="34" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="153"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="149"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="158"/>
       <c r="IT34" s="2"/>
     </row>
     <row r="35" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A35" s="153"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="149"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="158"/>
       <c r="IT35" s="2"/>
     </row>
     <row r="36" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A36" s="153"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="149"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="158"/>
       <c r="IT36" s="2"/>
     </row>
     <row r="37" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A37" s="153"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="149"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="158"/>
       <c r="IT37" s="2"/>
     </row>
     <row r="38" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A38" s="153"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="149"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="158"/>
       <c r="IT38" s="2"/>
     </row>
     <row r="39" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A39" s="153"/>
-      <c r="B39" s="153"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="149"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="158"/>
       <c r="IT39" s="2"/>
     </row>
     <row r="40" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A40" s="153"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="149"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="158"/>
       <c r="IT40" s="2"/>
     </row>
     <row r="41" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A41" s="153"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="149"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="158"/>
       <c r="IT41" s="2"/>
     </row>
     <row r="42" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A42" s="153"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="149"/>
+      <c r="A42" s="155"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="158"/>
       <c r="IT42" s="2"/>
     </row>
     <row r="43" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="153"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="149"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="158"/>
       <c r="IT43" s="2"/>
     </row>
     <row r="44" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="153"/>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="149"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="158"/>
       <c r="IT44" s="2"/>
     </row>
     <row r="45" spans="1:254" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A45" s="153"/>
-      <c r="B45" s="153"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="149"/>
+      <c r="A45" s="155"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="155"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="158"/>
       <c r="IT45" s="2"/>
     </row>
     <row r="46" spans="1:254" s="1" customFormat="1" ht="297" customHeight="1">
-      <c r="A46" s="153"/>
-      <c r="B46" s="153"/>
-      <c r="C46" s="153"/>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="153"/>
-      <c r="K46" s="149"/>
+      <c r="A46" s="155"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="158"/>
       <c r="IT46" s="2"/>
     </row>
     <row r="47" spans="1:254" s="1" customFormat="1" ht="237.75" customHeight="1">
-      <c r="A47" s="153"/>
-      <c r="B47" s="153"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="149"/>
+      <c r="A47" s="155"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="158"/>
       <c r="IT47" s="2"/>
     </row>
     <row r="48" spans="1:254" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A48" s="153"/>
-      <c r="B48" s="153"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="153"/>
-      <c r="E48" s="153"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="149"/>
+      <c r="A48" s="155"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="158"/>
       <c r="IT48" s="2"/>
     </row>
     <row r="49" spans="1:254" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A49" s="153"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="149"/>
+      <c r="A49" s="155"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="158"/>
       <c r="IT49" s="2"/>
     </row>
     <row r="50" spans="1:254" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
-      <c r="A50" s="153"/>
-      <c r="B50" s="153"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="153"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="149"/>
+      <c r="A50" s="155"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="158"/>
       <c r="IT50" s="2"/>
     </row>
     <row r="51" spans="1:254" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
-      <c r="A51" s="153"/>
-      <c r="B51" s="153"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="149"/>
+      <c r="A51" s="155"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="158"/>
       <c r="IT51" s="2"/>
     </row>
     <row r="52" spans="1:254" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
-      <c r="A52" s="153"/>
-      <c r="B52" s="153"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="149"/>
+      <c r="A52" s="155"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="158"/>
       <c r="IT52" s="2"/>
     </row>
     <row r="53" spans="1:254" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
-      <c r="A53" s="153"/>
-      <c r="B53" s="153"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="153"/>
-      <c r="F53" s="153"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="149"/>
+      <c r="A53" s="155"/>
+      <c r="B53" s="155"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="158"/>
       <c r="IT53" s="2"/>
     </row>
     <row r="54" spans="1:254" s="1" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A54" s="153"/>
-      <c r="B54" s="153"/>
-      <c r="C54" s="153"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="153"/>
-      <c r="F54" s="153"/>
-      <c r="G54" s="153"/>
-      <c r="H54" s="153"/>
-      <c r="I54" s="153"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="149"/>
+      <c r="A54" s="155"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="158"/>
       <c r="IT54" s="2"/>
     </row>
     <row r="55" spans="1:254" s="1" customFormat="1" ht="96.75" customHeight="1">
       <c r="A55" s="159" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B55" s="160"/>
       <c r="C55" s="160"/>
@@ -8996,2247 +8987,2250 @@
       <c r="IT55" s="2"/>
     </row>
     <row r="56" spans="1:254" ht="119.25" customHeight="1">
-      <c r="A56" s="154"/>
-      <c r="B56" s="154"/>
-      <c r="C56" s="154"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="154"/>
-      <c r="F56" s="154"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="154"/>
-      <c r="K56" s="150"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="82"/>
     </row>
     <row r="57" spans="1:254" ht="72.75" customHeight="1">
-      <c r="A57" s="154"/>
-      <c r="B57" s="154"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="154"/>
-      <c r="G57" s="154"/>
-      <c r="H57" s="154"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="154"/>
-      <c r="K57" s="150"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="82"/>
     </row>
     <row r="58" spans="1:254" ht="168.75" customHeight="1">
-      <c r="A58" s="154"/>
-      <c r="B58" s="154"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="150"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="82"/>
     </row>
     <row r="59" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A59" s="154"/>
-      <c r="B59" s="154"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="154"/>
-      <c r="I59" s="154"/>
-      <c r="J59" s="154"/>
-      <c r="K59" s="150"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="82"/>
     </row>
     <row r="60" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A60" s="154"/>
-      <c r="B60" s="154"/>
-      <c r="C60" s="154"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="154"/>
-      <c r="G60" s="154"/>
-      <c r="H60" s="154"/>
-      <c r="I60" s="154"/>
-      <c r="J60" s="154"/>
-      <c r="K60" s="150"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="82"/>
     </row>
     <row r="61" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A61" s="157" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" s="157"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="158"/>
+      <c r="A61" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="162"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="162"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="162"/>
+      <c r="G61" s="162"/>
+      <c r="H61" s="162"/>
+      <c r="I61" s="162"/>
+      <c r="J61" s="162"/>
+      <c r="K61" s="163"/>
     </row>
     <row r="62" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A62" s="154"/>
-      <c r="B62" s="154"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="154"/>
-      <c r="F62" s="154"/>
-      <c r="G62" s="154"/>
-      <c r="H62" s="154"/>
-      <c r="I62" s="154"/>
-      <c r="J62" s="154"/>
-      <c r="K62" s="150"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="85"/>
+      <c r="K62" s="82"/>
     </row>
     <row r="63" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A63" s="154"/>
-      <c r="B63" s="154"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="154"/>
-      <c r="E63" s="154"/>
-      <c r="F63" s="154"/>
-      <c r="G63" s="154"/>
-      <c r="H63" s="154"/>
-      <c r="I63" s="154"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="150"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="82"/>
     </row>
     <row r="64" spans="1:254" ht="14.25" customHeight="1">
-      <c r="A64" s="154"/>
-      <c r="B64" s="154"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="154"/>
-      <c r="H64" s="154"/>
-      <c r="I64" s="154"/>
-      <c r="J64" s="154"/>
-      <c r="K64" s="150"/>
+      <c r="A64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="82"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A65" s="154"/>
-      <c r="B65" s="154"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="154"/>
-      <c r="F65" s="154"/>
-      <c r="G65" s="154"/>
-      <c r="H65" s="154"/>
-      <c r="I65" s="154"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="150"/>
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="82"/>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A66" s="154"/>
-      <c r="B66" s="154"/>
-      <c r="C66" s="154"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="154"/>
-      <c r="I66" s="154"/>
-      <c r="J66" s="154"/>
-      <c r="K66" s="150"/>
+      <c r="A66" s="85"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="85"/>
+      <c r="K66" s="82"/>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A67" s="154"/>
-      <c r="B67" s="154"/>
-      <c r="C67" s="154"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="154"/>
-      <c r="F67" s="154"/>
-      <c r="G67" s="154"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="154"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="150"/>
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="85"/>
+      <c r="K67" s="82"/>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A68" s="154"/>
-      <c r="B68" s="154"/>
-      <c r="C68" s="154"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="154"/>
-      <c r="I68" s="154"/>
-      <c r="J68" s="154"/>
-      <c r="K68" s="150"/>
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="85"/>
+      <c r="I68" s="85"/>
+      <c r="J68" s="85"/>
+      <c r="K68" s="82"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A69" s="154"/>
-      <c r="B69" s="154"/>
-      <c r="C69" s="154"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="154"/>
-      <c r="F69" s="154"/>
-      <c r="G69" s="154"/>
-      <c r="H69" s="154"/>
-      <c r="I69" s="154"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="150"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="85"/>
+      <c r="K69" s="82"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A70" s="154"/>
-      <c r="B70" s="154"/>
-      <c r="C70" s="154"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="154"/>
-      <c r="F70" s="154"/>
-      <c r="G70" s="154"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="154"/>
-      <c r="J70" s="154"/>
-      <c r="K70" s="150"/>
+      <c r="A70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="85"/>
+      <c r="K70" s="82"/>
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A71" s="154"/>
-      <c r="B71" s="154"/>
-      <c r="C71" s="154"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
-      <c r="G71" s="154"/>
-      <c r="H71" s="154"/>
-      <c r="I71" s="154"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="150"/>
+      <c r="A71" s="85"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="82"/>
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A72" s="154"/>
-      <c r="B72" s="154"/>
-      <c r="C72" s="154"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="154"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="154"/>
-      <c r="I72" s="154"/>
-      <c r="J72" s="154"/>
-      <c r="K72" s="150"/>
+      <c r="A72" s="85"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="82"/>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A73" s="154"/>
-      <c r="B73" s="154"/>
-      <c r="C73" s="154"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="154"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="154"/>
-      <c r="H73" s="154"/>
-      <c r="I73" s="154"/>
-      <c r="J73" s="154"/>
-      <c r="K73" s="150"/>
+      <c r="A73" s="85"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="82"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A74" s="154"/>
-      <c r="B74" s="154"/>
-      <c r="C74" s="154"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="154"/>
-      <c r="F74" s="154"/>
-      <c r="G74" s="154"/>
-      <c r="H74" s="154"/>
-      <c r="I74" s="154"/>
-      <c r="J74" s="154"/>
-      <c r="K74" s="150"/>
+      <c r="A74" s="85"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="82"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A75" s="154"/>
-      <c r="B75" s="154"/>
-      <c r="C75" s="154"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="154"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="154"/>
-      <c r="H75" s="154"/>
-      <c r="I75" s="154"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="150"/>
+      <c r="A75" s="85"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="85"/>
+      <c r="J75" s="85"/>
+      <c r="K75" s="82"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A76" s="154"/>
-      <c r="B76" s="154"/>
-      <c r="C76" s="154"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="154"/>
-      <c r="F76" s="154"/>
-      <c r="G76" s="154"/>
-      <c r="H76" s="154"/>
-      <c r="I76" s="154"/>
-      <c r="J76" s="154"/>
-      <c r="K76" s="150"/>
+      <c r="A76" s="85"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="85"/>
+      <c r="J76" s="85"/>
+      <c r="K76" s="82"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A77" s="154"/>
-      <c r="B77" s="154"/>
-      <c r="C77" s="154"/>
-      <c r="D77" s="154"/>
-      <c r="E77" s="154"/>
-      <c r="F77" s="154"/>
-      <c r="G77" s="154"/>
-      <c r="H77" s="154"/>
-      <c r="I77" s="154"/>
-      <c r="J77" s="154"/>
-      <c r="K77" s="150"/>
+      <c r="A77" s="85"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="85"/>
+      <c r="K77" s="82"/>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1">
-      <c r="A78" s="154"/>
-      <c r="B78" s="154"/>
-      <c r="C78" s="154"/>
-      <c r="D78" s="154"/>
-      <c r="E78" s="154"/>
-      <c r="F78" s="154"/>
-      <c r="G78" s="154"/>
-      <c r="H78" s="154"/>
-      <c r="I78" s="154"/>
-      <c r="J78" s="154"/>
-      <c r="K78" s="150"/>
+      <c r="A78" s="85"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85"/>
+      <c r="K78" s="82"/>
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A79" s="154"/>
-      <c r="B79" s="154"/>
-      <c r="C79" s="154"/>
-      <c r="D79" s="154"/>
-      <c r="E79" s="154"/>
-      <c r="F79" s="154"/>
-      <c r="G79" s="154"/>
-      <c r="H79" s="154"/>
-      <c r="I79" s="154"/>
-      <c r="J79" s="154"/>
-      <c r="K79" s="150"/>
+      <c r="A79" s="85"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="82"/>
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A80" s="154"/>
-      <c r="B80" s="154"/>
-      <c r="C80" s="154"/>
-      <c r="D80" s="154"/>
-      <c r="E80" s="154"/>
-      <c r="F80" s="154"/>
-      <c r="G80" s="154"/>
-      <c r="H80" s="154"/>
-      <c r="I80" s="154"/>
-      <c r="J80" s="154"/>
-      <c r="K80" s="150"/>
+      <c r="A80" s="85"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="85"/>
+      <c r="J80" s="85"/>
+      <c r="K80" s="82"/>
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A81" s="154"/>
-      <c r="B81" s="154"/>
-      <c r="C81" s="154"/>
-      <c r="D81" s="154"/>
-      <c r="E81" s="154"/>
-      <c r="F81" s="154"/>
-      <c r="G81" s="154"/>
-      <c r="H81" s="154"/>
-      <c r="I81" s="154"/>
-      <c r="J81" s="154"/>
-      <c r="K81" s="150"/>
+      <c r="A81" s="85"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="82"/>
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A82" s="154"/>
-      <c r="B82" s="154"/>
-      <c r="C82" s="154"/>
-      <c r="D82" s="154"/>
-      <c r="E82" s="154"/>
-      <c r="F82" s="154"/>
-      <c r="G82" s="154"/>
-      <c r="H82" s="154"/>
-      <c r="I82" s="154"/>
-      <c r="J82" s="154"/>
-      <c r="K82" s="150"/>
+      <c r="A82" s="85"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="82"/>
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A83" s="154"/>
-      <c r="B83" s="154"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="154"/>
-      <c r="I83" s="154"/>
-      <c r="J83" s="154"/>
-      <c r="K83" s="150"/>
+      <c r="A83" s="85"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="82"/>
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A84" s="154"/>
-      <c r="B84" s="154"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="154"/>
-      <c r="F84" s="154"/>
-      <c r="G84" s="154"/>
-      <c r="H84" s="154"/>
-      <c r="I84" s="154"/>
-      <c r="J84" s="154"/>
-      <c r="K84" s="150"/>
+      <c r="A84" s="85"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="82"/>
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A85" s="154"/>
-      <c r="B85" s="154"/>
-      <c r="C85" s="154"/>
-      <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
-      <c r="F85" s="154"/>
-      <c r="G85" s="154"/>
-      <c r="H85" s="154"/>
-      <c r="I85" s="154"/>
-      <c r="J85" s="154"/>
-      <c r="K85" s="150"/>
+      <c r="A85" s="85"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="85"/>
+      <c r="J85" s="85"/>
+      <c r="K85" s="82"/>
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A86" s="154"/>
-      <c r="B86" s="154"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="154"/>
-      <c r="G86" s="154"/>
-      <c r="H86" s="154"/>
-      <c r="I86" s="154"/>
-      <c r="J86" s="154"/>
-      <c r="K86" s="150"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="82"/>
     </row>
     <row r="87" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A87" s="154"/>
-      <c r="B87" s="154"/>
-      <c r="C87" s="154"/>
-      <c r="D87" s="154"/>
-      <c r="E87" s="154"/>
-      <c r="F87" s="154"/>
-      <c r="G87" s="154"/>
-      <c r="H87" s="154"/>
-      <c r="I87" s="154"/>
-      <c r="J87" s="154"/>
-      <c r="K87" s="150"/>
+      <c r="A87" s="85"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="82"/>
     </row>
     <row r="88" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A88" s="154"/>
-      <c r="B88" s="154"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="154"/>
-      <c r="F88" s="154"/>
-      <c r="G88" s="154"/>
-      <c r="H88" s="154"/>
-      <c r="I88" s="154"/>
-      <c r="J88" s="154"/>
-      <c r="K88" s="150"/>
+      <c r="A88" s="85"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="82"/>
     </row>
     <row r="89" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A89" s="154"/>
-      <c r="B89" s="154"/>
-      <c r="C89" s="154"/>
-      <c r="D89" s="154"/>
-      <c r="E89" s="154"/>
-      <c r="F89" s="154"/>
-      <c r="G89" s="154"/>
-      <c r="H89" s="154"/>
-      <c r="I89" s="154"/>
-      <c r="J89" s="154"/>
-      <c r="K89" s="150"/>
+      <c r="A89" s="85"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="82"/>
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A90" s="154"/>
-      <c r="B90" s="154"/>
-      <c r="C90" s="154"/>
-      <c r="D90" s="154"/>
-      <c r="E90" s="154"/>
-      <c r="F90" s="154"/>
-      <c r="G90" s="154"/>
-      <c r="H90" s="154"/>
-      <c r="I90" s="154"/>
-      <c r="J90" s="154"/>
-      <c r="K90" s="150"/>
+      <c r="A90" s="85"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="82"/>
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A91" s="154"/>
-      <c r="B91" s="154"/>
-      <c r="C91" s="154"/>
-      <c r="D91" s="154"/>
-      <c r="E91" s="154"/>
-      <c r="F91" s="154"/>
-      <c r="G91" s="154"/>
-      <c r="H91" s="154"/>
-      <c r="I91" s="154"/>
-      <c r="J91" s="154"/>
-      <c r="K91" s="150"/>
+      <c r="A91" s="85"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="85"/>
+      <c r="I91" s="85"/>
+      <c r="J91" s="85"/>
+      <c r="K91" s="82"/>
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A92" s="154"/>
-      <c r="B92" s="154"/>
-      <c r="C92" s="154"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="154"/>
-      <c r="F92" s="154"/>
-      <c r="G92" s="154"/>
-      <c r="H92" s="154"/>
-      <c r="I92" s="154"/>
-      <c r="J92" s="154"/>
-      <c r="K92" s="150"/>
+      <c r="A92" s="85"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="82"/>
     </row>
     <row r="93" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A93" s="154"/>
-      <c r="B93" s="154"/>
-      <c r="C93" s="154"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="154"/>
-      <c r="H93" s="154"/>
-      <c r="I93" s="154"/>
-      <c r="J93" s="154"/>
-      <c r="K93" s="150"/>
+      <c r="A93" s="85"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="82"/>
     </row>
     <row r="94" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A94" s="154"/>
-      <c r="B94" s="154"/>
-      <c r="C94" s="154"/>
-      <c r="D94" s="154"/>
-      <c r="E94" s="154"/>
-      <c r="F94" s="154"/>
-      <c r="G94" s="154"/>
-      <c r="H94" s="154"/>
-      <c r="I94" s="154"/>
-      <c r="J94" s="154"/>
-      <c r="K94" s="150"/>
+      <c r="A94" s="85"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="82"/>
     </row>
     <row r="95" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A95" s="154"/>
-      <c r="B95" s="154"/>
-      <c r="C95" s="154"/>
-      <c r="D95" s="154"/>
-      <c r="E95" s="154"/>
-      <c r="F95" s="154"/>
-      <c r="G95" s="154"/>
-      <c r="H95" s="154"/>
-      <c r="I95" s="154"/>
-      <c r="J95" s="154"/>
-      <c r="K95" s="150"/>
+      <c r="A95" s="85"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="85"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="85"/>
+      <c r="I95" s="85"/>
+      <c r="J95" s="85"/>
+      <c r="K95" s="82"/>
     </row>
     <row r="96" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A96" s="157" t="s">
+      <c r="A96" s="162" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="162"/>
+      <c r="C96" s="162"/>
+      <c r="D96" s="162"/>
+      <c r="E96" s="162"/>
+      <c r="F96" s="162"/>
+      <c r="G96" s="162"/>
+      <c r="H96" s="162"/>
+      <c r="I96" s="162"/>
+      <c r="J96" s="162"/>
+      <c r="K96" s="163"/>
+    </row>
+    <row r="97" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A97" s="85"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="85"/>
+      <c r="I97" s="85"/>
+      <c r="J97" s="85"/>
+      <c r="K97" s="82"/>
+    </row>
+    <row r="98" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A98" s="85"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="85"/>
+      <c r="I98" s="85"/>
+      <c r="J98" s="85"/>
+      <c r="K98" s="82"/>
+    </row>
+    <row r="99" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A99" s="85"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="82"/>
+    </row>
+    <row r="100" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A100" s="85"/>
+      <c r="B100" s="85"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="82"/>
+    </row>
+    <row r="101" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A101" s="85"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="85"/>
+      <c r="I101" s="85"/>
+      <c r="J101" s="85"/>
+      <c r="K101" s="82"/>
+    </row>
+    <row r="102" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A102" s="85"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="85"/>
+      <c r="I102" s="85"/>
+      <c r="J102" s="85"/>
+      <c r="K102" s="82"/>
+    </row>
+    <row r="103" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A103" s="85"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="82"/>
+    </row>
+    <row r="104" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A104" s="85"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="85"/>
+      <c r="I104" s="85"/>
+      <c r="J104" s="85"/>
+      <c r="K104" s="82"/>
+    </row>
+    <row r="105" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A105" s="85"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="85"/>
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="82"/>
+    </row>
+    <row r="106" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A106" s="85"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="85"/>
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="K106" s="82"/>
+    </row>
+    <row r="107" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A107" s="85"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="85"/>
+      <c r="I107" s="85"/>
+      <c r="J107" s="85"/>
+      <c r="K107" s="82"/>
+    </row>
+    <row r="108" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A108" s="85"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="82"/>
+    </row>
+    <row r="109" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A109" s="85"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="85"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="85"/>
+      <c r="I109" s="85"/>
+      <c r="J109" s="85"/>
+      <c r="K109" s="82"/>
+    </row>
+    <row r="110" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A110" s="85"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="85"/>
+      <c r="I110" s="85"/>
+      <c r="J110" s="85"/>
+      <c r="K110" s="82"/>
+    </row>
+    <row r="111" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A111" s="85"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="85"/>
+      <c r="I111" s="85"/>
+      <c r="J111" s="85"/>
+      <c r="K111" s="82"/>
+    </row>
+    <row r="112" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A112" s="85"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="85"/>
+      <c r="G112" s="85"/>
+      <c r="H112" s="85"/>
+      <c r="I112" s="85"/>
+      <c r="J112" s="85"/>
+      <c r="K112" s="82"/>
+    </row>
+    <row r="113" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A113" s="85"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="85"/>
+      <c r="K113" s="82"/>
+    </row>
+    <row r="114" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A114" s="85"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="85"/>
+      <c r="H114" s="85"/>
+      <c r="I114" s="85"/>
+      <c r="J114" s="85"/>
+      <c r="K114" s="82"/>
+    </row>
+    <row r="115" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A115" s="85"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="82"/>
+    </row>
+    <row r="116" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A116" s="85"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="82"/>
+    </row>
+    <row r="117" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A117" s="85"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="82"/>
+    </row>
+    <row r="118" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A118" s="85"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="82"/>
+    </row>
+    <row r="119" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A119" s="85"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="85"/>
+      <c r="H119" s="85"/>
+      <c r="I119" s="85"/>
+      <c r="J119" s="85"/>
+      <c r="K119" s="82"/>
+    </row>
+    <row r="120" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A120" s="85"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="85"/>
+      <c r="H120" s="85"/>
+      <c r="I120" s="85"/>
+      <c r="J120" s="85"/>
+      <c r="K120" s="82"/>
+    </row>
+    <row r="121" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A121" s="85"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
+      <c r="K121" s="82"/>
+    </row>
+    <row r="122" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A122" s="85"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="85"/>
+      <c r="H122" s="85"/>
+      <c r="I122" s="85"/>
+      <c r="J122" s="85"/>
+      <c r="K122" s="82"/>
+    </row>
+    <row r="123" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A123" s="85"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
+      <c r="K123" s="82"/>
+    </row>
+    <row r="124" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A124" s="85"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="85"/>
+      <c r="H124" s="85"/>
+      <c r="I124" s="85"/>
+      <c r="J124" s="85"/>
+      <c r="K124" s="82"/>
+    </row>
+    <row r="125" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A125" s="85"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
+      <c r="K125" s="82"/>
+    </row>
+    <row r="126" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A126" s="85"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="85"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="85"/>
+      <c r="H126" s="85"/>
+      <c r="I126" s="85"/>
+      <c r="J126" s="85"/>
+      <c r="K126" s="82"/>
+    </row>
+    <row r="127" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A127" s="85"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="85"/>
+      <c r="I127" s="85"/>
+      <c r="J127" s="85"/>
+      <c r="K127" s="82"/>
+    </row>
+    <row r="128" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A128" s="85"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="85"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="85"/>
+      <c r="I128" s="85"/>
+      <c r="J128" s="85"/>
+      <c r="K128" s="82"/>
+    </row>
+    <row r="129" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A129" s="85"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="85"/>
+      <c r="I129" s="85"/>
+      <c r="J129" s="85"/>
+      <c r="K129" s="82"/>
+    </row>
+    <row r="130" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A130" s="85"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="85"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="85"/>
+      <c r="G130" s="85"/>
+      <c r="H130" s="85"/>
+      <c r="I130" s="85"/>
+      <c r="J130" s="85"/>
+      <c r="K130" s="82"/>
+    </row>
+    <row r="131" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A131" s="85"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="85"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="85"/>
+      <c r="H131" s="85"/>
+      <c r="I131" s="85"/>
+      <c r="J131" s="85"/>
+      <c r="K131" s="82"/>
+    </row>
+    <row r="132" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A132" s="155" t="s">
+        <v>120</v>
+      </c>
+      <c r="B132" s="155"/>
+      <c r="C132" s="155"/>
+      <c r="D132" s="155"/>
+      <c r="E132" s="155"/>
+      <c r="F132" s="155"/>
+      <c r="G132" s="155"/>
+      <c r="H132" s="155"/>
+      <c r="I132" s="155"/>
+      <c r="J132" s="155"/>
+      <c r="K132" s="158"/>
+    </row>
+    <row r="133" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A133" s="155"/>
+      <c r="B133" s="155"/>
+      <c r="C133" s="155"/>
+      <c r="D133" s="155"/>
+      <c r="E133" s="155"/>
+      <c r="F133" s="155"/>
+      <c r="G133" s="155"/>
+      <c r="H133" s="155"/>
+      <c r="I133" s="155"/>
+      <c r="J133" s="155"/>
+      <c r="K133" s="158"/>
+    </row>
+    <row r="134" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A134" s="155"/>
+      <c r="B134" s="155"/>
+      <c r="C134" s="155"/>
+      <c r="D134" s="155"/>
+      <c r="E134" s="155"/>
+      <c r="F134" s="155"/>
+      <c r="G134" s="155"/>
+      <c r="H134" s="155"/>
+      <c r="I134" s="155"/>
+      <c r="J134" s="155"/>
+      <c r="K134" s="158"/>
+    </row>
+    <row r="135" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A135" s="155"/>
+      <c r="B135" s="155"/>
+      <c r="C135" s="155"/>
+      <c r="D135" s="155"/>
+      <c r="E135" s="155"/>
+      <c r="F135" s="155"/>
+      <c r="G135" s="155"/>
+      <c r="H135" s="155"/>
+      <c r="I135" s="155"/>
+      <c r="J135" s="155"/>
+      <c r="K135" s="158"/>
+    </row>
+    <row r="136" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A136" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="B96" s="157"/>
-      <c r="C96" s="157"/>
-      <c r="D96" s="157"/>
-      <c r="E96" s="157"/>
-      <c r="F96" s="157"/>
-      <c r="G96" s="157"/>
-      <c r="H96" s="157"/>
-      <c r="I96" s="157"/>
-      <c r="J96" s="157"/>
-      <c r="K96" s="158"/>
-    </row>
-    <row r="97" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A97" s="154"/>
-      <c r="B97" s="154"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="154"/>
-      <c r="G97" s="154"/>
-      <c r="H97" s="154"/>
-      <c r="I97" s="154"/>
-      <c r="J97" s="154"/>
-      <c r="K97" s="150"/>
-    </row>
-    <row r="98" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A98" s="154"/>
-      <c r="B98" s="154"/>
-      <c r="C98" s="154"/>
-      <c r="D98" s="154"/>
-      <c r="E98" s="154"/>
-      <c r="F98" s="154"/>
-      <c r="G98" s="154"/>
-      <c r="H98" s="154"/>
-      <c r="I98" s="154"/>
-      <c r="J98" s="154"/>
-      <c r="K98" s="150"/>
-    </row>
-    <row r="99" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A99" s="154"/>
-      <c r="B99" s="154"/>
-      <c r="C99" s="154"/>
-      <c r="D99" s="154"/>
-      <c r="E99" s="154"/>
-      <c r="F99" s="154"/>
-      <c r="G99" s="154"/>
-      <c r="H99" s="154"/>
-      <c r="I99" s="154"/>
-      <c r="J99" s="154"/>
-      <c r="K99" s="150"/>
-    </row>
-    <row r="100" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A100" s="154"/>
-      <c r="B100" s="154"/>
-      <c r="C100" s="154"/>
-      <c r="D100" s="154"/>
-      <c r="E100" s="154"/>
-      <c r="F100" s="154"/>
-      <c r="G100" s="154"/>
-      <c r="H100" s="154"/>
-      <c r="I100" s="154"/>
-      <c r="J100" s="154"/>
-      <c r="K100" s="150"/>
-    </row>
-    <row r="101" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A101" s="154"/>
-      <c r="B101" s="154"/>
-      <c r="C101" s="154"/>
-      <c r="D101" s="154"/>
-      <c r="E101" s="154"/>
-      <c r="F101" s="154"/>
-      <c r="G101" s="154"/>
-      <c r="H101" s="154"/>
-      <c r="I101" s="154"/>
-      <c r="J101" s="154"/>
-      <c r="K101" s="150"/>
-    </row>
-    <row r="102" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A102" s="154"/>
-      <c r="B102" s="154"/>
-      <c r="C102" s="154"/>
-      <c r="D102" s="154"/>
-      <c r="E102" s="154"/>
-      <c r="F102" s="154"/>
-      <c r="G102" s="154"/>
-      <c r="H102" s="154"/>
-      <c r="I102" s="154"/>
-      <c r="J102" s="154"/>
-      <c r="K102" s="150"/>
-    </row>
-    <row r="103" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A103" s="154"/>
-      <c r="B103" s="154"/>
-      <c r="C103" s="154"/>
-      <c r="D103" s="154"/>
-      <c r="E103" s="154"/>
-      <c r="F103" s="154"/>
-      <c r="G103" s="154"/>
-      <c r="H103" s="154"/>
-      <c r="I103" s="154"/>
-      <c r="J103" s="154"/>
-      <c r="K103" s="150"/>
-    </row>
-    <row r="104" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A104" s="154"/>
-      <c r="B104" s="154"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="154"/>
-      <c r="I104" s="154"/>
-      <c r="J104" s="154"/>
-      <c r="K104" s="150"/>
-    </row>
-    <row r="105" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A105" s="154"/>
-      <c r="B105" s="154"/>
-      <c r="C105" s="154"/>
-      <c r="D105" s="154"/>
-      <c r="E105" s="154"/>
-      <c r="F105" s="154"/>
-      <c r="G105" s="154"/>
-      <c r="H105" s="154"/>
-      <c r="I105" s="154"/>
-      <c r="J105" s="154"/>
-      <c r="K105" s="150"/>
-    </row>
-    <row r="106" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A106" s="154"/>
-      <c r="B106" s="154"/>
-      <c r="C106" s="154"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="154"/>
-      <c r="F106" s="154"/>
-      <c r="G106" s="154"/>
-      <c r="H106" s="154"/>
-      <c r="I106" s="154"/>
-      <c r="J106" s="154"/>
-      <c r="K106" s="150"/>
-    </row>
-    <row r="107" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A107" s="154"/>
-      <c r="B107" s="154"/>
-      <c r="C107" s="154"/>
-      <c r="D107" s="154"/>
-      <c r="E107" s="154"/>
-      <c r="F107" s="154"/>
-      <c r="G107" s="154"/>
-      <c r="H107" s="154"/>
-      <c r="I107" s="154"/>
-      <c r="J107" s="154"/>
-      <c r="K107" s="150"/>
-    </row>
-    <row r="108" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A108" s="154"/>
-      <c r="B108" s="154"/>
-      <c r="C108" s="154"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="154"/>
-      <c r="F108" s="154"/>
-      <c r="G108" s="154"/>
-      <c r="H108" s="154"/>
-      <c r="I108" s="154"/>
-      <c r="J108" s="154"/>
-      <c r="K108" s="150"/>
-    </row>
-    <row r="109" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A109" s="154"/>
-      <c r="B109" s="154"/>
-      <c r="C109" s="154"/>
-      <c r="D109" s="154"/>
-      <c r="E109" s="154"/>
-      <c r="F109" s="154"/>
-      <c r="G109" s="154"/>
-      <c r="H109" s="154"/>
-      <c r="I109" s="154"/>
-      <c r="J109" s="154"/>
-      <c r="K109" s="150"/>
-    </row>
-    <row r="110" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A110" s="154"/>
-      <c r="B110" s="154"/>
-      <c r="C110" s="154"/>
-      <c r="D110" s="154"/>
-      <c r="E110" s="154"/>
-      <c r="F110" s="154"/>
-      <c r="G110" s="154"/>
-      <c r="H110" s="154"/>
-      <c r="I110" s="154"/>
-      <c r="J110" s="154"/>
-      <c r="K110" s="150"/>
-    </row>
-    <row r="111" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A111" s="154"/>
-      <c r="B111" s="154"/>
-      <c r="C111" s="154"/>
-      <c r="D111" s="154"/>
-      <c r="E111" s="154"/>
-      <c r="F111" s="154"/>
-      <c r="G111" s="154"/>
-      <c r="H111" s="154"/>
-      <c r="I111" s="154"/>
-      <c r="J111" s="154"/>
-      <c r="K111" s="150"/>
-    </row>
-    <row r="112" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A112" s="154"/>
-      <c r="B112" s="154"/>
-      <c r="C112" s="154"/>
-      <c r="D112" s="154"/>
-      <c r="E112" s="154"/>
-      <c r="F112" s="154"/>
-      <c r="G112" s="154"/>
-      <c r="H112" s="154"/>
-      <c r="I112" s="154"/>
-      <c r="J112" s="154"/>
-      <c r="K112" s="150"/>
-    </row>
-    <row r="113" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A113" s="154"/>
-      <c r="B113" s="154"/>
-      <c r="C113" s="154"/>
-      <c r="D113" s="154"/>
-      <c r="E113" s="154"/>
-      <c r="F113" s="154"/>
-      <c r="G113" s="154"/>
-      <c r="H113" s="154"/>
-      <c r="I113" s="154"/>
-      <c r="J113" s="154"/>
-      <c r="K113" s="150"/>
-    </row>
-    <row r="114" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A114" s="154"/>
-      <c r="B114" s="154"/>
-      <c r="C114" s="154"/>
-      <c r="D114" s="154"/>
-      <c r="E114" s="154"/>
-      <c r="F114" s="154"/>
-      <c r="G114" s="154"/>
-      <c r="H114" s="154"/>
-      <c r="I114" s="154"/>
-      <c r="J114" s="154"/>
-      <c r="K114" s="150"/>
-    </row>
-    <row r="115" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A115" s="154"/>
-      <c r="B115" s="154"/>
-      <c r="C115" s="154"/>
-      <c r="D115" s="154"/>
-      <c r="E115" s="154"/>
-      <c r="F115" s="154"/>
-      <c r="G115" s="154"/>
-      <c r="H115" s="154"/>
-      <c r="I115" s="154"/>
-      <c r="J115" s="154"/>
-      <c r="K115" s="150"/>
-    </row>
-    <row r="116" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A116" s="154"/>
-      <c r="B116" s="154"/>
-      <c r="C116" s="154"/>
-      <c r="D116" s="154"/>
-      <c r="E116" s="154"/>
-      <c r="F116" s="154"/>
-      <c r="G116" s="154"/>
-      <c r="H116" s="154"/>
-      <c r="I116" s="154"/>
-      <c r="J116" s="154"/>
-      <c r="K116" s="150"/>
-    </row>
-    <row r="117" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A117" s="154"/>
-      <c r="B117" s="154"/>
-      <c r="C117" s="154"/>
-      <c r="D117" s="154"/>
-      <c r="E117" s="154"/>
-      <c r="F117" s="154"/>
-      <c r="G117" s="154"/>
-      <c r="H117" s="154"/>
-      <c r="I117" s="154"/>
-      <c r="J117" s="154"/>
-      <c r="K117" s="150"/>
-    </row>
-    <row r="118" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A118" s="154"/>
-      <c r="B118" s="154"/>
-      <c r="C118" s="154"/>
-      <c r="D118" s="154"/>
-      <c r="E118" s="154"/>
-      <c r="F118" s="154"/>
-      <c r="G118" s="154"/>
-      <c r="H118" s="154"/>
-      <c r="I118" s="154"/>
-      <c r="J118" s="154"/>
-      <c r="K118" s="150"/>
-    </row>
-    <row r="119" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A119" s="154"/>
-      <c r="B119" s="154"/>
-      <c r="C119" s="154"/>
-      <c r="D119" s="154"/>
-      <c r="E119" s="154"/>
-      <c r="F119" s="154"/>
-      <c r="G119" s="154"/>
-      <c r="H119" s="154"/>
-      <c r="I119" s="154"/>
-      <c r="J119" s="154"/>
-      <c r="K119" s="150"/>
-    </row>
-    <row r="120" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A120" s="154"/>
-      <c r="B120" s="154"/>
-      <c r="C120" s="154"/>
-      <c r="D120" s="154"/>
-      <c r="E120" s="154"/>
-      <c r="F120" s="154"/>
-      <c r="G120" s="154"/>
-      <c r="H120" s="154"/>
-      <c r="I120" s="154"/>
-      <c r="J120" s="154"/>
-      <c r="K120" s="150"/>
-    </row>
-    <row r="121" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A121" s="154"/>
-      <c r="B121" s="154"/>
-      <c r="C121" s="154"/>
-      <c r="D121" s="154"/>
-      <c r="E121" s="154"/>
-      <c r="F121" s="154"/>
-      <c r="G121" s="154"/>
-      <c r="H121" s="154"/>
-      <c r="I121" s="154"/>
-      <c r="J121" s="154"/>
-      <c r="K121" s="150"/>
-    </row>
-    <row r="122" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A122" s="154"/>
-      <c r="B122" s="154"/>
-      <c r="C122" s="154"/>
-      <c r="D122" s="154"/>
-      <c r="E122" s="154"/>
-      <c r="F122" s="154"/>
-      <c r="G122" s="154"/>
-      <c r="H122" s="154"/>
-      <c r="I122" s="154"/>
-      <c r="J122" s="154"/>
-      <c r="K122" s="150"/>
-    </row>
-    <row r="123" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A123" s="154"/>
-      <c r="B123" s="154"/>
-      <c r="C123" s="154"/>
-      <c r="D123" s="154"/>
-      <c r="E123" s="154"/>
-      <c r="F123" s="154"/>
-      <c r="G123" s="154"/>
-      <c r="H123" s="154"/>
-      <c r="I123" s="154"/>
-      <c r="J123" s="154"/>
-      <c r="K123" s="150"/>
-    </row>
-    <row r="124" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A124" s="154"/>
-      <c r="B124" s="154"/>
-      <c r="C124" s="154"/>
-      <c r="D124" s="154"/>
-      <c r="E124" s="154"/>
-      <c r="F124" s="154"/>
-      <c r="G124" s="154"/>
-      <c r="H124" s="154"/>
-      <c r="I124" s="154"/>
-      <c r="J124" s="154"/>
-      <c r="K124" s="150"/>
-    </row>
-    <row r="125" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A125" s="154"/>
-      <c r="B125" s="154"/>
-      <c r="C125" s="154"/>
-      <c r="D125" s="154"/>
-      <c r="E125" s="154"/>
-      <c r="F125" s="154"/>
-      <c r="G125" s="154"/>
-      <c r="H125" s="154"/>
-      <c r="I125" s="154"/>
-      <c r="J125" s="154"/>
-      <c r="K125" s="150"/>
-    </row>
-    <row r="126" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A126" s="154"/>
-      <c r="B126" s="154"/>
-      <c r="C126" s="154"/>
-      <c r="D126" s="154"/>
-      <c r="E126" s="154"/>
-      <c r="F126" s="154"/>
-      <c r="G126" s="154"/>
-      <c r="H126" s="154"/>
-      <c r="I126" s="154"/>
-      <c r="J126" s="154"/>
-      <c r="K126" s="150"/>
-    </row>
-    <row r="127" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A127" s="154"/>
-      <c r="B127" s="154"/>
-      <c r="C127" s="154"/>
-      <c r="D127" s="154"/>
-      <c r="E127" s="154"/>
-      <c r="F127" s="154"/>
-      <c r="G127" s="154"/>
-      <c r="H127" s="154"/>
-      <c r="I127" s="154"/>
-      <c r="J127" s="154"/>
-      <c r="K127" s="150"/>
-    </row>
-    <row r="128" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A128" s="154"/>
-      <c r="B128" s="154"/>
-      <c r="C128" s="154"/>
-      <c r="D128" s="154"/>
-      <c r="E128" s="154"/>
-      <c r="F128" s="154"/>
-      <c r="G128" s="154"/>
-      <c r="H128" s="154"/>
-      <c r="I128" s="154"/>
-      <c r="J128" s="154"/>
-      <c r="K128" s="150"/>
-    </row>
-    <row r="129" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A129" s="154"/>
-      <c r="B129" s="154"/>
-      <c r="C129" s="154"/>
-      <c r="D129" s="154"/>
-      <c r="E129" s="154"/>
-      <c r="F129" s="154"/>
-      <c r="G129" s="154"/>
-      <c r="H129" s="154"/>
-      <c r="I129" s="154"/>
-      <c r="J129" s="154"/>
-      <c r="K129" s="150"/>
-    </row>
-    <row r="130" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A130" s="154"/>
-      <c r="B130" s="154"/>
-      <c r="C130" s="154"/>
-      <c r="D130" s="154"/>
-      <c r="E130" s="154"/>
-      <c r="F130" s="154"/>
-      <c r="G130" s="154"/>
-      <c r="H130" s="154"/>
-      <c r="I130" s="154"/>
-      <c r="J130" s="154"/>
-      <c r="K130" s="150"/>
-    </row>
-    <row r="131" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A131" s="154"/>
-      <c r="B131" s="154"/>
-      <c r="C131" s="154"/>
-      <c r="D131" s="154"/>
-      <c r="E131" s="154"/>
-      <c r="F131" s="154"/>
-      <c r="G131" s="154"/>
-      <c r="H131" s="154"/>
-      <c r="I131" s="154"/>
-      <c r="J131" s="154"/>
-      <c r="K131" s="150"/>
-    </row>
-    <row r="132" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A132" s="153" t="s">
-        <v>128</v>
-      </c>
-      <c r="B132" s="153"/>
-      <c r="C132" s="153"/>
-      <c r="D132" s="153"/>
-      <c r="E132" s="153"/>
-      <c r="F132" s="153"/>
-      <c r="G132" s="153"/>
-      <c r="H132" s="153"/>
-      <c r="I132" s="153"/>
-      <c r="J132" s="153"/>
-      <c r="K132" s="149"/>
-    </row>
-    <row r="133" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A133" s="153"/>
-      <c r="B133" s="153"/>
-      <c r="C133" s="153"/>
-      <c r="D133" s="153"/>
-      <c r="E133" s="153"/>
-      <c r="F133" s="153"/>
-      <c r="G133" s="153"/>
-      <c r="H133" s="153"/>
-      <c r="I133" s="153"/>
-      <c r="J133" s="153"/>
-      <c r="K133" s="149"/>
-    </row>
-    <row r="134" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A134" s="153"/>
-      <c r="B134" s="153"/>
-      <c r="C134" s="153"/>
-      <c r="D134" s="153"/>
-      <c r="E134" s="153"/>
-      <c r="F134" s="153"/>
-      <c r="G134" s="153"/>
-      <c r="H134" s="153"/>
-      <c r="I134" s="153"/>
-      <c r="J134" s="153"/>
-      <c r="K134" s="149"/>
-    </row>
-    <row r="135" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A135" s="153"/>
-      <c r="B135" s="153"/>
-      <c r="C135" s="153"/>
-      <c r="D135" s="153"/>
-      <c r="E135" s="153"/>
-      <c r="F135" s="153"/>
-      <c r="G135" s="153"/>
-      <c r="H135" s="153"/>
-      <c r="I135" s="153"/>
-      <c r="J135" s="153"/>
-      <c r="K135" s="149"/>
-    </row>
-    <row r="136" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A136" s="154"/>
-      <c r="B136" s="154"/>
-      <c r="C136" s="154"/>
-      <c r="D136" s="154"/>
-      <c r="E136" s="154"/>
-      <c r="F136" s="154"/>
-      <c r="G136" s="154"/>
-      <c r="H136" s="154"/>
-      <c r="I136" s="154"/>
-      <c r="J136" s="154"/>
-      <c r="K136" s="150"/>
+      <c r="B136" s="155"/>
+      <c r="C136" s="155"/>
+      <c r="D136" s="155"/>
+      <c r="E136" s="155"/>
+      <c r="F136" s="155"/>
+      <c r="G136" s="155"/>
+      <c r="H136" s="155"/>
+      <c r="I136" s="155"/>
+      <c r="J136" s="155"/>
+      <c r="K136" s="82"/>
     </row>
     <row r="137" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A137" s="154"/>
-      <c r="B137" s="154"/>
-      <c r="C137" s="154"/>
-      <c r="D137" s="154"/>
-      <c r="E137" s="154"/>
-      <c r="F137" s="154"/>
-      <c r="G137" s="154"/>
-      <c r="H137" s="154"/>
-      <c r="I137" s="154"/>
-      <c r="J137" s="154"/>
-      <c r="K137" s="150"/>
+      <c r="A137" s="85"/>
+      <c r="B137" s="85"/>
+      <c r="C137" s="85"/>
+      <c r="D137" s="85"/>
+      <c r="E137" s="85"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="85"/>
+      <c r="H137" s="85"/>
+      <c r="I137" s="85"/>
+      <c r="J137" s="85"/>
+      <c r="K137" s="82"/>
     </row>
     <row r="138" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A138" s="154"/>
-      <c r="B138" s="154"/>
-      <c r="C138" s="154"/>
-      <c r="D138" s="154"/>
-      <c r="E138" s="154"/>
-      <c r="F138" s="154"/>
-      <c r="G138" s="154"/>
-      <c r="H138" s="154"/>
-      <c r="I138" s="154"/>
-      <c r="J138" s="154"/>
-      <c r="K138" s="150"/>
+      <c r="A138" s="85"/>
+      <c r="B138" s="85"/>
+      <c r="C138" s="85"/>
+      <c r="D138" s="85"/>
+      <c r="E138" s="85"/>
+      <c r="F138" s="85"/>
+      <c r="G138" s="85"/>
+      <c r="H138" s="85"/>
+      <c r="I138" s="85"/>
+      <c r="J138" s="85"/>
+      <c r="K138" s="82"/>
     </row>
     <row r="139" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A139" s="154"/>
-      <c r="B139" s="154"/>
-      <c r="C139" s="154"/>
-      <c r="D139" s="154"/>
-      <c r="E139" s="154"/>
-      <c r="F139" s="154"/>
-      <c r="G139" s="154"/>
-      <c r="H139" s="154"/>
-      <c r="I139" s="154"/>
-      <c r="J139" s="154"/>
-      <c r="K139" s="150"/>
+      <c r="A139" s="85"/>
+      <c r="B139" s="85"/>
+      <c r="C139" s="85"/>
+      <c r="D139" s="85"/>
+      <c r="E139" s="85"/>
+      <c r="F139" s="85"/>
+      <c r="G139" s="85"/>
+      <c r="H139" s="85"/>
+      <c r="I139" s="85"/>
+      <c r="J139" s="85"/>
+      <c r="K139" s="82"/>
     </row>
     <row r="140" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A140" s="154"/>
-      <c r="B140" s="154"/>
-      <c r="C140" s="154"/>
-      <c r="D140" s="154"/>
-      <c r="E140" s="154"/>
-      <c r="F140" s="154"/>
-      <c r="G140" s="154"/>
-      <c r="H140" s="154"/>
-      <c r="I140" s="154"/>
-      <c r="J140" s="154"/>
-      <c r="K140" s="150"/>
+      <c r="A140" s="85"/>
+      <c r="B140" s="85"/>
+      <c r="C140" s="85"/>
+      <c r="D140" s="85"/>
+      <c r="E140" s="85"/>
+      <c r="F140" s="85"/>
+      <c r="G140" s="85"/>
+      <c r="H140" s="85"/>
+      <c r="I140" s="85"/>
+      <c r="J140" s="85"/>
+      <c r="K140" s="82"/>
     </row>
     <row r="141" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A141" s="154"/>
-      <c r="B141" s="154"/>
-      <c r="C141" s="154"/>
-      <c r="D141" s="154"/>
-      <c r="E141" s="154"/>
-      <c r="F141" s="154"/>
-      <c r="G141" s="154"/>
-      <c r="H141" s="154"/>
-      <c r="I141" s="154"/>
-      <c r="J141" s="154"/>
-      <c r="K141" s="150"/>
+      <c r="A141" s="85"/>
+      <c r="B141" s="85"/>
+      <c r="C141" s="85"/>
+      <c r="D141" s="85"/>
+      <c r="E141" s="85"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="85"/>
+      <c r="H141" s="85"/>
+      <c r="I141" s="85"/>
+      <c r="J141" s="85"/>
+      <c r="K141" s="82"/>
     </row>
     <row r="142" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A142" s="154"/>
-      <c r="B142" s="154"/>
-      <c r="C142" s="154"/>
-      <c r="D142" s="154"/>
-      <c r="E142" s="154"/>
-      <c r="F142" s="154"/>
-      <c r="G142" s="154"/>
-      <c r="H142" s="154"/>
-      <c r="I142" s="154"/>
-      <c r="J142" s="154"/>
-      <c r="K142" s="150"/>
+      <c r="A142" s="85"/>
+      <c r="B142" s="85"/>
+      <c r="C142" s="85"/>
+      <c r="D142" s="85"/>
+      <c r="E142" s="85"/>
+      <c r="F142" s="85"/>
+      <c r="G142" s="85"/>
+      <c r="H142" s="85"/>
+      <c r="I142" s="85"/>
+      <c r="J142" s="85"/>
+      <c r="K142" s="82"/>
     </row>
     <row r="143" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A143" s="154"/>
-      <c r="B143" s="154"/>
-      <c r="C143" s="154"/>
-      <c r="D143" s="154"/>
-      <c r="E143" s="154"/>
-      <c r="F143" s="154"/>
-      <c r="G143" s="154"/>
-      <c r="H143" s="154"/>
-      <c r="I143" s="154"/>
-      <c r="J143" s="154"/>
-      <c r="K143" s="150"/>
+      <c r="A143" s="85"/>
+      <c r="B143" s="85"/>
+      <c r="C143" s="85"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="85"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="85"/>
+      <c r="H143" s="85"/>
+      <c r="I143" s="85"/>
+      <c r="J143" s="85"/>
+      <c r="K143" s="82"/>
     </row>
     <row r="144" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A144" s="154"/>
-      <c r="B144" s="154"/>
-      <c r="C144" s="154"/>
-      <c r="D144" s="154"/>
-      <c r="E144" s="154"/>
-      <c r="F144" s="154"/>
-      <c r="G144" s="154"/>
-      <c r="H144" s="154"/>
-      <c r="I144" s="154"/>
-      <c r="J144" s="154"/>
-      <c r="K144" s="150"/>
+      <c r="A144" s="85"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="85"/>
+      <c r="D144" s="85"/>
+      <c r="E144" s="85"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="85"/>
+      <c r="H144" s="85"/>
+      <c r="I144" s="85"/>
+      <c r="J144" s="85"/>
+      <c r="K144" s="82"/>
     </row>
     <row r="145" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A145" s="154"/>
-      <c r="B145" s="154"/>
-      <c r="C145" s="154"/>
-      <c r="D145" s="154"/>
-      <c r="E145" s="154"/>
-      <c r="F145" s="154"/>
-      <c r="G145" s="154"/>
-      <c r="H145" s="154"/>
-      <c r="I145" s="154"/>
-      <c r="J145" s="154"/>
-      <c r="K145" s="150"/>
+      <c r="A145" s="85"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
+      <c r="H145" s="85"/>
+      <c r="I145" s="85"/>
+      <c r="J145" s="85"/>
+      <c r="K145" s="82"/>
     </row>
     <row r="146" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A146" s="154"/>
-      <c r="B146" s="154"/>
-      <c r="C146" s="154"/>
-      <c r="D146" s="154"/>
-      <c r="E146" s="154"/>
-      <c r="F146" s="154"/>
-      <c r="G146" s="154"/>
-      <c r="H146" s="154"/>
-      <c r="I146" s="154"/>
-      <c r="J146" s="154"/>
-      <c r="K146" s="150"/>
+      <c r="A146" s="85"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="85"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="85"/>
+      <c r="H146" s="85"/>
+      <c r="I146" s="85"/>
+      <c r="J146" s="85"/>
+      <c r="K146" s="82"/>
     </row>
     <row r="147" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A147" s="154"/>
-      <c r="B147" s="154"/>
-      <c r="C147" s="154"/>
-      <c r="D147" s="154"/>
-      <c r="E147" s="154"/>
-      <c r="F147" s="154"/>
-      <c r="G147" s="154"/>
-      <c r="H147" s="154"/>
-      <c r="I147" s="154"/>
-      <c r="J147" s="154"/>
-      <c r="K147" s="150"/>
+      <c r="A147" s="85"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="85"/>
+      <c r="I147" s="85"/>
+      <c r="J147" s="85"/>
+      <c r="K147" s="82"/>
     </row>
     <row r="148" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A148" s="154"/>
-      <c r="B148" s="154"/>
-      <c r="C148" s="154"/>
-      <c r="D148" s="154"/>
-      <c r="E148" s="154"/>
-      <c r="F148" s="154"/>
-      <c r="G148" s="154"/>
-      <c r="H148" s="154"/>
-      <c r="I148" s="154"/>
-      <c r="J148" s="154"/>
-      <c r="K148" s="150"/>
+      <c r="A148" s="85"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="85"/>
+      <c r="H148" s="85"/>
+      <c r="I148" s="85"/>
+      <c r="J148" s="85"/>
+      <c r="K148" s="82"/>
     </row>
     <row r="149" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A149" s="154"/>
-      <c r="B149" s="154"/>
-      <c r="C149" s="154"/>
-      <c r="D149" s="154"/>
-      <c r="E149" s="154"/>
-      <c r="F149" s="154"/>
-      <c r="G149" s="154"/>
-      <c r="H149" s="154"/>
-      <c r="I149" s="154"/>
-      <c r="J149" s="154"/>
-      <c r="K149" s="150"/>
+      <c r="A149" s="85"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="85"/>
+      <c r="I149" s="85"/>
+      <c r="J149" s="85"/>
+      <c r="K149" s="82"/>
     </row>
     <row r="150" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A150" s="154"/>
-      <c r="B150" s="154"/>
-      <c r="C150" s="154"/>
-      <c r="D150" s="154"/>
-      <c r="E150" s="154"/>
-      <c r="F150" s="154"/>
-      <c r="G150" s="154"/>
-      <c r="H150" s="154"/>
-      <c r="I150" s="154"/>
-      <c r="J150" s="154"/>
-      <c r="K150" s="150"/>
+      <c r="A150" s="85"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="85"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="85"/>
+      <c r="G150" s="85"/>
+      <c r="H150" s="85"/>
+      <c r="I150" s="85"/>
+      <c r="J150" s="85"/>
+      <c r="K150" s="82"/>
     </row>
     <row r="151" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A151" s="154"/>
-      <c r="B151" s="154"/>
-      <c r="C151" s="154"/>
-      <c r="D151" s="154"/>
-      <c r="E151" s="154"/>
-      <c r="F151" s="154"/>
-      <c r="G151" s="154"/>
-      <c r="H151" s="154"/>
-      <c r="I151" s="154"/>
-      <c r="J151" s="154"/>
-      <c r="K151" s="150"/>
+      <c r="A151" s="85"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="85"/>
+      <c r="D151" s="85"/>
+      <c r="E151" s="85"/>
+      <c r="F151" s="85"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="85"/>
+      <c r="I151" s="85"/>
+      <c r="J151" s="85"/>
+      <c r="K151" s="82"/>
     </row>
     <row r="152" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A152" s="154"/>
-      <c r="B152" s="154"/>
-      <c r="C152" s="154"/>
-      <c r="D152" s="154"/>
-      <c r="E152" s="154"/>
-      <c r="F152" s="154"/>
-      <c r="G152" s="154"/>
-      <c r="H152" s="154"/>
-      <c r="I152" s="154"/>
-      <c r="J152" s="154"/>
-      <c r="K152" s="150"/>
+      <c r="A152" s="85"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="85"/>
+      <c r="G152" s="85"/>
+      <c r="H152" s="85"/>
+      <c r="I152" s="85"/>
+      <c r="J152" s="85"/>
+      <c r="K152" s="82"/>
     </row>
     <row r="153" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A153" s="154"/>
-      <c r="B153" s="154"/>
-      <c r="C153" s="154"/>
-      <c r="D153" s="154"/>
-      <c r="E153" s="154"/>
-      <c r="F153" s="154"/>
-      <c r="G153" s="154"/>
-      <c r="H153" s="154"/>
-      <c r="I153" s="154"/>
-      <c r="J153" s="154"/>
-      <c r="K153" s="150"/>
+      <c r="A153" s="85"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="85"/>
+      <c r="D153" s="85"/>
+      <c r="E153" s="85"/>
+      <c r="F153" s="85"/>
+      <c r="G153" s="85"/>
+      <c r="H153" s="85"/>
+      <c r="I153" s="85"/>
+      <c r="J153" s="85"/>
+      <c r="K153" s="82"/>
     </row>
     <row r="154" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A154" s="154"/>
-      <c r="B154" s="154"/>
-      <c r="C154" s="154"/>
-      <c r="D154" s="154"/>
-      <c r="E154" s="154"/>
-      <c r="F154" s="154"/>
-      <c r="G154" s="154"/>
-      <c r="H154" s="154"/>
-      <c r="I154" s="154"/>
-      <c r="J154" s="154"/>
-      <c r="K154" s="150"/>
+      <c r="A154" s="85"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="85"/>
+      <c r="G154" s="85"/>
+      <c r="H154" s="85"/>
+      <c r="I154" s="85"/>
+      <c r="J154" s="85"/>
+      <c r="K154" s="82"/>
     </row>
     <row r="155" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A155" s="154"/>
-      <c r="B155" s="154"/>
-      <c r="C155" s="154"/>
-      <c r="D155" s="154"/>
-      <c r="E155" s="154"/>
-      <c r="F155" s="154"/>
-      <c r="G155" s="154"/>
-      <c r="H155" s="154"/>
-      <c r="I155" s="154"/>
-      <c r="J155" s="154"/>
-      <c r="K155" s="150"/>
+      <c r="A155" s="85"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="85"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="85"/>
+      <c r="I155" s="85"/>
+      <c r="J155" s="85"/>
+      <c r="K155" s="82"/>
     </row>
     <row r="156" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A156" s="154"/>
-      <c r="B156" s="154"/>
-      <c r="C156" s="154"/>
-      <c r="D156" s="154"/>
-      <c r="E156" s="154"/>
-      <c r="F156" s="154"/>
-      <c r="G156" s="154"/>
-      <c r="H156" s="154"/>
-      <c r="I156" s="154"/>
-      <c r="J156" s="154"/>
-      <c r="K156" s="150"/>
+      <c r="A156" s="85"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
+      <c r="K156" s="82"/>
     </row>
     <row r="157" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A157" s="154"/>
-      <c r="B157" s="154"/>
-      <c r="C157" s="154"/>
-      <c r="D157" s="154"/>
-      <c r="E157" s="154"/>
-      <c r="F157" s="154"/>
-      <c r="G157" s="154"/>
-      <c r="H157" s="154"/>
-      <c r="I157" s="154"/>
-      <c r="J157" s="154"/>
-      <c r="K157" s="150"/>
+      <c r="A157" s="85"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="85"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="85"/>
+      <c r="I157" s="85"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="82"/>
     </row>
     <row r="158" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A158" s="154"/>
-      <c r="B158" s="154"/>
-      <c r="C158" s="154"/>
-      <c r="D158" s="154"/>
-      <c r="E158" s="154"/>
-      <c r="F158" s="154"/>
-      <c r="G158" s="154"/>
-      <c r="H158" s="154"/>
-      <c r="I158" s="154"/>
-      <c r="J158" s="154"/>
-      <c r="K158" s="150"/>
+      <c r="A158" s="85"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
+      <c r="K158" s="82"/>
     </row>
     <row r="159" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A159" s="154"/>
-      <c r="B159" s="154"/>
-      <c r="C159" s="154"/>
-      <c r="D159" s="154"/>
-      <c r="E159" s="154"/>
-      <c r="F159" s="154"/>
-      <c r="G159" s="154"/>
-      <c r="H159" s="154"/>
-      <c r="I159" s="154"/>
-      <c r="J159" s="154"/>
-      <c r="K159" s="150"/>
+      <c r="A159" s="85"/>
+      <c r="B159" s="85"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="85"/>
+      <c r="H159" s="85"/>
+      <c r="I159" s="85"/>
+      <c r="J159" s="85"/>
+      <c r="K159" s="82"/>
     </row>
     <row r="160" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A160" s="154"/>
-      <c r="B160" s="154"/>
-      <c r="C160" s="154"/>
-      <c r="D160" s="154"/>
-      <c r="E160" s="154"/>
-      <c r="F160" s="154"/>
-      <c r="G160" s="154"/>
-      <c r="H160" s="154"/>
-      <c r="I160" s="154"/>
-      <c r="J160" s="154"/>
-      <c r="K160" s="150"/>
+      <c r="A160" s="85"/>
+      <c r="B160" s="85"/>
+      <c r="C160" s="85"/>
+      <c r="D160" s="85"/>
+      <c r="E160" s="85"/>
+      <c r="F160" s="85"/>
+      <c r="G160" s="85"/>
+      <c r="H160" s="85"/>
+      <c r="I160" s="85"/>
+      <c r="J160" s="85"/>
+      <c r="K160" s="82"/>
     </row>
     <row r="161" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A161" s="154"/>
-      <c r="B161" s="154"/>
-      <c r="C161" s="154"/>
-      <c r="D161" s="154"/>
-      <c r="E161" s="154"/>
-      <c r="F161" s="154"/>
-      <c r="G161" s="154"/>
-      <c r="H161" s="154"/>
-      <c r="I161" s="154"/>
-      <c r="J161" s="154"/>
-      <c r="K161" s="150"/>
+      <c r="A161" s="85"/>
+      <c r="B161" s="85"/>
+      <c r="C161" s="85"/>
+      <c r="D161" s="85"/>
+      <c r="E161" s="85"/>
+      <c r="F161" s="85"/>
+      <c r="G161" s="85"/>
+      <c r="H161" s="85"/>
+      <c r="I161" s="85"/>
+      <c r="J161" s="85"/>
+      <c r="K161" s="82"/>
     </row>
     <row r="162" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A162" s="154"/>
-      <c r="B162" s="154"/>
-      <c r="C162" s="154"/>
-      <c r="D162" s="154"/>
-      <c r="E162" s="154"/>
-      <c r="F162" s="154"/>
-      <c r="G162" s="154"/>
-      <c r="H162" s="154"/>
-      <c r="I162" s="154"/>
-      <c r="J162" s="154"/>
-      <c r="K162" s="150"/>
+      <c r="A162" s="85"/>
+      <c r="B162" s="85"/>
+      <c r="C162" s="85"/>
+      <c r="D162" s="85"/>
+      <c r="E162" s="85"/>
+      <c r="F162" s="85"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="85"/>
+      <c r="I162" s="85"/>
+      <c r="J162" s="85"/>
+      <c r="K162" s="82"/>
     </row>
     <row r="163" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A163" s="154"/>
-      <c r="B163" s="154"/>
-      <c r="C163" s="154"/>
-      <c r="D163" s="154"/>
-      <c r="E163" s="154"/>
-      <c r="F163" s="154"/>
-      <c r="G163" s="154"/>
-      <c r="H163" s="154"/>
-      <c r="I163" s="154"/>
-      <c r="J163" s="154"/>
-      <c r="K163" s="150"/>
+      <c r="A163" s="85"/>
+      <c r="B163" s="85"/>
+      <c r="C163" s="85"/>
+      <c r="D163" s="85"/>
+      <c r="E163" s="85"/>
+      <c r="F163" s="85"/>
+      <c r="G163" s="85"/>
+      <c r="H163" s="85"/>
+      <c r="I163" s="85"/>
+      <c r="J163" s="85"/>
+      <c r="K163" s="82"/>
     </row>
     <row r="164" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A164" s="154"/>
-      <c r="B164" s="154"/>
-      <c r="C164" s="154"/>
-      <c r="D164" s="154"/>
-      <c r="E164" s="154"/>
-      <c r="F164" s="154"/>
-      <c r="G164" s="154"/>
-      <c r="H164" s="154"/>
-      <c r="I164" s="154"/>
-      <c r="J164" s="154"/>
-      <c r="K164" s="150"/>
+      <c r="A164" s="85"/>
+      <c r="B164" s="85"/>
+      <c r="C164" s="85"/>
+      <c r="D164" s="85"/>
+      <c r="E164" s="85"/>
+      <c r="F164" s="85"/>
+      <c r="G164" s="85"/>
+      <c r="H164" s="85"/>
+      <c r="I164" s="85"/>
+      <c r="J164" s="85"/>
+      <c r="K164" s="82"/>
     </row>
     <row r="165" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A165" s="154"/>
-      <c r="B165" s="154"/>
-      <c r="C165" s="154"/>
-      <c r="D165" s="154"/>
-      <c r="E165" s="154"/>
-      <c r="F165" s="154"/>
-      <c r="G165" s="154"/>
-      <c r="H165" s="154"/>
-      <c r="I165" s="154"/>
-      <c r="J165" s="154"/>
-      <c r="K165" s="150"/>
+      <c r="A165" s="85"/>
+      <c r="B165" s="85"/>
+      <c r="C165" s="85"/>
+      <c r="D165" s="85"/>
+      <c r="E165" s="85"/>
+      <c r="F165" s="85"/>
+      <c r="G165" s="85"/>
+      <c r="H165" s="85"/>
+      <c r="I165" s="85"/>
+      <c r="J165" s="85"/>
+      <c r="K165" s="82"/>
     </row>
     <row r="166" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A166" s="154"/>
-      <c r="B166" s="154"/>
-      <c r="C166" s="154"/>
-      <c r="D166" s="154"/>
-      <c r="E166" s="154"/>
-      <c r="F166" s="154"/>
-      <c r="G166" s="154"/>
-      <c r="H166" s="154"/>
-      <c r="I166" s="154"/>
-      <c r="J166" s="154"/>
-      <c r="K166" s="150"/>
+      <c r="A166" s="85"/>
+      <c r="B166" s="85"/>
+      <c r="C166" s="85"/>
+      <c r="D166" s="85"/>
+      <c r="E166" s="85"/>
+      <c r="F166" s="85"/>
+      <c r="G166" s="85"/>
+      <c r="H166" s="85"/>
+      <c r="I166" s="85"/>
+      <c r="J166" s="85"/>
+      <c r="K166" s="82"/>
     </row>
     <row r="167" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A167" s="154"/>
-      <c r="B167" s="154"/>
-      <c r="C167" s="154"/>
-      <c r="D167" s="154"/>
-      <c r="E167" s="154"/>
-      <c r="F167" s="154"/>
-      <c r="G167" s="154"/>
-      <c r="H167" s="154"/>
-      <c r="I167" s="154"/>
-      <c r="J167" s="154"/>
-      <c r="K167" s="150"/>
+      <c r="A167" s="85"/>
+      <c r="B167" s="85"/>
+      <c r="C167" s="85"/>
+      <c r="D167" s="85"/>
+      <c r="E167" s="85"/>
+      <c r="F167" s="85"/>
+      <c r="G167" s="85"/>
+      <c r="H167" s="85"/>
+      <c r="I167" s="85"/>
+      <c r="J167" s="85"/>
+      <c r="K167" s="82"/>
     </row>
     <row r="168" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A168" s="154"/>
-      <c r="B168" s="154"/>
-      <c r="C168" s="154"/>
-      <c r="D168" s="154"/>
-      <c r="E168" s="154"/>
-      <c r="F168" s="154"/>
-      <c r="G168" s="154"/>
-      <c r="H168" s="154"/>
-      <c r="I168" s="154"/>
-      <c r="J168" s="154"/>
-      <c r="K168" s="150"/>
+      <c r="A168" s="85"/>
+      <c r="B168" s="85"/>
+      <c r="C168" s="85"/>
+      <c r="D168" s="85"/>
+      <c r="E168" s="85"/>
+      <c r="F168" s="85"/>
+      <c r="G168" s="85"/>
+      <c r="H168" s="85"/>
+      <c r="I168" s="85"/>
+      <c r="J168" s="85"/>
+      <c r="K168" s="82"/>
     </row>
     <row r="169" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A169" s="154"/>
-      <c r="B169" s="154"/>
-      <c r="C169" s="154"/>
-      <c r="D169" s="154"/>
-      <c r="E169" s="154"/>
-      <c r="F169" s="154"/>
-      <c r="G169" s="154"/>
-      <c r="H169" s="154"/>
-      <c r="I169" s="154"/>
-      <c r="J169" s="154"/>
-      <c r="K169" s="150"/>
+      <c r="A169" s="85"/>
+      <c r="B169" s="85"/>
+      <c r="C169" s="85"/>
+      <c r="D169" s="85"/>
+      <c r="E169" s="85"/>
+      <c r="F169" s="85"/>
+      <c r="G169" s="85"/>
+      <c r="H169" s="85"/>
+      <c r="I169" s="85"/>
+      <c r="J169" s="85"/>
+      <c r="K169" s="82"/>
     </row>
     <row r="170" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A170" s="154"/>
-      <c r="B170" s="154"/>
-      <c r="C170" s="154"/>
-      <c r="D170" s="154"/>
-      <c r="E170" s="154"/>
-      <c r="F170" s="154"/>
-      <c r="G170" s="154"/>
-      <c r="H170" s="154"/>
-      <c r="I170" s="154"/>
-      <c r="J170" s="154"/>
-      <c r="K170" s="150"/>
+      <c r="A170" s="85"/>
+      <c r="B170" s="85"/>
+      <c r="C170" s="85"/>
+      <c r="D170" s="85"/>
+      <c r="E170" s="85"/>
+      <c r="F170" s="85"/>
+      <c r="G170" s="85"/>
+      <c r="H170" s="85"/>
+      <c r="I170" s="85"/>
+      <c r="J170" s="85"/>
+      <c r="K170" s="82"/>
     </row>
     <row r="171" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A171" s="154"/>
-      <c r="B171" s="154"/>
-      <c r="C171" s="154"/>
-      <c r="D171" s="154"/>
-      <c r="E171" s="154"/>
-      <c r="F171" s="154"/>
-      <c r="G171" s="154"/>
-      <c r="H171" s="154"/>
-      <c r="I171" s="154"/>
-      <c r="J171" s="154"/>
-      <c r="K171" s="150"/>
+      <c r="A171" s="85"/>
+      <c r="B171" s="85"/>
+      <c r="C171" s="85"/>
+      <c r="D171" s="85"/>
+      <c r="E171" s="85"/>
+      <c r="F171" s="85"/>
+      <c r="G171" s="85"/>
+      <c r="H171" s="85"/>
+      <c r="I171" s="85"/>
+      <c r="J171" s="85"/>
+      <c r="K171" s="82"/>
     </row>
     <row r="172" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A172" s="154"/>
-      <c r="B172" s="154"/>
-      <c r="C172" s="154"/>
-      <c r="D172" s="154"/>
-      <c r="E172" s="154"/>
-      <c r="F172" s="154"/>
-      <c r="G172" s="154"/>
-      <c r="H172" s="154"/>
-      <c r="I172" s="154"/>
-      <c r="J172" s="154"/>
-      <c r="K172" s="150"/>
+      <c r="A172" s="85"/>
+      <c r="B172" s="85"/>
+      <c r="C172" s="85"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="85"/>
+      <c r="F172" s="85"/>
+      <c r="G172" s="85"/>
+      <c r="H172" s="85"/>
+      <c r="I172" s="85"/>
+      <c r="J172" s="85"/>
+      <c r="K172" s="82"/>
     </row>
     <row r="173" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A173" s="154"/>
-      <c r="B173" s="154"/>
-      <c r="C173" s="154"/>
-      <c r="D173" s="154"/>
-      <c r="E173" s="154"/>
-      <c r="F173" s="154"/>
-      <c r="G173" s="154"/>
-      <c r="H173" s="154"/>
-      <c r="I173" s="154"/>
-      <c r="J173" s="154"/>
-      <c r="K173" s="150"/>
+      <c r="A173" s="85"/>
+      <c r="B173" s="85"/>
+      <c r="C173" s="85"/>
+      <c r="D173" s="85"/>
+      <c r="E173" s="85"/>
+      <c r="F173" s="85"/>
+      <c r="G173" s="85"/>
+      <c r="H173" s="85"/>
+      <c r="I173" s="85"/>
+      <c r="J173" s="85"/>
+      <c r="K173" s="82"/>
     </row>
     <row r="174" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A174" s="154"/>
-      <c r="B174" s="154"/>
-      <c r="C174" s="154"/>
-      <c r="D174" s="154"/>
-      <c r="E174" s="154"/>
-      <c r="F174" s="154"/>
-      <c r="G174" s="154"/>
-      <c r="H174" s="154"/>
-      <c r="I174" s="154"/>
-      <c r="J174" s="154"/>
-      <c r="K174" s="150"/>
+      <c r="A174" s="85"/>
+      <c r="B174" s="85"/>
+      <c r="C174" s="85"/>
+      <c r="D174" s="85"/>
+      <c r="E174" s="85"/>
+      <c r="F174" s="85"/>
+      <c r="G174" s="85"/>
+      <c r="H174" s="85"/>
+      <c r="I174" s="85"/>
+      <c r="J174" s="85"/>
+      <c r="K174" s="82"/>
     </row>
     <row r="175" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A175" s="154"/>
-      <c r="B175" s="154"/>
-      <c r="C175" s="154"/>
-      <c r="D175" s="154"/>
-      <c r="E175" s="154"/>
-      <c r="F175" s="154"/>
-      <c r="G175" s="154"/>
-      <c r="H175" s="154"/>
-      <c r="I175" s="154"/>
-      <c r="J175" s="154"/>
-      <c r="K175" s="150"/>
+      <c r="A175" s="85"/>
+      <c r="B175" s="85"/>
+      <c r="C175" s="85"/>
+      <c r="D175" s="85"/>
+      <c r="E175" s="85"/>
+      <c r="F175" s="85"/>
+      <c r="G175" s="85"/>
+      <c r="H175" s="85"/>
+      <c r="I175" s="85"/>
+      <c r="J175" s="85"/>
+      <c r="K175" s="82"/>
     </row>
     <row r="176" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A176" s="154"/>
-      <c r="B176" s="154"/>
-      <c r="C176" s="154"/>
-      <c r="D176" s="154"/>
-      <c r="E176" s="154"/>
-      <c r="F176" s="154"/>
-      <c r="G176" s="154"/>
-      <c r="H176" s="154"/>
-      <c r="I176" s="154"/>
-      <c r="J176" s="154"/>
-      <c r="K176" s="150"/>
+      <c r="A176" s="85"/>
+      <c r="B176" s="85"/>
+      <c r="C176" s="85"/>
+      <c r="D176" s="85"/>
+      <c r="E176" s="85"/>
+      <c r="F176" s="85"/>
+      <c r="G176" s="85"/>
+      <c r="H176" s="85"/>
+      <c r="I176" s="85"/>
+      <c r="J176" s="85"/>
+      <c r="K176" s="82"/>
     </row>
     <row r="177" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A177" s="154"/>
-      <c r="B177" s="154"/>
-      <c r="C177" s="154"/>
-      <c r="D177" s="154"/>
-      <c r="E177" s="154"/>
-      <c r="F177" s="154"/>
-      <c r="G177" s="154"/>
-      <c r="H177" s="154"/>
-      <c r="I177" s="154"/>
-      <c r="J177" s="154"/>
-      <c r="K177" s="150"/>
+      <c r="A177" s="85"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="85"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
+      <c r="K177" s="82"/>
     </row>
     <row r="178" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A178" s="154"/>
-      <c r="B178" s="154"/>
-      <c r="C178" s="154"/>
-      <c r="D178" s="154"/>
-      <c r="E178" s="154"/>
-      <c r="F178" s="154"/>
-      <c r="G178" s="154"/>
-      <c r="H178" s="154"/>
-      <c r="I178" s="154"/>
-      <c r="J178" s="154"/>
-      <c r="K178" s="150"/>
+      <c r="A178" s="85"/>
+      <c r="B178" s="85"/>
+      <c r="C178" s="85"/>
+      <c r="D178" s="85"/>
+      <c r="E178" s="85"/>
+      <c r="F178" s="85"/>
+      <c r="G178" s="85"/>
+      <c r="H178" s="85"/>
+      <c r="I178" s="85"/>
+      <c r="J178" s="85"/>
+      <c r="K178" s="82"/>
     </row>
     <row r="179" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A179" s="154"/>
-      <c r="B179" s="154"/>
-      <c r="C179" s="154"/>
-      <c r="D179" s="154"/>
-      <c r="E179" s="154"/>
-      <c r="F179" s="154"/>
-      <c r="G179" s="154"/>
-      <c r="H179" s="154"/>
-      <c r="I179" s="154"/>
-      <c r="J179" s="154"/>
-      <c r="K179" s="150"/>
+      <c r="A179" s="85"/>
+      <c r="B179" s="85"/>
+      <c r="C179" s="85"/>
+      <c r="D179" s="85"/>
+      <c r="E179" s="85"/>
+      <c r="F179" s="85"/>
+      <c r="G179" s="85"/>
+      <c r="H179" s="85"/>
+      <c r="I179" s="85"/>
+      <c r="J179" s="85"/>
+      <c r="K179" s="82"/>
     </row>
     <row r="180" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A180" s="154"/>
-      <c r="B180" s="154"/>
-      <c r="C180" s="154"/>
-      <c r="D180" s="154"/>
-      <c r="E180" s="154"/>
-      <c r="F180" s="154"/>
-      <c r="G180" s="154"/>
-      <c r="H180" s="154"/>
-      <c r="I180" s="154"/>
-      <c r="J180" s="154"/>
-      <c r="K180" s="150"/>
+      <c r="A180" s="85"/>
+      <c r="B180" s="85"/>
+      <c r="C180" s="85"/>
+      <c r="D180" s="85"/>
+      <c r="E180" s="85"/>
+      <c r="F180" s="85"/>
+      <c r="G180" s="85"/>
+      <c r="H180" s="85"/>
+      <c r="I180" s="85"/>
+      <c r="J180" s="85"/>
+      <c r="K180" s="82"/>
     </row>
     <row r="181" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A181" s="154"/>
-      <c r="B181" s="154"/>
-      <c r="C181" s="154"/>
-      <c r="D181" s="154"/>
-      <c r="E181" s="154"/>
-      <c r="F181" s="154"/>
-      <c r="G181" s="154"/>
-      <c r="H181" s="154"/>
-      <c r="I181" s="154"/>
-      <c r="J181" s="154"/>
-      <c r="K181" s="150"/>
+      <c r="A181" s="85"/>
+      <c r="B181" s="85"/>
+      <c r="C181" s="85"/>
+      <c r="D181" s="85"/>
+      <c r="E181" s="85"/>
+      <c r="F181" s="85"/>
+      <c r="G181" s="85"/>
+      <c r="H181" s="85"/>
+      <c r="I181" s="85"/>
+      <c r="J181" s="85"/>
+      <c r="K181" s="82"/>
     </row>
     <row r="182" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A182" s="154"/>
-      <c r="B182" s="154"/>
-      <c r="C182" s="154"/>
-      <c r="D182" s="154"/>
-      <c r="E182" s="154"/>
-      <c r="F182" s="154"/>
-      <c r="G182" s="154"/>
-      <c r="H182" s="154"/>
-      <c r="I182" s="154"/>
-      <c r="J182" s="154"/>
-      <c r="K182" s="150"/>
+      <c r="A182" s="85"/>
+      <c r="B182" s="85"/>
+      <c r="C182" s="85"/>
+      <c r="D182" s="85"/>
+      <c r="E182" s="85"/>
+      <c r="F182" s="85"/>
+      <c r="G182" s="85"/>
+      <c r="H182" s="85"/>
+      <c r="I182" s="85"/>
+      <c r="J182" s="85"/>
+      <c r="K182" s="82"/>
     </row>
     <row r="183" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A183" s="154"/>
-      <c r="B183" s="154"/>
-      <c r="C183" s="154"/>
-      <c r="D183" s="154"/>
-      <c r="E183" s="154"/>
-      <c r="F183" s="154"/>
-      <c r="G183" s="154"/>
-      <c r="H183" s="154"/>
-      <c r="I183" s="154"/>
-      <c r="J183" s="154"/>
-      <c r="K183" s="150"/>
+      <c r="A183" s="85"/>
+      <c r="B183" s="85"/>
+      <c r="C183" s="85"/>
+      <c r="D183" s="85"/>
+      <c r="E183" s="85"/>
+      <c r="F183" s="85"/>
+      <c r="G183" s="85"/>
+      <c r="H183" s="85"/>
+      <c r="I183" s="85"/>
+      <c r="J183" s="85"/>
+      <c r="K183" s="82"/>
     </row>
     <row r="184" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A184" s="154"/>
-      <c r="B184" s="154"/>
-      <c r="C184" s="154"/>
-      <c r="D184" s="154"/>
-      <c r="E184" s="154"/>
-      <c r="F184" s="154"/>
-      <c r="G184" s="154"/>
-      <c r="H184" s="154"/>
-      <c r="I184" s="154"/>
-      <c r="J184" s="154"/>
-      <c r="K184" s="150"/>
+      <c r="A184" s="85"/>
+      <c r="B184" s="85"/>
+      <c r="C184" s="85"/>
+      <c r="D184" s="85"/>
+      <c r="E184" s="85"/>
+      <c r="F184" s="85"/>
+      <c r="G184" s="85"/>
+      <c r="H184" s="85"/>
+      <c r="I184" s="85"/>
+      <c r="J184" s="85"/>
+      <c r="K184" s="82"/>
     </row>
     <row r="185" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A185" s="154"/>
-      <c r="B185" s="154"/>
-      <c r="C185" s="154"/>
-      <c r="D185" s="154"/>
-      <c r="E185" s="154"/>
-      <c r="F185" s="154"/>
-      <c r="G185" s="154"/>
-      <c r="H185" s="154"/>
-      <c r="I185" s="154"/>
-      <c r="J185" s="154"/>
-      <c r="K185" s="150"/>
+      <c r="A185" s="85"/>
+      <c r="B185" s="85"/>
+      <c r="C185" s="85"/>
+      <c r="D185" s="85"/>
+      <c r="E185" s="85"/>
+      <c r="F185" s="85"/>
+      <c r="G185" s="85"/>
+      <c r="H185" s="85"/>
+      <c r="I185" s="85"/>
+      <c r="J185" s="85"/>
+      <c r="K185" s="82"/>
     </row>
     <row r="186" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A186" s="154"/>
-      <c r="B186" s="154"/>
-      <c r="C186" s="154"/>
-      <c r="D186" s="154"/>
-      <c r="E186" s="154"/>
-      <c r="F186" s="154"/>
-      <c r="G186" s="154"/>
-      <c r="H186" s="154"/>
-      <c r="I186" s="154"/>
-      <c r="J186" s="154"/>
-      <c r="K186" s="150"/>
+      <c r="A186" s="85"/>
+      <c r="B186" s="85"/>
+      <c r="C186" s="85"/>
+      <c r="D186" s="85"/>
+      <c r="E186" s="85"/>
+      <c r="F186" s="85"/>
+      <c r="G186" s="85"/>
+      <c r="H186" s="85"/>
+      <c r="I186" s="85"/>
+      <c r="J186" s="85"/>
+      <c r="K186" s="82"/>
     </row>
     <row r="187" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A187" s="154"/>
-      <c r="B187" s="154"/>
-      <c r="C187" s="154"/>
-      <c r="D187" s="154"/>
-      <c r="E187" s="154"/>
-      <c r="F187" s="154"/>
-      <c r="G187" s="154"/>
-      <c r="H187" s="154"/>
-      <c r="I187" s="154"/>
-      <c r="J187" s="154"/>
-      <c r="K187" s="150"/>
+      <c r="A187" s="85"/>
+      <c r="B187" s="85"/>
+      <c r="C187" s="85"/>
+      <c r="D187" s="85"/>
+      <c r="E187" s="85"/>
+      <c r="F187" s="85"/>
+      <c r="G187" s="85"/>
+      <c r="H187" s="85"/>
+      <c r="I187" s="85"/>
+      <c r="J187" s="85"/>
+      <c r="K187" s="82"/>
     </row>
     <row r="188" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A188" s="154"/>
-      <c r="B188" s="154"/>
-      <c r="C188" s="154"/>
-      <c r="D188" s="154"/>
-      <c r="E188" s="154"/>
-      <c r="F188" s="154"/>
-      <c r="G188" s="154"/>
-      <c r="H188" s="154"/>
-      <c r="I188" s="154"/>
-      <c r="J188" s="154"/>
-      <c r="K188" s="150"/>
+      <c r="A188" s="85"/>
+      <c r="B188" s="85"/>
+      <c r="C188" s="85"/>
+      <c r="D188" s="85"/>
+      <c r="E188" s="85"/>
+      <c r="F188" s="85"/>
+      <c r="G188" s="85"/>
+      <c r="H188" s="85"/>
+      <c r="I188" s="85"/>
+      <c r="J188" s="85"/>
+      <c r="K188" s="82"/>
     </row>
     <row r="189" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A189" s="154"/>
-      <c r="B189" s="154"/>
-      <c r="C189" s="154"/>
-      <c r="D189" s="154"/>
-      <c r="E189" s="154"/>
-      <c r="F189" s="154"/>
-      <c r="G189" s="154"/>
-      <c r="H189" s="154"/>
-      <c r="I189" s="154"/>
-      <c r="J189" s="154"/>
-      <c r="K189" s="150"/>
+      <c r="A189" s="85"/>
+      <c r="B189" s="85"/>
+      <c r="C189" s="85"/>
+      <c r="D189" s="85"/>
+      <c r="E189" s="85"/>
+      <c r="F189" s="85"/>
+      <c r="G189" s="85"/>
+      <c r="H189" s="85"/>
+      <c r="I189" s="85"/>
+      <c r="J189" s="85"/>
+      <c r="K189" s="82"/>
     </row>
     <row r="190" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A190" s="154"/>
-      <c r="B190" s="154"/>
-      <c r="C190" s="154"/>
-      <c r="D190" s="154"/>
-      <c r="E190" s="154"/>
-      <c r="F190" s="154"/>
-      <c r="G190" s="154"/>
-      <c r="H190" s="154"/>
-      <c r="I190" s="154"/>
-      <c r="J190" s="154"/>
-      <c r="K190" s="150"/>
+      <c r="A190" s="85"/>
+      <c r="B190" s="85"/>
+      <c r="C190" s="85"/>
+      <c r="D190" s="85"/>
+      <c r="E190" s="85"/>
+      <c r="F190" s="85"/>
+      <c r="G190" s="85"/>
+      <c r="H190" s="85"/>
+      <c r="I190" s="85"/>
+      <c r="J190" s="85"/>
+      <c r="K190" s="82"/>
     </row>
     <row r="191" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A191" s="154"/>
-      <c r="B191" s="154"/>
-      <c r="C191" s="154"/>
-      <c r="D191" s="154"/>
-      <c r="E191" s="154"/>
-      <c r="F191" s="154"/>
-      <c r="G191" s="154"/>
-      <c r="H191" s="154"/>
-      <c r="I191" s="154"/>
-      <c r="J191" s="154"/>
-      <c r="K191" s="150"/>
+      <c r="A191" s="85"/>
+      <c r="B191" s="85"/>
+      <c r="C191" s="85"/>
+      <c r="D191" s="85"/>
+      <c r="E191" s="85"/>
+      <c r="F191" s="85"/>
+      <c r="G191" s="85"/>
+      <c r="H191" s="85"/>
+      <c r="I191" s="85"/>
+      <c r="J191" s="85"/>
+      <c r="K191" s="82"/>
     </row>
     <row r="192" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A192" s="154"/>
-      <c r="B192" s="154"/>
-      <c r="C192" s="154"/>
-      <c r="D192" s="154"/>
-      <c r="E192" s="154"/>
-      <c r="F192" s="154"/>
-      <c r="G192" s="154"/>
-      <c r="H192" s="154"/>
-      <c r="I192" s="154"/>
-      <c r="J192" s="154"/>
-      <c r="K192" s="150"/>
+      <c r="A192" s="85"/>
+      <c r="B192" s="85"/>
+      <c r="C192" s="85"/>
+      <c r="D192" s="85"/>
+      <c r="E192" s="85"/>
+      <c r="F192" s="85"/>
+      <c r="G192" s="85"/>
+      <c r="H192" s="85"/>
+      <c r="I192" s="85"/>
+      <c r="J192" s="85"/>
+      <c r="K192" s="82"/>
     </row>
     <row r="193" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A193" s="154"/>
-      <c r="B193" s="154"/>
-      <c r="C193" s="154"/>
-      <c r="D193" s="154"/>
-      <c r="E193" s="154"/>
-      <c r="F193" s="154"/>
-      <c r="G193" s="154"/>
-      <c r="H193" s="154"/>
-      <c r="I193" s="154"/>
-      <c r="J193" s="154"/>
-      <c r="K193" s="150"/>
+      <c r="A193" s="85"/>
+      <c r="B193" s="85"/>
+      <c r="C193" s="85"/>
+      <c r="D193" s="85"/>
+      <c r="E193" s="85"/>
+      <c r="F193" s="85"/>
+      <c r="G193" s="85"/>
+      <c r="H193" s="85"/>
+      <c r="I193" s="85"/>
+      <c r="J193" s="85"/>
+      <c r="K193" s="82"/>
     </row>
     <row r="194" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A194" s="154"/>
-      <c r="B194" s="154"/>
-      <c r="C194" s="154"/>
-      <c r="D194" s="154"/>
-      <c r="E194" s="154"/>
-      <c r="F194" s="154"/>
-      <c r="G194" s="154"/>
-      <c r="H194" s="154"/>
-      <c r="I194" s="154"/>
-      <c r="J194" s="154"/>
-      <c r="K194" s="150"/>
+      <c r="A194" s="85"/>
+      <c r="B194" s="85"/>
+      <c r="C194" s="85"/>
+      <c r="D194" s="85"/>
+      <c r="E194" s="85"/>
+      <c r="F194" s="85"/>
+      <c r="G194" s="85"/>
+      <c r="H194" s="85"/>
+      <c r="I194" s="85"/>
+      <c r="J194" s="85"/>
+      <c r="K194" s="82"/>
     </row>
     <row r="195" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A195" s="154"/>
-      <c r="B195" s="154"/>
-      <c r="C195" s="154"/>
-      <c r="D195" s="154"/>
-      <c r="E195" s="154"/>
-      <c r="F195" s="154"/>
-      <c r="G195" s="154"/>
-      <c r="H195" s="154"/>
-      <c r="I195" s="154"/>
-      <c r="J195" s="154"/>
-      <c r="K195" s="150"/>
+      <c r="A195" s="85"/>
+      <c r="B195" s="85"/>
+      <c r="C195" s="85"/>
+      <c r="D195" s="85"/>
+      <c r="E195" s="85"/>
+      <c r="F195" s="85"/>
+      <c r="G195" s="85"/>
+      <c r="H195" s="85"/>
+      <c r="I195" s="85"/>
+      <c r="J195" s="85"/>
+      <c r="K195" s="82"/>
     </row>
     <row r="196" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A196" s="154"/>
-      <c r="B196" s="154"/>
-      <c r="C196" s="154"/>
-      <c r="D196" s="154"/>
-      <c r="E196" s="154"/>
-      <c r="F196" s="154"/>
-      <c r="G196" s="154"/>
-      <c r="H196" s="154"/>
-      <c r="I196" s="154"/>
-      <c r="J196" s="154"/>
-      <c r="K196" s="150"/>
+      <c r="A196" s="85"/>
+      <c r="B196" s="85"/>
+      <c r="C196" s="85"/>
+      <c r="D196" s="85"/>
+      <c r="E196" s="85"/>
+      <c r="F196" s="85"/>
+      <c r="G196" s="85"/>
+      <c r="H196" s="85"/>
+      <c r="I196" s="85"/>
+      <c r="J196" s="85"/>
+      <c r="K196" s="82"/>
     </row>
     <row r="197" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A197" s="154"/>
-      <c r="B197" s="154"/>
-      <c r="C197" s="154"/>
-      <c r="D197" s="154"/>
-      <c r="E197" s="154"/>
-      <c r="F197" s="154"/>
-      <c r="G197" s="154"/>
-      <c r="H197" s="154"/>
-      <c r="I197" s="154"/>
-      <c r="J197" s="154"/>
-      <c r="K197" s="150"/>
+      <c r="A197" s="85"/>
+      <c r="B197" s="85"/>
+      <c r="C197" s="85"/>
+      <c r="D197" s="85"/>
+      <c r="E197" s="85"/>
+      <c r="F197" s="85"/>
+      <c r="G197" s="85"/>
+      <c r="H197" s="85"/>
+      <c r="I197" s="85"/>
+      <c r="J197" s="85"/>
+      <c r="K197" s="82"/>
     </row>
     <row r="198" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A198" s="154"/>
-      <c r="B198" s="154"/>
-      <c r="C198" s="154"/>
-      <c r="D198" s="154"/>
-      <c r="E198" s="154"/>
-      <c r="F198" s="154"/>
-      <c r="G198" s="154"/>
-      <c r="H198" s="154"/>
-      <c r="I198" s="154"/>
-      <c r="J198" s="154"/>
-      <c r="K198" s="150"/>
+      <c r="A198" s="85"/>
+      <c r="B198" s="85"/>
+      <c r="C198" s="85"/>
+      <c r="D198" s="85"/>
+      <c r="E198" s="85"/>
+      <c r="F198" s="85"/>
+      <c r="G198" s="85"/>
+      <c r="H198" s="85"/>
+      <c r="I198" s="85"/>
+      <c r="J198" s="85"/>
+      <c r="K198" s="82"/>
     </row>
     <row r="199" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A199" s="154"/>
-      <c r="B199" s="154"/>
-      <c r="C199" s="154"/>
-      <c r="D199" s="154"/>
-      <c r="E199" s="154"/>
-      <c r="F199" s="154"/>
-      <c r="G199" s="154"/>
-      <c r="H199" s="154"/>
-      <c r="I199" s="154"/>
-      <c r="J199" s="154"/>
-      <c r="K199" s="150"/>
+      <c r="A199" s="85"/>
+      <c r="B199" s="85"/>
+      <c r="C199" s="85"/>
+      <c r="D199" s="85"/>
+      <c r="E199" s="85"/>
+      <c r="F199" s="85"/>
+      <c r="G199" s="85"/>
+      <c r="H199" s="85"/>
+      <c r="I199" s="85"/>
+      <c r="J199" s="85"/>
+      <c r="K199" s="82"/>
     </row>
     <row r="200" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A200" s="154"/>
-      <c r="B200" s="154"/>
-      <c r="C200" s="154"/>
-      <c r="D200" s="154"/>
-      <c r="E200" s="154"/>
-      <c r="F200" s="154"/>
-      <c r="G200" s="154"/>
-      <c r="H200" s="154"/>
-      <c r="I200" s="154"/>
-      <c r="J200" s="154"/>
-      <c r="K200" s="150"/>
+      <c r="A200" s="85"/>
+      <c r="B200" s="85"/>
+      <c r="C200" s="85"/>
+      <c r="D200" s="85"/>
+      <c r="E200" s="85"/>
+      <c r="F200" s="85"/>
+      <c r="G200" s="85"/>
+      <c r="H200" s="85"/>
+      <c r="I200" s="85"/>
+      <c r="J200" s="85"/>
+      <c r="K200" s="82"/>
     </row>
     <row r="201" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A201" s="154"/>
-      <c r="B201" s="154"/>
-      <c r="C201" s="154"/>
-      <c r="D201" s="154"/>
-      <c r="E201" s="154"/>
-      <c r="F201" s="154"/>
-      <c r="G201" s="154"/>
-      <c r="H201" s="154"/>
-      <c r="I201" s="154"/>
-      <c r="J201" s="154"/>
-      <c r="K201" s="150"/>
+      <c r="A201" s="85"/>
+      <c r="B201" s="85"/>
+      <c r="C201" s="85"/>
+      <c r="D201" s="85"/>
+      <c r="E201" s="85"/>
+      <c r="F201" s="85"/>
+      <c r="G201" s="85"/>
+      <c r="H201" s="85"/>
+      <c r="I201" s="85"/>
+      <c r="J201" s="85"/>
+      <c r="K201" s="82"/>
     </row>
     <row r="202" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A202" s="154"/>
-      <c r="B202" s="154"/>
-      <c r="C202" s="154"/>
-      <c r="D202" s="154"/>
-      <c r="E202" s="154"/>
-      <c r="F202" s="154"/>
-      <c r="G202" s="154"/>
-      <c r="H202" s="154"/>
-      <c r="I202" s="154"/>
-      <c r="J202" s="154"/>
-      <c r="K202" s="150"/>
+      <c r="A202" s="85"/>
+      <c r="B202" s="85"/>
+      <c r="C202" s="85"/>
+      <c r="D202" s="85"/>
+      <c r="E202" s="85"/>
+      <c r="F202" s="85"/>
+      <c r="G202" s="85"/>
+      <c r="H202" s="85"/>
+      <c r="I202" s="85"/>
+      <c r="J202" s="85"/>
+      <c r="K202" s="82"/>
     </row>
     <row r="203" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A203" s="154"/>
-      <c r="B203" s="154"/>
-      <c r="C203" s="154"/>
-      <c r="D203" s="154"/>
-      <c r="E203" s="154"/>
-      <c r="F203" s="154"/>
-      <c r="G203" s="154"/>
-      <c r="H203" s="154"/>
-      <c r="I203" s="154"/>
-      <c r="J203" s="154"/>
-      <c r="K203" s="150"/>
+      <c r="A203" s="85"/>
+      <c r="B203" s="85"/>
+      <c r="C203" s="85"/>
+      <c r="D203" s="85"/>
+      <c r="E203" s="85"/>
+      <c r="F203" s="85"/>
+      <c r="G203" s="85"/>
+      <c r="H203" s="85"/>
+      <c r="I203" s="85"/>
+      <c r="J203" s="85"/>
+      <c r="K203" s="82"/>
     </row>
     <row r="204" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A204" s="154"/>
-      <c r="B204" s="154"/>
-      <c r="C204" s="154"/>
-      <c r="D204" s="154"/>
-      <c r="E204" s="154"/>
-      <c r="F204" s="154"/>
-      <c r="G204" s="154"/>
-      <c r="H204" s="154"/>
-      <c r="I204" s="154"/>
-      <c r="J204" s="154"/>
-      <c r="K204" s="150"/>
+      <c r="A204" s="85"/>
+      <c r="B204" s="85"/>
+      <c r="C204" s="85"/>
+      <c r="D204" s="85"/>
+      <c r="E204" s="85"/>
+      <c r="F204" s="85"/>
+      <c r="G204" s="85"/>
+      <c r="H204" s="85"/>
+      <c r="I204" s="85"/>
+      <c r="J204" s="85"/>
+      <c r="K204" s="82"/>
     </row>
     <row r="205" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A205" s="154"/>
-      <c r="B205" s="154"/>
-      <c r="C205" s="154"/>
-      <c r="D205" s="154"/>
-      <c r="E205" s="154"/>
-      <c r="F205" s="154"/>
-      <c r="G205" s="154"/>
-      <c r="H205" s="154"/>
-      <c r="I205" s="154"/>
-      <c r="J205" s="154"/>
-      <c r="K205" s="150"/>
+      <c r="A205" s="85"/>
+      <c r="B205" s="85"/>
+      <c r="C205" s="85"/>
+      <c r="D205" s="85"/>
+      <c r="E205" s="85"/>
+      <c r="F205" s="85"/>
+      <c r="G205" s="85"/>
+      <c r="H205" s="85"/>
+      <c r="I205" s="85"/>
+      <c r="J205" s="85"/>
+      <c r="K205" s="82"/>
     </row>
     <row r="206" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A206" s="154"/>
-      <c r="B206" s="154"/>
-      <c r="C206" s="154"/>
-      <c r="D206" s="154"/>
-      <c r="E206" s="154"/>
-      <c r="F206" s="154"/>
-      <c r="G206" s="154"/>
-      <c r="H206" s="154"/>
-      <c r="I206" s="154"/>
-      <c r="J206" s="154"/>
-      <c r="K206" s="150"/>
+      <c r="A206" s="85"/>
+      <c r="B206" s="85"/>
+      <c r="C206" s="85"/>
+      <c r="D206" s="85"/>
+      <c r="E206" s="85"/>
+      <c r="F206" s="85"/>
+      <c r="G206" s="85"/>
+      <c r="H206" s="85"/>
+      <c r="I206" s="85"/>
+      <c r="J206" s="85"/>
+      <c r="K206" s="82"/>
     </row>
     <row r="207" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A207" s="154"/>
-      <c r="B207" s="154"/>
-      <c r="C207" s="154"/>
-      <c r="D207" s="154"/>
-      <c r="E207" s="154"/>
-      <c r="F207" s="154"/>
-      <c r="G207" s="154"/>
-      <c r="H207" s="154"/>
-      <c r="I207" s="154"/>
-      <c r="J207" s="154"/>
-      <c r="K207" s="150"/>
+      <c r="A207" s="85"/>
+      <c r="B207" s="85"/>
+      <c r="C207" s="85"/>
+      <c r="D207" s="85"/>
+      <c r="E207" s="85"/>
+      <c r="F207" s="85"/>
+      <c r="G207" s="85"/>
+      <c r="H207" s="85"/>
+      <c r="I207" s="85"/>
+      <c r="J207" s="85"/>
+      <c r="K207" s="82"/>
     </row>
     <row r="208" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A208" s="154"/>
-      <c r="B208" s="154"/>
-      <c r="C208" s="154"/>
-      <c r="D208" s="154"/>
-      <c r="E208" s="154"/>
-      <c r="F208" s="154"/>
-      <c r="G208" s="154"/>
-      <c r="H208" s="154"/>
-      <c r="I208" s="154"/>
-      <c r="J208" s="154"/>
-      <c r="K208" s="150"/>
+      <c r="A208" s="85"/>
+      <c r="B208" s="85"/>
+      <c r="C208" s="85"/>
+      <c r="D208" s="85"/>
+      <c r="E208" s="85"/>
+      <c r="F208" s="85"/>
+      <c r="G208" s="85"/>
+      <c r="H208" s="85"/>
+      <c r="I208" s="85"/>
+      <c r="J208" s="85"/>
+      <c r="K208" s="82"/>
     </row>
     <row r="209" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A209" s="154"/>
-      <c r="B209" s="154"/>
-      <c r="C209" s="154"/>
-      <c r="D209" s="154"/>
-      <c r="E209" s="154"/>
-      <c r="F209" s="154"/>
-      <c r="G209" s="154"/>
-      <c r="H209" s="154"/>
-      <c r="I209" s="154"/>
-      <c r="J209" s="154"/>
-      <c r="K209" s="150"/>
+      <c r="A209" s="85"/>
+      <c r="B209" s="85"/>
+      <c r="C209" s="85"/>
+      <c r="D209" s="85"/>
+      <c r="E209" s="85"/>
+      <c r="F209" s="85"/>
+      <c r="G209" s="85"/>
+      <c r="H209" s="85"/>
+      <c r="I209" s="85"/>
+      <c r="J209" s="85"/>
+      <c r="K209" s="82"/>
     </row>
     <row r="210" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A210" s="154"/>
-      <c r="B210" s="154"/>
-      <c r="C210" s="154"/>
-      <c r="D210" s="154"/>
-      <c r="E210" s="154"/>
-      <c r="F210" s="154"/>
-      <c r="G210" s="154"/>
-      <c r="H210" s="154"/>
-      <c r="I210" s="154"/>
-      <c r="J210" s="154"/>
-      <c r="K210" s="150"/>
+      <c r="A210" s="85"/>
+      <c r="B210" s="85"/>
+      <c r="C210" s="85"/>
+      <c r="D210" s="85"/>
+      <c r="E210" s="85"/>
+      <c r="F210" s="85"/>
+      <c r="G210" s="85"/>
+      <c r="H210" s="85"/>
+      <c r="I210" s="85"/>
+      <c r="J210" s="85"/>
+      <c r="K210" s="82"/>
     </row>
     <row r="211" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A211" s="154"/>
-      <c r="B211" s="154"/>
-      <c r="C211" s="154"/>
-      <c r="D211" s="154"/>
-      <c r="E211" s="154"/>
-      <c r="F211" s="154"/>
-      <c r="G211" s="154"/>
-      <c r="H211" s="154"/>
-      <c r="I211" s="154"/>
-      <c r="J211" s="154"/>
-      <c r="K211" s="150"/>
+      <c r="A211" s="85"/>
+      <c r="B211" s="85"/>
+      <c r="C211" s="85"/>
+      <c r="D211" s="85"/>
+      <c r="E211" s="85"/>
+      <c r="F211" s="85"/>
+      <c r="G211" s="85"/>
+      <c r="H211" s="85"/>
+      <c r="I211" s="85"/>
+      <c r="J211" s="85"/>
+      <c r="K211" s="82"/>
     </row>
     <row r="212" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A212" s="154"/>
-      <c r="B212" s="154"/>
-      <c r="C212" s="154"/>
-      <c r="D212" s="154"/>
-      <c r="E212" s="154"/>
-      <c r="F212" s="154"/>
-      <c r="G212" s="154"/>
-      <c r="H212" s="154"/>
-      <c r="I212" s="154"/>
-      <c r="J212" s="154"/>
-      <c r="K212" s="150"/>
+      <c r="A212" s="85"/>
+      <c r="B212" s="85"/>
+      <c r="C212" s="85"/>
+      <c r="D212" s="85"/>
+      <c r="E212" s="85"/>
+      <c r="F212" s="85"/>
+      <c r="G212" s="85"/>
+      <c r="H212" s="85"/>
+      <c r="I212" s="85"/>
+      <c r="J212" s="85"/>
+      <c r="K212" s="82"/>
     </row>
     <row r="213" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A213" s="154"/>
-      <c r="B213" s="154"/>
-      <c r="C213" s="154"/>
-      <c r="D213" s="154"/>
-      <c r="E213" s="154"/>
-      <c r="F213" s="154"/>
-      <c r="G213" s="154"/>
-      <c r="H213" s="154"/>
-      <c r="I213" s="154"/>
-      <c r="J213" s="154"/>
-      <c r="K213" s="150"/>
+      <c r="A213" s="85"/>
+      <c r="B213" s="85"/>
+      <c r="C213" s="85"/>
+      <c r="D213" s="85"/>
+      <c r="E213" s="85"/>
+      <c r="F213" s="85"/>
+      <c r="G213" s="85"/>
+      <c r="H213" s="85"/>
+      <c r="I213" s="85"/>
+      <c r="J213" s="85"/>
+      <c r="K213" s="82"/>
     </row>
     <row r="214" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A214" s="154"/>
-      <c r="B214" s="154"/>
-      <c r="C214" s="154"/>
-      <c r="D214" s="154"/>
-      <c r="E214" s="154"/>
-      <c r="F214" s="154"/>
-      <c r="G214" s="154"/>
-      <c r="H214" s="154"/>
-      <c r="I214" s="154"/>
-      <c r="J214" s="154"/>
-      <c r="K214" s="150"/>
+      <c r="A214" s="85"/>
+      <c r="B214" s="85"/>
+      <c r="C214" s="85"/>
+      <c r="D214" s="85"/>
+      <c r="E214" s="85"/>
+      <c r="F214" s="85"/>
+      <c r="G214" s="85"/>
+      <c r="H214" s="85"/>
+      <c r="I214" s="85"/>
+      <c r="J214" s="85"/>
+      <c r="K214" s="82"/>
     </row>
     <row r="215" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A215" s="154"/>
-      <c r="B215" s="154"/>
-      <c r="C215" s="154"/>
-      <c r="D215" s="154"/>
-      <c r="E215" s="154"/>
-      <c r="F215" s="154"/>
-      <c r="G215" s="154"/>
-      <c r="H215" s="154"/>
-      <c r="I215" s="154"/>
-      <c r="J215" s="154"/>
-      <c r="K215" s="150"/>
+      <c r="A215" s="85"/>
+      <c r="B215" s="85"/>
+      <c r="C215" s="85"/>
+      <c r="D215" s="85"/>
+      <c r="E215" s="85"/>
+      <c r="F215" s="85"/>
+      <c r="G215" s="85"/>
+      <c r="H215" s="85"/>
+      <c r="I215" s="85"/>
+      <c r="J215" s="85"/>
+      <c r="K215" s="82"/>
     </row>
     <row r="216" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A216" s="154"/>
-      <c r="B216" s="154"/>
-      <c r="C216" s="154"/>
-      <c r="D216" s="154"/>
-      <c r="E216" s="154"/>
-      <c r="F216" s="154"/>
-      <c r="G216" s="154"/>
-      <c r="H216" s="154"/>
-      <c r="I216" s="154"/>
-      <c r="J216" s="154"/>
-      <c r="K216" s="150"/>
+      <c r="A216" s="85"/>
+      <c r="B216" s="85"/>
+      <c r="C216" s="85"/>
+      <c r="D216" s="85"/>
+      <c r="E216" s="85"/>
+      <c r="F216" s="85"/>
+      <c r="G216" s="85"/>
+      <c r="H216" s="85"/>
+      <c r="I216" s="85"/>
+      <c r="J216" s="85"/>
+      <c r="K216" s="82"/>
     </row>
     <row r="217" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A217" s="154"/>
-      <c r="B217" s="154"/>
-      <c r="C217" s="154"/>
-      <c r="D217" s="154"/>
-      <c r="E217" s="154"/>
-      <c r="F217" s="154"/>
-      <c r="G217" s="154"/>
-      <c r="H217" s="154"/>
-      <c r="I217" s="154"/>
-      <c r="J217" s="154"/>
-      <c r="K217" s="150"/>
+      <c r="A217" s="85"/>
+      <c r="B217" s="85"/>
+      <c r="C217" s="85"/>
+      <c r="D217" s="85"/>
+      <c r="E217" s="85"/>
+      <c r="F217" s="85"/>
+      <c r="G217" s="85"/>
+      <c r="H217" s="85"/>
+      <c r="I217" s="85"/>
+      <c r="J217" s="85"/>
+      <c r="K217" s="82"/>
     </row>
     <row r="218" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A218" s="154"/>
-      <c r="B218" s="154"/>
-      <c r="C218" s="154"/>
-      <c r="D218" s="154"/>
-      <c r="E218" s="154"/>
-      <c r="F218" s="154"/>
-      <c r="G218" s="154"/>
-      <c r="H218" s="154"/>
-      <c r="I218" s="154"/>
-      <c r="J218" s="154"/>
-      <c r="K218" s="150"/>
+      <c r="A218" s="85"/>
+      <c r="B218" s="85"/>
+      <c r="C218" s="85"/>
+      <c r="D218" s="85"/>
+      <c r="E218" s="85"/>
+      <c r="F218" s="85"/>
+      <c r="G218" s="85"/>
+      <c r="H218" s="85"/>
+      <c r="I218" s="85"/>
+      <c r="J218" s="85"/>
+      <c r="K218" s="82"/>
     </row>
     <row r="219" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A219" s="154"/>
-      <c r="B219" s="154"/>
-      <c r="C219" s="154"/>
-      <c r="D219" s="154"/>
-      <c r="E219" s="154"/>
-      <c r="F219" s="154"/>
-      <c r="G219" s="154"/>
-      <c r="H219" s="154"/>
-      <c r="I219" s="154"/>
-      <c r="J219" s="154"/>
-      <c r="K219" s="150"/>
+      <c r="A219" s="85"/>
+      <c r="B219" s="85"/>
+      <c r="C219" s="85"/>
+      <c r="D219" s="85"/>
+      <c r="E219" s="85"/>
+      <c r="F219" s="85"/>
+      <c r="G219" s="85"/>
+      <c r="H219" s="85"/>
+      <c r="I219" s="85"/>
+      <c r="J219" s="85"/>
+      <c r="K219" s="82"/>
     </row>
     <row r="220" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A220" s="154"/>
-      <c r="B220" s="154"/>
-      <c r="C220" s="154"/>
-      <c r="D220" s="154"/>
-      <c r="E220" s="154"/>
-      <c r="F220" s="154"/>
-      <c r="G220" s="154"/>
-      <c r="H220" s="154"/>
-      <c r="I220" s="154"/>
-      <c r="J220" s="154"/>
-      <c r="K220" s="150"/>
+      <c r="A220" s="85"/>
+      <c r="B220" s="85"/>
+      <c r="C220" s="85"/>
+      <c r="D220" s="85"/>
+      <c r="E220" s="85"/>
+      <c r="F220" s="85"/>
+      <c r="G220" s="85"/>
+      <c r="H220" s="85"/>
+      <c r="I220" s="85"/>
+      <c r="J220" s="85"/>
+      <c r="K220" s="82"/>
     </row>
     <row r="221" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A221" s="154"/>
-      <c r="B221" s="154"/>
-      <c r="C221" s="154"/>
-      <c r="D221" s="154"/>
-      <c r="E221" s="154"/>
-      <c r="F221" s="154"/>
-      <c r="G221" s="154"/>
-      <c r="H221" s="154"/>
-      <c r="I221" s="154"/>
-      <c r="J221" s="154"/>
-      <c r="K221" s="150"/>
+      <c r="A221" s="85"/>
+      <c r="B221" s="85"/>
+      <c r="C221" s="85"/>
+      <c r="D221" s="85"/>
+      <c r="E221" s="85"/>
+      <c r="F221" s="85"/>
+      <c r="G221" s="85"/>
+      <c r="H221" s="85"/>
+      <c r="I221" s="85"/>
+      <c r="J221" s="85"/>
+      <c r="K221" s="82"/>
     </row>
     <row r="222" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A222" s="154"/>
-      <c r="B222" s="154"/>
-      <c r="C222" s="154"/>
-      <c r="D222" s="154"/>
-      <c r="E222" s="154"/>
-      <c r="F222" s="154"/>
-      <c r="G222" s="154"/>
-      <c r="H222" s="154"/>
-      <c r="I222" s="154"/>
-      <c r="J222" s="154"/>
-      <c r="K222" s="150"/>
+      <c r="A222" s="85"/>
+      <c r="B222" s="85"/>
+      <c r="C222" s="85"/>
+      <c r="D222" s="85"/>
+      <c r="E222" s="85"/>
+      <c r="F222" s="85"/>
+      <c r="G222" s="85"/>
+      <c r="H222" s="85"/>
+      <c r="I222" s="85"/>
+      <c r="J222" s="85"/>
+      <c r="K222" s="82"/>
     </row>
     <row r="223" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A223" s="154"/>
-      <c r="B223" s="154"/>
-      <c r="C223" s="154"/>
-      <c r="D223" s="154"/>
-      <c r="E223" s="154"/>
-      <c r="F223" s="154"/>
-      <c r="G223" s="154"/>
-      <c r="H223" s="154"/>
-      <c r="I223" s="154"/>
-      <c r="J223" s="154"/>
-      <c r="K223" s="150"/>
+      <c r="A223" s="85"/>
+      <c r="B223" s="85"/>
+      <c r="C223" s="85"/>
+      <c r="D223" s="85"/>
+      <c r="E223" s="85"/>
+      <c r="F223" s="85"/>
+      <c r="G223" s="85"/>
+      <c r="H223" s="85"/>
+      <c r="I223" s="85"/>
+      <c r="J223" s="85"/>
+      <c r="K223" s="82"/>
     </row>
     <row r="224" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A224" s="154"/>
-      <c r="B224" s="154"/>
-      <c r="C224" s="154"/>
-      <c r="D224" s="154"/>
-      <c r="E224" s="154"/>
-      <c r="F224" s="154"/>
-      <c r="G224" s="154"/>
-      <c r="H224" s="154"/>
-      <c r="I224" s="154"/>
-      <c r="J224" s="154"/>
-      <c r="K224" s="150"/>
+      <c r="A224" s="85"/>
+      <c r="B224" s="85"/>
+      <c r="C224" s="85"/>
+      <c r="D224" s="85"/>
+      <c r="E224" s="85"/>
+      <c r="F224" s="85"/>
+      <c r="G224" s="85"/>
+      <c r="H224" s="85"/>
+      <c r="I224" s="85"/>
+      <c r="J224" s="85"/>
+      <c r="K224" s="82"/>
     </row>
     <row r="225" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A225" s="154"/>
-      <c r="B225" s="154"/>
-      <c r="C225" s="154"/>
-      <c r="D225" s="154"/>
-      <c r="E225" s="154"/>
-      <c r="F225" s="154"/>
-      <c r="G225" s="154"/>
-      <c r="H225" s="154"/>
-      <c r="I225" s="154"/>
-      <c r="J225" s="154"/>
-      <c r="K225" s="150"/>
+      <c r="A225" s="85"/>
+      <c r="B225" s="85"/>
+      <c r="C225" s="85"/>
+      <c r="D225" s="85"/>
+      <c r="E225" s="85"/>
+      <c r="F225" s="85"/>
+      <c r="G225" s="85"/>
+      <c r="H225" s="85"/>
+      <c r="I225" s="85"/>
+      <c r="J225" s="85"/>
+      <c r="K225" s="82"/>
     </row>
     <row r="226" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A226" s="151"/>
-      <c r="B226" s="151"/>
-      <c r="C226" s="151"/>
-      <c r="D226" s="151"/>
-      <c r="E226" s="151"/>
-      <c r="F226" s="151"/>
-      <c r="G226" s="151"/>
-      <c r="H226" s="151"/>
-      <c r="I226" s="151"/>
-      <c r="J226" s="151"/>
-      <c r="K226" s="152"/>
+      <c r="A226" s="83"/>
+      <c r="B226" s="83"/>
+      <c r="C226" s="83"/>
+      <c r="D226" s="83"/>
+      <c r="E226" s="83"/>
+      <c r="F226" s="83"/>
+      <c r="G226" s="83"/>
+      <c r="H226" s="83"/>
+      <c r="I226" s="83"/>
+      <c r="J226" s="83"/>
+      <c r="K226" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A136:J136"/>
+    <mergeCell ref="A11:K54"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A132:K135"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A11:K54"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A96:K96"/>
-    <mergeCell ref="A132:K135"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
